--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9403" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9642" uniqueCount="472">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -476,6 +476,9 @@
     <t>X2021.09.21</t>
   </si>
   <si>
+    <t>X2021.10.09</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -551,6 +554,9 @@
     <t>X2021.08.24</t>
   </si>
   <si>
+    <t>X2021.10.08</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -629,6 +635,12 @@
     <t>X2021.08.31</t>
   </si>
   <si>
+    <t>X2021.10.05</t>
+  </si>
+  <si>
+    <t>X2021.10.12</t>
+  </si>
+  <si>
     <t>Aldershot</t>
   </si>
   <si>
@@ -1305,6 +1317,12 @@
   </si>
   <si>
     <t>X2021.10.04</t>
+  </si>
+  <si>
+    <t>X2021.10.10</t>
+  </si>
+  <si>
+    <t>X2021.10.11</t>
   </si>
   <si>
     <t>Alcorcon</t>
@@ -3531,25 +3549,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
         <v>115</v>
@@ -3561,7 +3579,7 @@
         <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3596,7 +3614,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -3667,7 +3685,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3738,7 +3756,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -3809,7 +3827,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -3880,7 +3898,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -3951,7 +3969,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -4022,7 +4040,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -4093,7 +4111,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -4164,7 +4182,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -4235,7 +4253,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -4306,7 +4324,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -4377,7 +4395,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -4448,7 +4466,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -4519,7 +4537,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -4590,7 +4608,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -4661,7 +4679,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -4732,7 +4750,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -4803,7 +4821,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -4874,7 +4892,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -4945,7 +4963,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -5068,7 +5086,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -5109,7 +5127,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -5150,7 +5168,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5191,7 +5209,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -5232,7 +5250,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -5273,7 +5291,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -5314,7 +5332,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -5355,7 +5373,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -5396,7 +5414,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5437,7 +5455,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -5478,7 +5496,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -5519,7 +5537,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -5560,7 +5578,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -5601,7 +5619,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -5692,7 +5710,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O1" t="s">
         <v>146</v>
@@ -5724,7 +5742,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -5795,7 +5813,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -5866,7 +5884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5937,7 +5955,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -6008,7 +6026,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -6079,7 +6097,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -6150,7 +6168,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -6221,7 +6239,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6292,7 +6310,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -6363,7 +6381,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -6434,7 +6452,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -6505,7 +6523,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -6576,7 +6594,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -6647,7 +6665,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -6718,7 +6736,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -6789,7 +6807,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -6860,7 +6878,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -6931,7 +6949,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -7002,7 +7020,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -7073,7 +7091,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -7194,7 +7212,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O1" t="s">
         <v>146</v>
@@ -7220,7 +7238,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -7285,7 +7303,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -7350,7 +7368,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -7415,7 +7433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -7480,7 +7498,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -7545,7 +7563,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -7610,7 +7628,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -7675,7 +7693,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -7740,7 +7758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -7805,7 +7823,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -7870,7 +7888,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -7935,7 +7953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -8000,7 +8018,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -8065,7 +8083,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -8130,7 +8148,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -8195,7 +8213,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -8260,7 +8278,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -8325,7 +8343,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -8390,7 +8408,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -8455,7 +8473,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8602,7 +8620,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -8673,7 +8691,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -8744,7 +8762,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -8815,7 +8833,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -8886,7 +8904,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -8957,7 +8975,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -9028,7 +9046,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -9099,7 +9117,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -9170,7 +9188,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -9241,7 +9259,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -9312,7 +9330,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -9383,7 +9401,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -9454,7 +9472,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -9525,7 +9543,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -9596,7 +9614,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -9667,7 +9685,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -9738,7 +9756,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -9809,7 +9827,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -9903,7 +9921,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -9915,7 +9933,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -9957,7 +9975,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -9983,7 +10001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -10075,7 +10093,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -10167,7 +10185,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -10259,7 +10277,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -10351,7 +10369,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -10443,7 +10461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -10535,7 +10553,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -10627,7 +10645,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -10719,7 +10737,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -10811,7 +10829,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -10903,7 +10921,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -10995,7 +11013,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -11087,7 +11105,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -11179,7 +11197,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -11271,7 +11289,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -11363,7 +11381,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -11455,7 +11473,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -11547,7 +11565,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -11703,7 +11721,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -11756,7 +11774,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -11809,7 +11827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -11862,7 +11880,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -11915,7 +11933,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -11968,7 +11986,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12021,7 +12039,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -12074,7 +12092,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -12127,7 +12145,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -12180,7 +12198,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -12233,7 +12251,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -12286,7 +12304,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -12356,7 +12374,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -12368,7 +12386,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -12394,7 +12412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12438,7 +12456,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -12482,7 +12500,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -12526,7 +12544,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -12570,7 +12588,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -12614,7 +12632,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12658,7 +12676,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -12702,7 +12720,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -12746,7 +12764,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -12790,7 +12808,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -12883,7 +12901,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12921,7 +12939,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -12959,7 +12977,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -12997,7 +13015,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -13035,7 +13053,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -13073,7 +13091,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -13111,7 +13129,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -13149,7 +13167,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -13187,7 +13205,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -13225,7 +13243,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -13298,7 +13316,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -13321,7 +13339,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -13368,7 +13386,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -13415,7 +13433,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -13462,7 +13480,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -13509,7 +13527,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -13556,7 +13574,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -13603,7 +13621,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -13650,7 +13668,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -13697,7 +13715,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -13744,7 +13762,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -15060,7 +15078,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -15102,7 +15120,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="T1" t="s">
         <v>146</v>
@@ -15134,7 +15152,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -15220,7 +15238,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -15306,7 +15324,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -15392,7 +15410,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -15478,7 +15496,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -15564,7 +15582,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -15650,7 +15668,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -15736,7 +15754,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -15822,7 +15840,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -15908,7 +15926,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -15994,7 +16012,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -16080,7 +16098,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -16166,7 +16184,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -16252,7 +16270,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -16338,7 +16356,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -16424,7 +16442,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -16510,7 +16528,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -16596,7 +16614,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -16682,7 +16700,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -16768,7 +16786,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -16877,7 +16895,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16901,16 +16919,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O1" t="s">
         <v>144</v>
       </c>
       <c r="P1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q1" t="s">
         <v>145</v>
@@ -16937,7 +16955,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -16961,12 +16979,24 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>423</v>
+        <v>427</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -17062,12 +17092,24 @@
         <v>52</v>
       </c>
       <c r="AG2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -17164,11 +17206,23 @@
       </c>
       <c r="AG3" t="s">
         <v>54</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -17264,12 +17318,24 @@
         <v>52</v>
       </c>
       <c r="AG4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -17365,12 +17431,24 @@
         <v>54</v>
       </c>
       <c r="AG5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -17466,12 +17544,24 @@
         <v>55</v>
       </c>
       <c r="AG6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -17567,12 +17657,24 @@
         <v>54</v>
       </c>
       <c r="AG7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -17668,12 +17770,24 @@
         <v>55</v>
       </c>
       <c r="AG8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -17770,11 +17884,23 @@
       </c>
       <c r="AG9" t="s">
         <v>55</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -17871,11 +17997,23 @@
       </c>
       <c r="AG10" t="s">
         <v>52</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -17971,12 +18109,24 @@
         <v>55</v>
       </c>
       <c r="AG11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -18072,12 +18222,24 @@
         <v>54</v>
       </c>
       <c r="AG12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -18173,12 +18335,24 @@
         <v>53</v>
       </c>
       <c r="AG13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -18274,12 +18448,24 @@
         <v>53</v>
       </c>
       <c r="AG14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -18375,12 +18561,24 @@
         <v>54</v>
       </c>
       <c r="AG15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -18476,12 +18674,24 @@
         <v>55</v>
       </c>
       <c r="AG16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -18577,12 +18787,24 @@
         <v>52</v>
       </c>
       <c r="AG17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -18678,12 +18900,24 @@
         <v>52</v>
       </c>
       <c r="AG18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -18779,12 +19013,24 @@
         <v>52</v>
       </c>
       <c r="AG19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -18880,12 +19126,24 @@
         <v>52</v>
       </c>
       <c r="AG20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -18981,12 +19239,24 @@
         <v>52</v>
       </c>
       <c r="AG21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -19082,12 +19352,24 @@
         <v>52</v>
       </c>
       <c r="AG22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -19184,6 +19466,18 @@
       </c>
       <c r="AG23" t="s">
         <v>52</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -19211,7 +19505,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19285,7 +19579,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -19371,7 +19665,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -19457,7 +19751,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -19543,7 +19837,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -19629,7 +19923,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -19715,7 +20009,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -19801,7 +20095,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -19887,7 +20181,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -19973,7 +20267,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -20059,7 +20353,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -20145,7 +20439,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -20231,7 +20525,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -20317,7 +20611,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -20403,7 +20697,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -20489,7 +20783,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -20575,7 +20869,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -20661,7 +20955,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -20747,7 +21041,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -20833,7 +21127,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -20919,7 +21213,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -25675,10 +25969,13 @@
       <c r="P1" t="s">
         <v>32</v>
       </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -25724,11 +26021,14 @@
       </c>
       <c r="P2" t="s">
         <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -25774,11 +26074,14 @@
       </c>
       <c r="P3" t="s">
         <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -25824,11 +26127,14 @@
       </c>
       <c r="P4" t="s">
         <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -25874,11 +26180,14 @@
       </c>
       <c r="P5" t="s">
         <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -25924,11 +26233,14 @@
       </c>
       <c r="P6" t="s">
         <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -25974,11 +26286,14 @@
       </c>
       <c r="P7" t="s">
         <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -26024,11 +26339,14 @@
       </c>
       <c r="P8" t="s">
         <v>55</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -26074,11 +26392,14 @@
       </c>
       <c r="P9" t="s">
         <v>53</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -26124,11 +26445,14 @@
       </c>
       <c r="P10" t="s">
         <v>54</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -26174,11 +26498,14 @@
       </c>
       <c r="P11" t="s">
         <v>55</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -26223,12 +26550,15 @@
         <v>54</v>
       </c>
       <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -26274,11 +26604,14 @@
       </c>
       <c r="P13" t="s">
         <v>55</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -26324,11 +26657,14 @@
       </c>
       <c r="P14" t="s">
         <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -26374,11 +26710,14 @@
       </c>
       <c r="P15" t="s">
         <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -26424,11 +26763,14 @@
       </c>
       <c r="P16" t="s">
         <v>55</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -26474,11 +26816,14 @@
       </c>
       <c r="P17" t="s">
         <v>54</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -26524,11 +26869,14 @@
       </c>
       <c r="P18" t="s">
         <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -26574,11 +26922,14 @@
       </c>
       <c r="P19" t="s">
         <v>54</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -26624,11 +26975,14 @@
       </c>
       <c r="P20" t="s">
         <v>54</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -26674,11 +27028,14 @@
       </c>
       <c r="P21" t="s">
         <v>55</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -26723,12 +27080,15 @@
         <v>55</v>
       </c>
       <c r="P22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -26774,11 +27134,14 @@
       </c>
       <c r="P23" t="s">
         <v>55</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -26824,11 +27187,14 @@
       </c>
       <c r="P24" t="s">
         <v>54</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -26873,6 +27239,9 @@
         <v>54</v>
       </c>
       <c r="P25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -26904,7 +27273,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -26939,10 +27308,16 @@
       <c r="Q1" t="s">
         <v>32</v>
       </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -26991,11 +27366,17 @@
       </c>
       <c r="Q2" t="s">
         <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -27044,11 +27425,17 @@
       </c>
       <c r="Q3" t="s">
         <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -27097,11 +27484,17 @@
       </c>
       <c r="Q4" t="s">
         <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -27149,12 +27542,18 @@
         <v>55</v>
       </c>
       <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -27203,11 +27602,17 @@
       </c>
       <c r="Q6" t="s">
         <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -27256,11 +27661,17 @@
       </c>
       <c r="Q7" t="s">
         <v>55</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -27308,12 +27719,18 @@
         <v>53</v>
       </c>
       <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -27362,11 +27779,17 @@
       </c>
       <c r="Q9" t="s">
         <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -27414,12 +27837,18 @@
         <v>53</v>
       </c>
       <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -27468,11 +27897,17 @@
       </c>
       <c r="Q11" t="s">
         <v>55</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -27521,11 +27956,17 @@
       </c>
       <c r="Q12" t="s">
         <v>55</v>
+      </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -27574,11 +28015,17 @@
       </c>
       <c r="Q13" t="s">
         <v>55</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -27627,11 +28074,17 @@
       </c>
       <c r="Q14" t="s">
         <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -27679,12 +28132,18 @@
         <v>53</v>
       </c>
       <c r="Q15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -27733,11 +28192,17 @@
       </c>
       <c r="Q16" t="s">
         <v>55</v>
+      </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -27786,11 +28251,17 @@
       </c>
       <c r="Q17" t="s">
         <v>54</v>
+      </c>
+      <c r="R17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -27838,12 +28309,18 @@
         <v>55</v>
       </c>
       <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -27892,11 +28369,17 @@
       </c>
       <c r="Q19" t="s">
         <v>54</v>
+      </c>
+      <c r="R19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27944,12 +28427,18 @@
         <v>55</v>
       </c>
       <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -27998,11 +28487,17 @@
       </c>
       <c r="Q21" t="s">
         <v>54</v>
+      </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -28050,12 +28545,18 @@
         <v>54</v>
       </c>
       <c r="Q22" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -28103,12 +28604,18 @@
         <v>53</v>
       </c>
       <c r="Q23" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -28157,11 +28664,17 @@
       </c>
       <c r="Q24" t="s">
         <v>54</v>
+      </c>
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -28210,6 +28723,12 @@
       </c>
       <c r="Q25" t="s">
         <v>53</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -28234,10 +28753,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
         <v>144</v>
@@ -28263,10 +28782,19 @@
       <c r="M1" t="s">
         <v>32</v>
       </c>
+      <c r="N1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -28302,12 +28830,21 @@
         <v>52</v>
       </c>
       <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -28344,11 +28881,20 @@
       </c>
       <c r="M3" t="s">
         <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -28385,11 +28931,20 @@
       </c>
       <c r="M4" t="s">
         <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -28426,11 +28981,20 @@
       </c>
       <c r="M5" t="s">
         <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -28466,12 +29030,21 @@
         <v>54</v>
       </c>
       <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -28507,12 +29080,21 @@
         <v>55</v>
       </c>
       <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -28549,11 +29131,20 @@
       </c>
       <c r="M8" t="s">
         <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -28590,11 +29181,20 @@
       </c>
       <c r="M9" t="s">
         <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -28631,11 +29231,20 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -28672,11 +29281,20 @@
       </c>
       <c r="M11" t="s">
         <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -28713,11 +29331,20 @@
       </c>
       <c r="M12" t="s">
         <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -28754,11 +29381,20 @@
       </c>
       <c r="M13" t="s">
         <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -28795,11 +29431,20 @@
       </c>
       <c r="M14" t="s">
         <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -28836,11 +29481,20 @@
       </c>
       <c r="M15" t="s">
         <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -28877,11 +29531,20 @@
       </c>
       <c r="M16" t="s">
         <v>54</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -28918,11 +29581,20 @@
       </c>
       <c r="M17" t="s">
         <v>55</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -28959,11 +29631,20 @@
       </c>
       <c r="M18" t="s">
         <v>54</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -29000,11 +29681,20 @@
       </c>
       <c r="M19" t="s">
         <v>54</v>
+      </c>
+      <c r="N19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -29041,11 +29731,20 @@
       </c>
       <c r="M20" t="s">
         <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -29082,11 +29781,20 @@
       </c>
       <c r="M21" t="s">
         <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -29123,11 +29831,20 @@
       </c>
       <c r="M22" t="s">
         <v>54</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -29163,12 +29880,21 @@
         <v>52</v>
       </c>
       <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -29205,6 +29931,15 @@
       </c>
       <c r="M24" t="s">
         <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -29297,7 +30032,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -29374,7 +30109,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -29451,7 +30186,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -29528,7 +30263,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -29605,7 +30340,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -29682,7 +30417,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -29759,7 +30494,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -29836,7 +30571,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -29913,7 +30648,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -29990,7 +30725,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -30067,7 +30802,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -30144,7 +30879,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -30221,7 +30956,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -30298,7 +31033,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -30375,7 +31110,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -30452,7 +31187,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -30529,7 +31264,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -30606,7 +31341,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -30683,7 +31418,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -30760,7 +31495,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10483" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10749" uniqueCount="478">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -326,6 +326,9 @@
     <t>X2021.09.27</t>
   </si>
   <si>
+    <t>X2021.10.18</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -402,6 +405,12 @@
   </si>
   <si>
     <t>X2021.09.29</t>
+  </si>
+  <si>
+    <t>X2021.10.19</t>
+  </si>
+  <si>
+    <t>X2021.10.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -3729,28 +3738,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -3759,7 +3768,7 @@
         <v>95</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3771,13 +3780,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -3794,10 +3803,13 @@
       <c r="X1" t="s">
         <v>35</v>
       </c>
+      <c r="Y1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3867,11 +3879,14 @@
       </c>
       <c r="X2" t="s">
         <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3941,11 +3956,14 @@
       </c>
       <c r="X3" t="s">
         <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -4015,11 +4033,14 @@
       </c>
       <c r="X4" t="s">
         <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -4089,11 +4110,14 @@
       </c>
       <c r="X5" t="s">
         <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -4163,11 +4187,14 @@
       </c>
       <c r="X6" t="s">
         <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -4237,11 +4264,14 @@
       </c>
       <c r="X7" t="s">
         <v>57</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -4311,11 +4341,14 @@
       </c>
       <c r="X8" t="s">
         <v>57</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -4385,11 +4418,14 @@
       </c>
       <c r="X9" t="s">
         <v>56</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -4459,11 +4495,14 @@
       </c>
       <c r="X10" t="s">
         <v>58</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -4533,11 +4572,14 @@
       </c>
       <c r="X11" t="s">
         <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -4607,11 +4649,14 @@
       </c>
       <c r="X12" t="s">
         <v>57</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -4681,11 +4726,14 @@
       </c>
       <c r="X13" t="s">
         <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -4755,11 +4803,14 @@
       </c>
       <c r="X14" t="s">
         <v>57</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -4829,11 +4880,14 @@
       </c>
       <c r="X15" t="s">
         <v>58</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -4903,11 +4957,14 @@
       </c>
       <c r="X16" t="s">
         <v>57</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -4977,11 +5034,14 @@
       </c>
       <c r="X17" t="s">
         <v>58</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -5051,11 +5111,14 @@
       </c>
       <c r="X18" t="s">
         <v>58</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -5125,11 +5188,14 @@
       </c>
       <c r="X19" t="s">
         <v>57</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -5199,11 +5265,14 @@
       </c>
       <c r="X20" t="s">
         <v>57</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -5273,6 +5342,9 @@
       </c>
       <c r="X21" t="s">
         <v>58</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5332,10 +5404,13 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -5378,11 +5453,14 @@
       </c>
       <c r="O2" t="s">
         <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -5424,12 +5502,15 @@
         <v>58</v>
       </c>
       <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -5472,11 +5553,14 @@
       </c>
       <c r="O4" t="s">
         <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -5518,12 +5602,15 @@
         <v>57</v>
       </c>
       <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -5566,11 +5653,14 @@
       </c>
       <c r="O6" t="s">
         <v>58</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -5613,11 +5703,14 @@
       </c>
       <c r="O7" t="s">
         <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -5659,12 +5752,15 @@
         <v>58</v>
       </c>
       <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -5707,11 +5803,14 @@
       </c>
       <c r="O9" t="s">
         <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -5754,11 +5853,14 @@
       </c>
       <c r="O10" t="s">
         <v>57</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -5801,11 +5903,14 @@
       </c>
       <c r="O11" t="s">
         <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -5847,12 +5952,15 @@
         <v>57</v>
       </c>
       <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -5895,11 +6003,14 @@
       </c>
       <c r="O13" t="s">
         <v>58</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -5942,11 +6053,14 @@
       </c>
       <c r="O14" t="s">
         <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -5989,6 +6103,9 @@
       </c>
       <c r="O15" t="s">
         <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6043,10 +6160,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -6078,10 +6195,13 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -6154,11 +6274,14 @@
       </c>
       <c r="Y2" t="s">
         <v>57</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -6231,11 +6354,14 @@
       </c>
       <c r="Y3" t="s">
         <v>56</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -6308,11 +6434,14 @@
       </c>
       <c r="Y4" t="s">
         <v>57</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -6385,11 +6514,14 @@
       </c>
       <c r="Y5" t="s">
         <v>58</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -6462,11 +6594,14 @@
       </c>
       <c r="Y6" t="s">
         <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6539,11 +6674,14 @@
       </c>
       <c r="Y7" t="s">
         <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -6615,12 +6753,15 @@
         <v>58</v>
       </c>
       <c r="Y8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -6693,11 +6834,14 @@
       </c>
       <c r="Y9" t="s">
         <v>57</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -6769,12 +6913,15 @@
         <v>57</v>
       </c>
       <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -6846,12 +6993,15 @@
         <v>57</v>
       </c>
       <c r="Y11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -6924,11 +7074,14 @@
       </c>
       <c r="Y12" t="s">
         <v>57</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -7001,11 +7154,14 @@
       </c>
       <c r="Y13" t="s">
         <v>58</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -7077,12 +7233,15 @@
         <v>58</v>
       </c>
       <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -7155,11 +7314,14 @@
       </c>
       <c r="Y15" t="s">
         <v>58</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -7232,11 +7394,14 @@
       </c>
       <c r="Y16" t="s">
         <v>56</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -7308,12 +7473,15 @@
         <v>57</v>
       </c>
       <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -7386,11 +7554,14 @@
       </c>
       <c r="Y18" t="s">
         <v>58</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -7463,11 +7634,14 @@
       </c>
       <c r="Y19" t="s">
         <v>56</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -7540,11 +7714,14 @@
       </c>
       <c r="Y20" t="s">
         <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -7616,6 +7793,9 @@
         <v>58</v>
       </c>
       <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7671,10 +7851,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7703,7 +7883,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -7774,7 +7954,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -7845,7 +8025,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -7916,7 +8096,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -7987,7 +8167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -8058,7 +8238,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -8129,7 +8309,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8200,7 +8380,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -8271,7 +8451,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -8342,7 +8522,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -8413,7 +8593,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -8484,7 +8664,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -8555,7 +8735,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -8626,7 +8806,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -8697,7 +8877,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -8768,7 +8948,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -8839,7 +9019,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -8910,7 +9090,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -8981,7 +9161,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -9052,7 +9232,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -9179,7 +9359,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -9211,7 +9391,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -9288,7 +9468,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -9365,7 +9545,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -9442,7 +9622,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -9519,7 +9699,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -9596,7 +9776,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -9673,7 +9853,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -9750,7 +9930,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -9827,7 +10007,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -9904,7 +10084,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -9981,7 +10161,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -10058,7 +10238,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -10135,7 +10315,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -10212,7 +10392,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -10289,7 +10469,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -10366,7 +10546,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -10443,7 +10623,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -10520,7 +10700,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -10620,7 +10800,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -10632,7 +10812,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -10674,7 +10854,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10700,7 +10880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -10792,7 +10972,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -10884,7 +11064,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -10976,7 +11156,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -11068,7 +11248,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -11160,7 +11340,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -11252,7 +11432,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -11344,7 +11524,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -11436,7 +11616,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -11528,7 +11708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -11620,7 +11800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -11712,7 +11892,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -11804,7 +11984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -11896,7 +12076,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -11988,7 +12168,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -12080,7 +12260,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -12172,7 +12352,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -12264,7 +12444,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -12423,7 +12603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12479,7 +12659,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -12535,7 +12715,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -12591,7 +12771,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -12647,7 +12827,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -12703,7 +12883,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -12759,7 +12939,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12815,7 +12995,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -12871,7 +13051,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -12927,7 +13107,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -12983,7 +13163,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -13039,7 +13219,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -13112,7 +13292,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -13124,7 +13304,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -13142,7 +13322,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -13156,7 +13336,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13206,7 +13386,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -13256,7 +13436,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -13306,7 +13486,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -13356,7 +13536,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -13406,7 +13586,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -13456,7 +13636,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -13506,7 +13686,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -13556,7 +13736,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -13606,7 +13786,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -13688,7 +13868,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -13708,7 +13888,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13749,7 +13929,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -13790,7 +13970,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -13831,7 +14011,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -13872,7 +14052,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -13913,7 +14093,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -13954,7 +14134,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -13995,7 +14175,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -14036,7 +14216,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -14077,7 +14257,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -14153,7 +14333,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -14182,7 +14362,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -14235,7 +14415,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14288,7 +14468,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -14341,7 +14521,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -14394,7 +14574,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -14447,7 +14627,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -14500,7 +14680,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -14553,7 +14733,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14606,7 +14786,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -14659,7 +14839,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -16152,7 +16332,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16194,10 +16374,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="T1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -16229,10 +16409,13 @@
       <c r="AD1" t="s">
         <v>36</v>
       </c>
+      <c r="AE1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -16320,11 +16503,14 @@
       </c>
       <c r="AD2" t="s">
         <v>55</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -16411,12 +16597,15 @@
         <v>55</v>
       </c>
       <c r="AD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -16503,12 +16692,15 @@
         <v>55</v>
       </c>
       <c r="AD4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -16596,11 +16788,14 @@
       </c>
       <c r="AD5" t="s">
         <v>57</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -16688,11 +16883,14 @@
       </c>
       <c r="AD6" t="s">
         <v>55</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -16780,11 +16978,14 @@
       </c>
       <c r="AD7" t="s">
         <v>55</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -16872,11 +17073,14 @@
       </c>
       <c r="AD8" t="s">
         <v>58</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -16964,11 +17168,14 @@
       </c>
       <c r="AD9" t="s">
         <v>58</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -17056,11 +17263,14 @@
       </c>
       <c r="AD10" t="s">
         <v>55</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -17147,12 +17357,15 @@
         <v>56</v>
       </c>
       <c r="AD11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -17239,12 +17452,15 @@
         <v>55</v>
       </c>
       <c r="AD12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -17331,12 +17547,15 @@
         <v>56</v>
       </c>
       <c r="AD13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -17423,12 +17642,15 @@
         <v>58</v>
       </c>
       <c r="AD14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -17516,11 +17738,14 @@
       </c>
       <c r="AD15" t="s">
         <v>57</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -17607,12 +17832,15 @@
         <v>55</v>
       </c>
       <c r="AD16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -17700,11 +17928,14 @@
       </c>
       <c r="AD17" t="s">
         <v>57</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -17791,12 +18022,15 @@
         <v>57</v>
       </c>
       <c r="AD18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -17884,11 +18118,14 @@
       </c>
       <c r="AD19" t="s">
         <v>58</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -17976,11 +18213,14 @@
       </c>
       <c r="AD20" t="s">
         <v>57</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -18068,6 +18308,9 @@
       </c>
       <c r="AD21" t="s">
         <v>58</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -18095,7 +18338,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -18119,19 +18362,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="O1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -18155,7 +18398,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -18179,19 +18422,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AH1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AI1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AJ1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AK1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -18202,10 +18445,16 @@
       <c r="AN1" t="s">
         <v>36</v>
       </c>
+      <c r="AO1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -18323,11 +18572,17 @@
       </c>
       <c r="AN2" t="s">
         <v>55</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -18444,12 +18699,18 @@
         <v>55</v>
       </c>
       <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -18567,11 +18828,17 @@
       </c>
       <c r="AN4" t="s">
         <v>55</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -18689,11 +18956,17 @@
       </c>
       <c r="AN5" t="s">
         <v>56</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -18810,12 +19083,18 @@
         <v>57</v>
       </c>
       <c r="AN6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18932,12 +19211,18 @@
         <v>55</v>
       </c>
       <c r="AN7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -19054,12 +19339,18 @@
         <v>55</v>
       </c>
       <c r="AN8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -19176,12 +19467,18 @@
         <v>58</v>
       </c>
       <c r="AN9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -19298,12 +19595,18 @@
         <v>57</v>
       </c>
       <c r="AN10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -19421,11 +19724,17 @@
       </c>
       <c r="AN11" t="s">
         <v>58</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -19543,11 +19852,17 @@
       </c>
       <c r="AN12" t="s">
         <v>55</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -19665,11 +19980,17 @@
       </c>
       <c r="AN13" t="s">
         <v>58</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -19787,11 +20108,17 @@
       </c>
       <c r="AN14" t="s">
         <v>56</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -19908,12 +20235,18 @@
         <v>56</v>
       </c>
       <c r="AN15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -20031,11 +20364,17 @@
       </c>
       <c r="AN16" t="s">
         <v>57</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -20153,11 +20492,17 @@
       </c>
       <c r="AN17" t="s">
         <v>56</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -20275,11 +20620,17 @@
       </c>
       <c r="AN18" t="s">
         <v>56</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -20397,11 +20748,17 @@
       </c>
       <c r="AN19" t="s">
         <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -20518,12 +20875,18 @@
         <v>57</v>
       </c>
       <c r="AN20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -20640,12 +21003,18 @@
         <v>58</v>
       </c>
       <c r="AN21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -20763,11 +21132,17 @@
       </c>
       <c r="AN22" t="s">
         <v>57</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -20884,6 +21259,12 @@
         <v>56</v>
       </c>
       <c r="AN23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -20912,7 +21293,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -20954,7 +21335,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -20992,10 +21373,13 @@
       <c r="AE1" t="s">
         <v>36</v>
       </c>
+      <c r="AF1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -21085,12 +21469,15 @@
         <v>58</v>
       </c>
       <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -21181,11 +21568,14 @@
       </c>
       <c r="AE3" t="s">
         <v>55</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -21276,11 +21666,14 @@
       </c>
       <c r="AE4" t="s">
         <v>58</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -21370,12 +21763,15 @@
         <v>56</v>
       </c>
       <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -21465,12 +21861,15 @@
         <v>55</v>
       </c>
       <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -21560,12 +21959,15 @@
         <v>55</v>
       </c>
       <c r="AE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -21656,11 +22058,14 @@
       </c>
       <c r="AE8" t="s">
         <v>58</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -21751,11 +22156,14 @@
       </c>
       <c r="AE9" t="s">
         <v>57</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -21846,11 +22254,14 @@
       </c>
       <c r="AE10" t="s">
         <v>55</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -21940,12 +22351,15 @@
         <v>57</v>
       </c>
       <c r="AE11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -22036,11 +22450,14 @@
       </c>
       <c r="AE12" t="s">
         <v>57</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -22131,11 +22548,14 @@
       </c>
       <c r="AE13" t="s">
         <v>55</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -22226,11 +22646,14 @@
       </c>
       <c r="AE14" t="s">
         <v>57</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -22321,11 +22744,14 @@
       </c>
       <c r="AE15" t="s">
         <v>58</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -22416,11 +22842,14 @@
       </c>
       <c r="AE16" t="s">
         <v>55</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -22511,11 +22940,14 @@
       </c>
       <c r="AE17" t="s">
         <v>58</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -22605,12 +23037,15 @@
         <v>58</v>
       </c>
       <c r="AE18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -22700,12 +23135,15 @@
         <v>56</v>
       </c>
       <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -22796,11 +23234,14 @@
       </c>
       <c r="AE20" t="s">
         <v>57</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -22890,6 +23331,9 @@
         <v>57</v>
       </c>
       <c r="AE21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -24730,10 +25174,13 @@
       <c r="V1" t="s">
         <v>36</v>
       </c>
+      <c r="W1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -24797,11 +25244,14 @@
       </c>
       <c r="V2" t="s">
         <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -24864,12 +25314,15 @@
         <v>58</v>
       </c>
       <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -24932,12 +25385,15 @@
         <v>58</v>
       </c>
       <c r="V4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -25000,12 +25456,15 @@
         <v>56</v>
       </c>
       <c r="V5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -25068,12 +25527,15 @@
         <v>58</v>
       </c>
       <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -25136,12 +25598,15 @@
         <v>57</v>
       </c>
       <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -25205,11 +25670,14 @@
       </c>
       <c r="V8" t="s">
         <v>55</v>
+      </c>
+      <c r="W8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -25273,11 +25741,14 @@
       </c>
       <c r="V9" t="s">
         <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -25340,12 +25811,15 @@
         <v>58</v>
       </c>
       <c r="V10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -25408,12 +25882,15 @@
         <v>57</v>
       </c>
       <c r="V11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -25476,12 +25953,15 @@
         <v>57</v>
       </c>
       <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -25544,12 +26024,15 @@
         <v>57</v>
       </c>
       <c r="V13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -25612,12 +26095,15 @@
         <v>58</v>
       </c>
       <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -25681,11 +26167,14 @@
       </c>
       <c r="V15" t="s">
         <v>58</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -25748,12 +26237,15 @@
         <v>56</v>
       </c>
       <c r="V16" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -25816,12 +26308,15 @@
         <v>57</v>
       </c>
       <c r="V17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -25885,11 +26380,14 @@
       </c>
       <c r="V18" t="s">
         <v>57</v>
+      </c>
+      <c r="W18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -25952,12 +26450,15 @@
         <v>58</v>
       </c>
       <c r="V19" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -26021,11 +26522,14 @@
       </c>
       <c r="V20" t="s">
         <v>57</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -26088,6 +26592,9 @@
         <v>57</v>
       </c>
       <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -26119,10 +26626,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -26143,10 +26650,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -26158,10 +26665,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -26178,10 +26685,16 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -26254,11 +26767,17 @@
       </c>
       <c r="Y2" t="s">
         <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -26331,11 +26850,17 @@
       </c>
       <c r="Y3" t="s">
         <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -26407,12 +26932,18 @@
         <v>56</v>
       </c>
       <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -26485,11 +27016,17 @@
       </c>
       <c r="Y5" t="s">
         <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -26561,12 +27098,18 @@
         <v>57</v>
       </c>
       <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -26638,12 +27181,18 @@
         <v>58</v>
       </c>
       <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -26715,12 +27264,18 @@
         <v>55</v>
       </c>
       <c r="Y8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -26793,11 +27348,17 @@
       </c>
       <c r="Y9" t="s">
         <v>55</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -26869,12 +27430,18 @@
         <v>56</v>
       </c>
       <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -26947,11 +27514,17 @@
       </c>
       <c r="Y11" t="s">
         <v>55</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -27024,11 +27597,17 @@
       </c>
       <c r="Y12" t="s">
         <v>55</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -27101,11 +27680,17 @@
       </c>
       <c r="Y13" t="s">
         <v>55</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -27177,12 +27762,18 @@
         <v>57</v>
       </c>
       <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -27255,11 +27846,17 @@
       </c>
       <c r="Y15" t="s">
         <v>55</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -27331,12 +27928,18 @@
         <v>58</v>
       </c>
       <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -27408,12 +28011,18 @@
         <v>57</v>
       </c>
       <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -27486,11 +28095,17 @@
       </c>
       <c r="Y18" t="s">
         <v>55</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -27563,11 +28178,17 @@
       </c>
       <c r="Y19" t="s">
         <v>55</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27639,12 +28260,18 @@
         <v>58</v>
       </c>
       <c r="Y20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -27717,11 +28344,17 @@
       </c>
       <c r="Y21" t="s">
         <v>55</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -27793,12 +28426,18 @@
         <v>57</v>
       </c>
       <c r="Y22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -27870,12 +28509,18 @@
         <v>58</v>
       </c>
       <c r="Y23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -27947,12 +28592,18 @@
         <v>55</v>
       </c>
       <c r="Y24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -28025,6 +28676,12 @@
       </c>
       <c r="Y25" t="s">
         <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -28049,7 +28706,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -28061,34 +28718,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -28096,10 +28753,13 @@
       <c r="S1" t="s">
         <v>35</v>
       </c>
+      <c r="T1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -28154,11 +28814,14 @@
       </c>
       <c r="S2" t="s">
         <v>58</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -28213,11 +28876,14 @@
       </c>
       <c r="S3" t="s">
         <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -28271,12 +28937,15 @@
         <v>55</v>
       </c>
       <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -28331,11 +29000,14 @@
       </c>
       <c r="S5" t="s">
         <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -28389,12 +29061,15 @@
         <v>55</v>
       </c>
       <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -28448,12 +29123,15 @@
         <v>55</v>
       </c>
       <c r="S7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -28507,12 +29185,15 @@
         <v>55</v>
       </c>
       <c r="S8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -28566,12 +29247,15 @@
         <v>55</v>
       </c>
       <c r="S9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -28625,12 +29309,15 @@
         <v>55</v>
       </c>
       <c r="S10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -28685,11 +29372,14 @@
       </c>
       <c r="S11" t="s">
         <v>57</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -28744,11 +29434,14 @@
       </c>
       <c r="S12" t="s">
         <v>58</v>
+      </c>
+      <c r="T12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -28803,11 +29496,14 @@
       </c>
       <c r="S13" t="s">
         <v>56</v>
+      </c>
+      <c r="T13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -28862,11 +29558,14 @@
       </c>
       <c r="S14" t="s">
         <v>57</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -28921,11 +29620,14 @@
       </c>
       <c r="S15" t="s">
         <v>58</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -28980,11 +29682,14 @@
       </c>
       <c r="S16" t="s">
         <v>55</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -29039,11 +29744,14 @@
       </c>
       <c r="S17" t="s">
         <v>58</v>
+      </c>
+      <c r="T17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -29097,12 +29805,15 @@
         <v>55</v>
       </c>
       <c r="S18" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -29156,12 +29867,15 @@
         <v>55</v>
       </c>
       <c r="S19" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -29216,11 +29930,14 @@
       </c>
       <c r="S20" t="s">
         <v>57</v>
+      </c>
+      <c r="T20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -29274,12 +29991,15 @@
         <v>55</v>
       </c>
       <c r="S21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -29334,11 +30054,14 @@
       </c>
       <c r="S22" t="s">
         <v>57</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -29392,12 +30115,15 @@
         <v>55</v>
       </c>
       <c r="S23" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -29452,11 +30178,14 @@
       </c>
       <c r="S24" t="s">
         <v>57</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
@@ -29511,6 +30240,9 @@
       </c>
       <c r="S25" t="s">
         <v>57</v>
+      </c>
+      <c r="T25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -29535,13 +30267,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -29550,7 +30282,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -29559,13 +30291,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -29577,18 +30309,21 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="S1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
+      <c r="U1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -29646,11 +30381,14 @@
       </c>
       <c r="T2" t="s">
         <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -29708,11 +30446,14 @@
       </c>
       <c r="T3" t="s">
         <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -29769,12 +30510,15 @@
         <v>57</v>
       </c>
       <c r="T4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -29832,11 +30576,14 @@
       </c>
       <c r="T5" t="s">
         <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -29894,11 +30641,14 @@
       </c>
       <c r="T6" t="s">
         <v>57</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -29955,12 +30705,15 @@
         <v>57</v>
       </c>
       <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -30018,11 +30771,14 @@
       </c>
       <c r="T8" t="s">
         <v>56</v>
+      </c>
+      <c r="U8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -30080,11 +30836,14 @@
       </c>
       <c r="T9" t="s">
         <v>57</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -30142,11 +30901,14 @@
       </c>
       <c r="T10" t="s">
         <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -30204,11 +30966,14 @@
       </c>
       <c r="T11" t="s">
         <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -30265,12 +31030,15 @@
         <v>56</v>
       </c>
       <c r="T12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -30328,11 +31096,14 @@
       </c>
       <c r="T13" t="s">
         <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -30389,12 +31160,15 @@
         <v>56</v>
       </c>
       <c r="T14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -30451,12 +31225,15 @@
         <v>58</v>
       </c>
       <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -30514,11 +31291,14 @@
       </c>
       <c r="T16" t="s">
         <v>57</v>
+      </c>
+      <c r="U16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -30576,11 +31356,14 @@
       </c>
       <c r="T17" t="s">
         <v>57</v>
+      </c>
+      <c r="U17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -30637,12 +31420,15 @@
         <v>58</v>
       </c>
       <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -30700,11 +31486,14 @@
       </c>
       <c r="T19" t="s">
         <v>57</v>
+      </c>
+      <c r="U19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -30762,11 +31551,14 @@
       </c>
       <c r="T20" t="s">
         <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -30823,12 +31615,15 @@
         <v>56</v>
       </c>
       <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -30886,11 +31681,14 @@
       </c>
       <c r="T22" t="s">
         <v>57</v>
+      </c>
+      <c r="U22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -30948,11 +31746,14 @@
       </c>
       <c r="T23" t="s">
         <v>56</v>
+      </c>
+      <c r="U23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -31010,11 +31811,14 @@
       </c>
       <c r="T24" t="s">
         <v>57</v>
+      </c>
+      <c r="U24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -31072,6 +31876,9 @@
       </c>
       <c r="T25" t="s">
         <v>56</v>
+      </c>
+      <c r="U25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -31096,48 +31903,48 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -31187,7 +31994,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -31237,7 +32044,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -31287,7 +32094,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -31337,7 +32144,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -31387,7 +32194,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -31437,7 +32244,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -31487,7 +32294,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -31537,7 +32344,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -31587,7 +32394,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -31637,7 +32444,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -31687,7 +32494,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -31737,7 +32544,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -31787,7 +32594,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -31837,7 +32644,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -31887,7 +32694,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -31937,7 +32744,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -31987,7 +32794,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -32037,7 +32844,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -32087,7 +32894,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -32137,7 +32944,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
@@ -32187,7 +32994,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -32237,7 +33044,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -32384,7 +33191,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -32470,7 +33277,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -32556,7 +33363,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -32642,7 +33449,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -32728,7 +33535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -32814,7 +33621,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -32900,7 +33707,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -32986,7 +33793,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -33072,7 +33879,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -33158,7 +33965,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -33244,7 +34051,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -33330,7 +34137,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -33416,7 +34223,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -33502,7 +34309,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -33588,7 +34395,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -33674,7 +34481,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -33760,7 +34567,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -33846,7 +34653,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -33932,7 +34739,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -34018,7 +34825,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11738" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="485">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -506,6 +506,9 @@
     <t>X2021.10.09</t>
   </si>
   <si>
+    <t>X2021.10.26</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -737,6 +740,9 @@
     <t>Yeovil</t>
   </si>
   <si>
+    <t>X2021.10.27</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
@@ -810,6 +816,9 @@
   </si>
   <si>
     <t>X2021.08.25</t>
+  </si>
+  <si>
+    <t>X2021.10.25</t>
   </si>
   <si>
     <t>Ajaccio</t>
@@ -3921,25 +3930,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
         <v>122</v>
@@ -3951,7 +3960,7 @@
         <v>98</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3992,10 +4001,13 @@
       <c r="Z1" t="s">
         <v>38</v>
       </c>
+      <c r="AA1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -4071,11 +4083,14 @@
       </c>
       <c r="Z2" t="s">
         <v>60</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4151,11 +4166,14 @@
       </c>
       <c r="Z3" t="s">
         <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -4231,11 +4249,14 @@
       </c>
       <c r="Z4" t="s">
         <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -4311,11 +4332,14 @@
       </c>
       <c r="Z5" t="s">
         <v>58</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -4391,11 +4415,14 @@
       </c>
       <c r="Z6" t="s">
         <v>59</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4471,11 +4498,14 @@
       </c>
       <c r="Z7" t="s">
         <v>60</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -4551,11 +4581,14 @@
       </c>
       <c r="Z8" t="s">
         <v>59</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -4631,11 +4664,14 @@
       </c>
       <c r="Z9" t="s">
         <v>61</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -4711,11 +4747,14 @@
       </c>
       <c r="Z10" t="s">
         <v>60</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -4791,11 +4830,14 @@
       </c>
       <c r="Z11" t="s">
         <v>60</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -4871,11 +4913,14 @@
       </c>
       <c r="Z12" t="s">
         <v>61</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -4951,11 +4996,14 @@
       </c>
       <c r="Z13" t="s">
         <v>61</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -5031,11 +5079,14 @@
       </c>
       <c r="Z14" t="s">
         <v>61</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -5111,11 +5162,14 @@
       </c>
       <c r="Z15" t="s">
         <v>59</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -5191,11 +5245,14 @@
       </c>
       <c r="Z16" t="s">
         <v>61</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -5271,11 +5328,14 @@
       </c>
       <c r="Z17" t="s">
         <v>59</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -5351,11 +5411,14 @@
       </c>
       <c r="Z18" t="s">
         <v>60</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -5431,11 +5494,14 @@
       </c>
       <c r="Z19" t="s">
         <v>59</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -5511,11 +5577,14 @@
       </c>
       <c r="Z20" t="s">
         <v>59</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -5591,6 +5660,9 @@
       </c>
       <c r="Z21" t="s">
         <v>61</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5662,7 +5734,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -5718,7 +5790,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -5774,7 +5846,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -5830,7 +5902,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -5886,7 +5958,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -5942,7 +6014,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -5998,7 +6070,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -6054,7 +6126,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -6110,7 +6182,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -6166,7 +6238,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -6222,7 +6294,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -6278,7 +6350,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -6334,7 +6406,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -6390,7 +6462,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -6496,7 +6568,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O1" t="s">
         <v>155</v>
@@ -6543,10 +6615,16 @@
       <c r="AC1" t="s">
         <v>39</v>
       </c>
+      <c r="AD1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -6631,11 +6709,17 @@
       </c>
       <c r="AC2" t="s">
         <v>59</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6719,12 +6803,18 @@
         <v>61</v>
       </c>
       <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6808,12 +6898,18 @@
         <v>58</v>
       </c>
       <c r="AC4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -6898,11 +6994,17 @@
       </c>
       <c r="AC5" t="s">
         <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -6987,11 +7089,17 @@
       </c>
       <c r="AC6" t="s">
         <v>60</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -7075,12 +7183,18 @@
         <v>58</v>
       </c>
       <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -7165,11 +7279,17 @@
       </c>
       <c r="AC8" t="s">
         <v>59</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7254,11 +7374,17 @@
       </c>
       <c r="AC9" t="s">
         <v>59</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -7343,11 +7469,17 @@
       </c>
       <c r="AC10" t="s">
         <v>61</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7431,12 +7563,18 @@
         <v>60</v>
       </c>
       <c r="AC11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7521,11 +7659,17 @@
       </c>
       <c r="AC12" t="s">
         <v>59</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7610,11 +7754,17 @@
       </c>
       <c r="AC13" t="s">
         <v>59</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7698,12 +7848,18 @@
         <v>61</v>
       </c>
       <c r="AC14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7788,11 +7944,17 @@
       </c>
       <c r="AC15" t="s">
         <v>58</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -7877,11 +8039,17 @@
       </c>
       <c r="AC16" t="s">
         <v>58</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -7965,12 +8133,18 @@
         <v>58</v>
       </c>
       <c r="AC17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -8054,12 +8228,18 @@
         <v>58</v>
       </c>
       <c r="AC18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8143,12 +8323,18 @@
         <v>58</v>
       </c>
       <c r="AC19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8232,12 +8418,18 @@
         <v>61</v>
       </c>
       <c r="AC20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -8322,6 +8514,12 @@
       </c>
       <c r="AC21" t="s">
         <v>60</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8376,7 +8574,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O1" t="s">
         <v>155</v>
@@ -8414,10 +8612,13 @@
       <c r="Z1" t="s">
         <v>39</v>
       </c>
+      <c r="AA1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8492,12 +8693,15 @@
         <v>58</v>
       </c>
       <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8572,12 +8776,15 @@
         <v>61</v>
       </c>
       <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8652,12 +8859,15 @@
         <v>60</v>
       </c>
       <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8732,12 +8942,15 @@
         <v>60</v>
       </c>
       <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -8812,12 +9025,15 @@
         <v>61</v>
       </c>
       <c r="Z6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -8893,11 +9109,14 @@
       </c>
       <c r="Z7" t="s">
         <v>59</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -8973,11 +9192,14 @@
       </c>
       <c r="Z8" t="s">
         <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9052,12 +9274,15 @@
         <v>61</v>
       </c>
       <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9132,12 +9357,15 @@
         <v>58</v>
       </c>
       <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -9212,12 +9440,15 @@
         <v>60</v>
       </c>
       <c r="Z11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9292,12 +9523,15 @@
         <v>59</v>
       </c>
       <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9373,11 +9607,14 @@
       </c>
       <c r="Z13" t="s">
         <v>58</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -9453,11 +9690,14 @@
       </c>
       <c r="Z14" t="s">
         <v>61</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9532,12 +9772,15 @@
         <v>59</v>
       </c>
       <c r="Z15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9613,11 +9856,14 @@
       </c>
       <c r="Z16" t="s">
         <v>59</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9693,11 +9939,14 @@
       </c>
       <c r="Z17" t="s">
         <v>59</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -9773,11 +10022,14 @@
       </c>
       <c r="Z18" t="s">
         <v>60</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -9853,11 +10105,14 @@
       </c>
       <c r="Z19" t="s">
         <v>59</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -9933,11 +10188,14 @@
       </c>
       <c r="Z20" t="s">
         <v>58</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10013,6 +10271,9 @@
       </c>
       <c r="Z21" t="s">
         <v>58</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10114,7 +10375,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10200,7 +10461,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10286,7 +10547,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10372,7 +10633,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10458,7 +10719,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10544,7 +10805,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -10630,7 +10891,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10716,7 +10977,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -10802,7 +11063,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -10888,7 +11149,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -10974,7 +11235,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11060,7 +11321,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11146,7 +11407,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11232,7 +11493,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11318,7 +11579,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11404,7 +11665,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11490,7 +11751,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11576,7 +11837,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11685,7 +11946,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -11697,7 +11958,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -11739,7 +12000,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -11771,10 +12032,13 @@
       <c r="AG1" t="s">
         <v>39</v>
       </c>
+      <c r="AH1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -11871,11 +12135,14 @@
       </c>
       <c r="AG2" t="s">
         <v>59</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -11972,11 +12239,14 @@
       </c>
       <c r="AG3" t="s">
         <v>58</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12073,11 +12343,14 @@
       </c>
       <c r="AG4" t="s">
         <v>60</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12174,11 +12447,14 @@
       </c>
       <c r="AG5" t="s">
         <v>58</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12275,11 +12551,14 @@
       </c>
       <c r="AG6" t="s">
         <v>60</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12375,12 +12654,15 @@
         <v>60</v>
       </c>
       <c r="AG7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12477,11 +12759,14 @@
       </c>
       <c r="AG8" t="s">
         <v>58</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12577,12 +12862,15 @@
         <v>58</v>
       </c>
       <c r="AG9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12678,12 +12966,15 @@
         <v>58</v>
       </c>
       <c r="AG10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -12779,12 +13070,15 @@
         <v>61</v>
       </c>
       <c r="AG11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -12881,11 +13175,14 @@
       </c>
       <c r="AG12" t="s">
         <v>59</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -12982,11 +13279,14 @@
       </c>
       <c r="AG13" t="s">
         <v>61</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13082,12 +13382,15 @@
         <v>60</v>
       </c>
       <c r="AG14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13183,12 +13486,15 @@
         <v>61</v>
       </c>
       <c r="AG15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13285,11 +13591,14 @@
       </c>
       <c r="AG16" t="s">
         <v>58</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13385,12 +13694,15 @@
         <v>60</v>
       </c>
       <c r="AG17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13486,12 +13798,15 @@
         <v>61</v>
       </c>
       <c r="AG18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -13588,6 +13903,9 @@
       </c>
       <c r="AG19" t="s">
         <v>61</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -13662,10 +13980,13 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
+      <c r="U1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13723,11 +14044,14 @@
       </c>
       <c r="T2" t="s">
         <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -13785,11 +14109,14 @@
       </c>
       <c r="T3" t="s">
         <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -13847,11 +14174,14 @@
       </c>
       <c r="T4" t="s">
         <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -13909,11 +14239,14 @@
       </c>
       <c r="T5" t="s">
         <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -13971,11 +14304,14 @@
       </c>
       <c r="T6" t="s">
         <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14033,11 +14369,14 @@
       </c>
       <c r="T7" t="s">
         <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -14095,11 +14434,14 @@
       </c>
       <c r="T8" t="s">
         <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14157,11 +14499,14 @@
       </c>
       <c r="T9" t="s">
         <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14219,11 +14564,14 @@
       </c>
       <c r="T10" t="s">
         <v>60</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -14281,11 +14629,14 @@
       </c>
       <c r="T11" t="s">
         <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -14343,11 +14694,14 @@
       </c>
       <c r="T12" t="s">
         <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -14405,6 +14759,9 @@
       </c>
       <c r="T13" t="s">
         <v>61</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -14426,7 +14783,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -14438,7 +14795,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14470,10 +14827,13 @@
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -14522,11 +14882,14 @@
       </c>
       <c r="Q2" t="s">
         <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14575,11 +14938,14 @@
       </c>
       <c r="Q3" t="s">
         <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -14627,12 +14993,15 @@
         <v>59</v>
       </c>
       <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -14681,11 +15050,14 @@
       </c>
       <c r="Q5" t="s">
         <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -14734,11 +15106,14 @@
       </c>
       <c r="Q6" t="s">
         <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14786,12 +15161,15 @@
         <v>59</v>
       </c>
       <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -14839,12 +15217,15 @@
         <v>61</v>
       </c>
       <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -14892,12 +15273,15 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -14946,11 +15330,14 @@
       </c>
       <c r="Q10" t="s">
         <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -14998,6 +15385,9 @@
         <v>60</v>
       </c>
       <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15061,7 +15451,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -15108,7 +15498,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -15155,7 +15545,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -15202,7 +15592,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15249,7 +15639,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15296,7 +15686,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15343,7 +15733,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15390,7 +15780,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15437,7 +15827,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -15484,7 +15874,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15566,7 +15956,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -15595,7 +15985,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -15648,7 +16038,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -15701,7 +16091,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -15754,7 +16144,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -15807,7 +16197,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15860,7 +16250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -15913,7 +16303,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -15966,7 +16356,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -16019,7 +16409,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -16072,7 +16462,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -17736,7 +18126,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -17778,7 +18168,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="T1" t="s">
         <v>155</v>
@@ -17825,10 +18215,19 @@
       <c r="AH1" t="s">
         <v>39</v>
       </c>
+      <c r="AI1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -17927,12 +18326,21 @@
         <v>60</v>
       </c>
       <c r="AH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18031,12 +18439,21 @@
         <v>60</v>
       </c>
       <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18136,11 +18553,20 @@
       </c>
       <c r="AH4" t="s">
         <v>59</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18239,12 +18665,21 @@
         <v>58</v>
       </c>
       <c r="AH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18343,12 +18778,21 @@
         <v>58</v>
       </c>
       <c r="AH6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18447,12 +18891,21 @@
         <v>61</v>
       </c>
       <c r="AH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -18551,12 +19004,21 @@
         <v>58</v>
       </c>
       <c r="AH8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -18655,12 +19117,21 @@
         <v>59</v>
       </c>
       <c r="AH9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -18759,12 +19230,21 @@
         <v>59</v>
       </c>
       <c r="AH10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -18863,12 +19343,21 @@
         <v>58</v>
       </c>
       <c r="AH11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -18967,12 +19456,21 @@
         <v>58</v>
       </c>
       <c r="AH12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19072,11 +19570,20 @@
       </c>
       <c r="AH13" t="s">
         <v>61</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19176,11 +19683,20 @@
       </c>
       <c r="AH14" t="s">
         <v>58</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19280,11 +19796,20 @@
       </c>
       <c r="AH15" t="s">
         <v>58</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19384,11 +19909,20 @@
       </c>
       <c r="AH16" t="s">
         <v>60</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -19488,11 +20022,20 @@
       </c>
       <c r="AH17" t="s">
         <v>60</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -19592,11 +20135,20 @@
       </c>
       <c r="AH18" t="s">
         <v>59</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -19696,11 +20248,20 @@
       </c>
       <c r="AH19" t="s">
         <v>58</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -19800,11 +20361,20 @@
       </c>
       <c r="AH20" t="s">
         <v>61</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -19903,6 +20473,15 @@
         <v>61</v>
       </c>
       <c r="AH21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -19931,7 +20510,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19955,16 +20534,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O1" t="s">
         <v>153</v>
       </c>
       <c r="P1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q1" t="s">
         <v>154</v>
@@ -19991,7 +20570,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -20015,19 +20594,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AH1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI1" t="s">
         <v>156</v>
       </c>
       <c r="AJ1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AK1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20045,7 +20624,7 @@
         <v>128</v>
       </c>
       <c r="AQ1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20056,10 +20635,13 @@
       <c r="AT1" t="s">
         <v>39</v>
       </c>
+      <c r="AU1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20195,11 +20777,14 @@
       </c>
       <c r="AT2" t="s">
         <v>61</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20335,11 +20920,14 @@
       </c>
       <c r="AT3" t="s">
         <v>60</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -20475,11 +21063,14 @@
       </c>
       <c r="AT4" t="s">
         <v>61</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -20615,11 +21206,14 @@
       </c>
       <c r="AT5" t="s">
         <v>60</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -20754,12 +21348,15 @@
         <v>58</v>
       </c>
       <c r="AT6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -20894,12 +21491,15 @@
         <v>58</v>
       </c>
       <c r="AT7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21034,12 +21634,15 @@
         <v>61</v>
       </c>
       <c r="AT8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21175,11 +21778,14 @@
       </c>
       <c r="AT9" t="s">
         <v>58</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -21315,11 +21921,14 @@
       </c>
       <c r="AT10" t="s">
         <v>61</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -21454,12 +22063,15 @@
         <v>60</v>
       </c>
       <c r="AT11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -21595,11 +22207,14 @@
       </c>
       <c r="AT12" t="s">
         <v>60</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -21734,12 +22349,15 @@
         <v>61</v>
       </c>
       <c r="AT13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -21874,12 +22492,15 @@
         <v>61</v>
       </c>
       <c r="AT14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22014,12 +22635,15 @@
         <v>60</v>
       </c>
       <c r="AT15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22155,11 +22779,14 @@
       </c>
       <c r="AT16" t="s">
         <v>61</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22295,11 +22922,14 @@
       </c>
       <c r="AT17" t="s">
         <v>60</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -22435,11 +23065,14 @@
       </c>
       <c r="AT18" t="s">
         <v>61</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -22575,11 +23208,14 @@
       </c>
       <c r="AT19" t="s">
         <v>60</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -22714,12 +23350,15 @@
         <v>61</v>
       </c>
       <c r="AT20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -22854,12 +23493,15 @@
         <v>60</v>
       </c>
       <c r="AT21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -22994,12 +23636,15 @@
         <v>60</v>
       </c>
       <c r="AT22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -23135,6 +23780,9 @@
       </c>
       <c r="AT23" t="s">
         <v>58</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -23162,7 +23810,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23254,10 +23902,13 @@
       <c r="AI1" t="s">
         <v>39</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -23360,11 +24011,14 @@
       </c>
       <c r="AI2" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -23467,11 +24121,14 @@
       </c>
       <c r="AI3" t="s">
         <v>60</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -23573,12 +24230,15 @@
         <v>58</v>
       </c>
       <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -23681,11 +24341,14 @@
       </c>
       <c r="AI5" t="s">
         <v>61</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -23788,11 +24451,14 @@
       </c>
       <c r="AI6" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -23895,11 +24561,14 @@
       </c>
       <c r="AI7" t="s">
         <v>60</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24002,11 +24671,14 @@
       </c>
       <c r="AI8" t="s">
         <v>61</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24109,11 +24781,14 @@
       </c>
       <c r="AI9" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24215,12 +24890,15 @@
         <v>59</v>
       </c>
       <c r="AI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -24322,12 +25000,15 @@
         <v>59</v>
       </c>
       <c r="AI11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -24429,12 +25110,15 @@
         <v>61</v>
       </c>
       <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -24537,11 +25221,14 @@
       </c>
       <c r="AI13" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -24644,11 +25331,14 @@
       </c>
       <c r="AI14" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -24750,12 +25440,15 @@
         <v>61</v>
       </c>
       <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -24857,12 +25550,15 @@
         <v>61</v>
       </c>
       <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -24964,12 +25660,15 @@
         <v>60</v>
       </c>
       <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -25071,12 +25770,15 @@
         <v>60</v>
       </c>
       <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25179,11 +25881,14 @@
       </c>
       <c r="AI19" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -25285,12 +25990,15 @@
         <v>60</v>
       </c>
       <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -25392,6 +26100,9 @@
         <v>58</v>
       </c>
       <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -31327,10 +32038,13 @@
       <c r="U1" t="s">
         <v>38</v>
       </c>
+      <c r="V1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -31391,11 +32105,14 @@
       </c>
       <c r="U2" t="s">
         <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -31456,11 +32173,14 @@
       </c>
       <c r="U3" t="s">
         <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -31521,11 +32241,14 @@
       </c>
       <c r="U4" t="s">
         <v>59</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -31586,11 +32309,14 @@
       </c>
       <c r="U5" t="s">
         <v>61</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -31651,11 +32377,14 @@
       </c>
       <c r="U6" t="s">
         <v>61</v>
+      </c>
+      <c r="V6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -31716,11 +32445,14 @@
       </c>
       <c r="U7" t="s">
         <v>60</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -31781,11 +32513,14 @@
       </c>
       <c r="U8" t="s">
         <v>61</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -31846,11 +32581,14 @@
       </c>
       <c r="U9" t="s">
         <v>61</v>
+      </c>
+      <c r="V9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -31911,11 +32649,14 @@
       </c>
       <c r="U10" t="s">
         <v>60</v>
+      </c>
+      <c r="V10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -31976,11 +32717,14 @@
       </c>
       <c r="U11" t="s">
         <v>61</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -32041,11 +32785,14 @@
       </c>
       <c r="U12" t="s">
         <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -32106,11 +32853,14 @@
       </c>
       <c r="U13" t="s">
         <v>60</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -32171,11 +32921,14 @@
       </c>
       <c r="U14" t="s">
         <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -32236,11 +32989,14 @@
       </c>
       <c r="U15" t="s">
         <v>61</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -32301,11 +33057,14 @@
       </c>
       <c r="U16" t="s">
         <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -32366,11 +33125,14 @@
       </c>
       <c r="U17" t="s">
         <v>60</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -32431,11 +33193,14 @@
       </c>
       <c r="U18" t="s">
         <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -32496,11 +33261,14 @@
       </c>
       <c r="U19" t="s">
         <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -32561,11 +33329,14 @@
       </c>
       <c r="U20" t="s">
         <v>60</v>
+      </c>
+      <c r="V20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -32626,11 +33397,14 @@
       </c>
       <c r="U21" t="s">
         <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -32691,11 +33465,14 @@
       </c>
       <c r="U22" t="s">
         <v>60</v>
+      </c>
+      <c r="V22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -32756,11 +33533,14 @@
       </c>
       <c r="U23" t="s">
         <v>61</v>
+      </c>
+      <c r="V23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -32821,11 +33601,14 @@
       </c>
       <c r="U24" t="s">
         <v>60</v>
+      </c>
+      <c r="V24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -32886,6 +33669,9 @@
       </c>
       <c r="U25" t="s">
         <v>60</v>
+      </c>
+      <c r="V25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -32916,7 +33702,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -32952,7 +33738,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S1" t="s">
         <v>156</v>
@@ -32966,10 +33752,13 @@
       <c r="V1" t="s">
         <v>38</v>
       </c>
+      <c r="W1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -33033,11 +33822,14 @@
       </c>
       <c r="V2" t="s">
         <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -33101,11 +33893,14 @@
       </c>
       <c r="V3" t="s">
         <v>60</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -33169,11 +33964,14 @@
       </c>
       <c r="V4" t="s">
         <v>61</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -33237,11 +34035,14 @@
       </c>
       <c r="V5" t="s">
         <v>59</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -33304,12 +34105,15 @@
         <v>59</v>
       </c>
       <c r="V6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -33373,11 +34177,14 @@
       </c>
       <c r="V7" t="s">
         <v>61</v>
+      </c>
+      <c r="W7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -33441,11 +34248,14 @@
       </c>
       <c r="V8" t="s">
         <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -33509,11 +34319,14 @@
       </c>
       <c r="V9" t="s">
         <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -33577,11 +34390,14 @@
       </c>
       <c r="V10" t="s">
         <v>61</v>
+      </c>
+      <c r="W10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -33645,11 +34461,14 @@
       </c>
       <c r="V11" t="s">
         <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -33713,11 +34532,14 @@
       </c>
       <c r="V12" t="s">
         <v>59</v>
+      </c>
+      <c r="W12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -33781,11 +34603,14 @@
       </c>
       <c r="V13" t="s">
         <v>61</v>
+      </c>
+      <c r="W13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -33849,11 +34674,14 @@
       </c>
       <c r="V14" t="s">
         <v>60</v>
+      </c>
+      <c r="W14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -33917,11 +34745,14 @@
       </c>
       <c r="V15" t="s">
         <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -33985,11 +34816,14 @@
       </c>
       <c r="V16" t="s">
         <v>59</v>
+      </c>
+      <c r="W16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -34053,11 +34887,14 @@
       </c>
       <c r="V17" t="s">
         <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -34121,11 +34958,14 @@
       </c>
       <c r="V18" t="s">
         <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -34189,11 +35029,14 @@
       </c>
       <c r="V19" t="s">
         <v>61</v>
+      </c>
+      <c r="W19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -34257,11 +35100,14 @@
       </c>
       <c r="V20" t="s">
         <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -34325,11 +35171,14 @@
       </c>
       <c r="V21" t="s">
         <v>59</v>
+      </c>
+      <c r="W21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -34393,11 +35242,14 @@
       </c>
       <c r="V22" t="s">
         <v>61</v>
+      </c>
+      <c r="W22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -34461,11 +35313,14 @@
       </c>
       <c r="V23" t="s">
         <v>61</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -34529,11 +35384,14 @@
       </c>
       <c r="V24" t="s">
         <v>61</v>
+      </c>
+      <c r="W24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
@@ -34597,6 +35455,9 @@
       </c>
       <c r="V25" t="s">
         <v>59</v>
+      </c>
+      <c r="W25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -34621,10 +35482,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
         <v>153</v>
@@ -34651,21 +35512,24 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O1" t="s">
         <v>156</v>
       </c>
       <c r="P1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -34713,12 +35577,15 @@
         <v>58</v>
       </c>
       <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -34766,12 +35633,15 @@
         <v>59</v>
       </c>
       <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -34820,11 +35690,14 @@
       </c>
       <c r="Q4" t="s">
         <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -34873,11 +35746,14 @@
       </c>
       <c r="Q5" t="s">
         <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -34926,11 +35802,14 @@
       </c>
       <c r="Q6" t="s">
         <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -34978,12 +35857,15 @@
         <v>58</v>
       </c>
       <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -35032,11 +35914,14 @@
       </c>
       <c r="Q8" t="s">
         <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -35084,12 +35969,15 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -35138,11 +36026,14 @@
       </c>
       <c r="Q10" t="s">
         <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -35191,11 +36082,14 @@
       </c>
       <c r="Q11" t="s">
         <v>60</v>
+      </c>
+      <c r="R11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -35244,11 +36138,14 @@
       </c>
       <c r="Q12" t="s">
         <v>61</v>
+      </c>
+      <c r="R12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
@@ -35296,12 +36193,15 @@
         <v>58</v>
       </c>
       <c r="Q13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -35349,12 +36249,15 @@
         <v>58</v>
       </c>
       <c r="Q14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -35403,11 +36306,14 @@
       </c>
       <c r="Q15" t="s">
         <v>60</v>
+      </c>
+      <c r="R15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -35455,12 +36361,15 @@
         <v>58</v>
       </c>
       <c r="Q16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -35509,11 +36418,14 @@
       </c>
       <c r="Q17" t="s">
         <v>61</v>
+      </c>
+      <c r="R17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -35561,12 +36473,15 @@
         <v>58</v>
       </c>
       <c r="Q18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -35615,11 +36530,14 @@
       </c>
       <c r="Q19" t="s">
         <v>60</v>
+      </c>
+      <c r="R19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -35668,11 +36586,14 @@
       </c>
       <c r="Q20" t="s">
         <v>59</v>
+      </c>
+      <c r="R20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -35721,11 +36642,14 @@
       </c>
       <c r="Q21" t="s">
         <v>59</v>
+      </c>
+      <c r="R21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -35773,12 +36697,15 @@
         <v>58</v>
       </c>
       <c r="Q22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -35827,11 +36754,14 @@
       </c>
       <c r="Q23" t="s">
         <v>60</v>
+      </c>
+      <c r="R23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -35880,6 +36810,9 @@
       </c>
       <c r="Q24" t="s">
         <v>61</v>
+      </c>
+      <c r="R24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -35987,10 +36920,13 @@
       <c r="AE1" t="s">
         <v>39</v>
       </c>
+      <c r="AF1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -36080,12 +37016,15 @@
         <v>58</v>
       </c>
       <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -36176,11 +37115,14 @@
       </c>
       <c r="AE3" t="s">
         <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -36270,12 +37212,15 @@
         <v>59</v>
       </c>
       <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -36365,12 +37310,15 @@
         <v>61</v>
       </c>
       <c r="AE5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -36461,11 +37409,14 @@
       </c>
       <c r="AE6" t="s">
         <v>60</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -36555,12 +37506,15 @@
         <v>59</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -36651,11 +37605,14 @@
       </c>
       <c r="AE8" t="s">
         <v>59</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -36746,11 +37703,14 @@
       </c>
       <c r="AE9" t="s">
         <v>61</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -36840,12 +37800,15 @@
         <v>58</v>
       </c>
       <c r="AE10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -36936,11 +37899,14 @@
       </c>
       <c r="AE11" t="s">
         <v>61</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -37031,11 +37997,14 @@
       </c>
       <c r="AE12" t="s">
         <v>60</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -37126,11 +38095,14 @@
       </c>
       <c r="AE13" t="s">
         <v>61</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -37220,12 +38192,15 @@
         <v>60</v>
       </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -37316,11 +38291,14 @@
       </c>
       <c r="AE15" t="s">
         <v>60</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -37411,11 +38389,14 @@
       </c>
       <c r="AE16" t="s">
         <v>59</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -37506,11 +38487,14 @@
       </c>
       <c r="AE17" t="s">
         <v>61</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -37601,11 +38585,14 @@
       </c>
       <c r="AE18" t="s">
         <v>60</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -37695,12 +38682,15 @@
         <v>58</v>
       </c>
       <c r="AE19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -37791,11 +38781,14 @@
       </c>
       <c r="AE20" t="s">
         <v>61</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -37886,6 +38879,9 @@
       </c>
       <c r="AE21" t="s">
         <v>60</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12130" uniqueCount="486">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -924,6 +924,9 @@
   </si>
   <si>
     <t>X2021.09.20</t>
+  </si>
+  <si>
+    <t>X2021.10.28</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -6621,10 +6624,13 @@
       <c r="AE1" t="s">
         <v>235</v>
       </c>
+      <c r="AF1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -6715,11 +6721,14 @@
       </c>
       <c r="AE2" t="s">
         <v>60</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6810,11 +6819,14 @@
       </c>
       <c r="AE3" t="s">
         <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6905,11 +6917,14 @@
       </c>
       <c r="AE4" t="s">
         <v>61</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -7000,11 +7015,14 @@
       </c>
       <c r="AE5" t="s">
         <v>61</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7095,11 +7113,14 @@
       </c>
       <c r="AE6" t="s">
         <v>61</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -7189,12 +7210,15 @@
         <v>59</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -7285,11 +7309,14 @@
       </c>
       <c r="AE8" t="s">
         <v>60</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7380,11 +7407,14 @@
       </c>
       <c r="AE9" t="s">
         <v>61</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -7475,11 +7505,14 @@
       </c>
       <c r="AE10" t="s">
         <v>60</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7569,12 +7602,15 @@
         <v>60</v>
       </c>
       <c r="AE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7665,11 +7701,14 @@
       </c>
       <c r="AE12" t="s">
         <v>58</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7760,11 +7799,14 @@
       </c>
       <c r="AE13" t="s">
         <v>60</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7854,12 +7896,15 @@
         <v>60</v>
       </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7950,11 +7995,14 @@
       </c>
       <c r="AE15" t="s">
         <v>61</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -8045,11 +8093,14 @@
       </c>
       <c r="AE16" t="s">
         <v>60</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -8139,12 +8190,15 @@
         <v>59</v>
       </c>
       <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -8234,12 +8288,15 @@
         <v>61</v>
       </c>
       <c r="AE18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8330,11 +8387,14 @@
       </c>
       <c r="AE19" t="s">
         <v>59</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8424,12 +8484,15 @@
         <v>61</v>
       </c>
       <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -8520,6 +8583,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8615,10 +8681,13 @@
       <c r="AA1" t="s">
         <v>235</v>
       </c>
+      <c r="AB1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8697,11 +8766,14 @@
       </c>
       <c r="AA2" t="s">
         <v>58</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8780,11 +8852,14 @@
       </c>
       <c r="AA3" t="s">
         <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8863,11 +8938,14 @@
       </c>
       <c r="AA4" t="s">
         <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8946,11 +9024,14 @@
       </c>
       <c r="AA5" t="s">
         <v>58</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -9029,11 +9110,14 @@
       </c>
       <c r="AA6" t="s">
         <v>58</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -9112,11 +9196,14 @@
       </c>
       <c r="AA7" t="s">
         <v>58</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -9195,11 +9282,14 @@
       </c>
       <c r="AA8" t="s">
         <v>60</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9278,11 +9368,14 @@
       </c>
       <c r="AA9" t="s">
         <v>58</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9361,11 +9454,14 @@
       </c>
       <c r="AA10" t="s">
         <v>58</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -9444,11 +9540,14 @@
       </c>
       <c r="AA11" t="s">
         <v>58</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9527,11 +9626,14 @@
       </c>
       <c r="AA12" t="s">
         <v>58</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9610,11 +9712,14 @@
       </c>
       <c r="AA13" t="s">
         <v>59</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -9693,11 +9798,14 @@
       </c>
       <c r="AA14" t="s">
         <v>58</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9776,11 +9884,14 @@
       </c>
       <c r="AA15" t="s">
         <v>58</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9859,11 +9970,14 @@
       </c>
       <c r="AA16" t="s">
         <v>58</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9942,11 +10056,14 @@
       </c>
       <c r="AA17" t="s">
         <v>58</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -10025,11 +10142,14 @@
       </c>
       <c r="AA18" t="s">
         <v>58</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -10108,11 +10228,14 @@
       </c>
       <c r="AA19" t="s">
         <v>58</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -10191,11 +10314,14 @@
       </c>
       <c r="AA20" t="s">
         <v>61</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10274,6 +10400,9 @@
       </c>
       <c r="AA21" t="s">
         <v>59</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10375,7 +10504,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10461,7 +10590,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10547,7 +10676,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10633,7 +10762,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10719,7 +10848,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10805,7 +10934,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -10891,7 +11020,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10977,7 +11106,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -11063,7 +11192,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -11149,7 +11278,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -11235,7 +11364,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11321,7 +11450,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11407,7 +11536,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11493,7 +11622,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11579,7 +11708,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11665,7 +11794,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11751,7 +11880,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11837,7 +11966,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11946,7 +12075,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -12038,7 +12167,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -12142,7 +12271,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -12246,7 +12375,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12350,7 +12479,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12454,7 +12583,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12558,7 +12687,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12662,7 +12791,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12766,7 +12895,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12870,7 +12999,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12974,7 +13103,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -13078,7 +13207,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -13182,7 +13311,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13286,7 +13415,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13390,7 +13519,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13494,7 +13623,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13598,7 +13727,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13702,7 +13831,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13806,7 +13935,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -13986,7 +14115,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -14051,7 +14180,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -14116,7 +14245,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -14181,7 +14310,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -14246,7 +14375,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -14311,7 +14440,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14376,7 +14505,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -14441,7 +14570,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14506,7 +14635,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14571,7 +14700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -14636,7 +14765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -14701,7 +14830,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -14795,7 +14924,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14833,7 +14962,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -14889,7 +15018,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14945,7 +15074,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15001,7 +15130,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15057,7 +15186,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15113,7 +15242,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -15169,7 +15298,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15225,7 +15354,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15281,7 +15410,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -15337,7 +15466,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15451,7 +15580,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -15498,7 +15627,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -15545,7 +15674,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -15592,7 +15721,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15639,7 +15768,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15686,7 +15815,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15733,7 +15862,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15780,7 +15909,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15827,7 +15956,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -15874,7 +16003,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15985,7 +16114,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -16038,7 +16167,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -16091,7 +16220,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -16144,7 +16273,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -16197,7 +16326,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -16250,7 +16379,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -16303,7 +16432,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -16356,7 +16485,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -16409,7 +16538,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -16462,7 +16591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -18224,10 +18353,13 @@
       <c r="AK1" t="s">
         <v>235</v>
       </c>
+      <c r="AL1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -18335,12 +18467,15 @@
         <v>60</v>
       </c>
       <c r="AK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18448,12 +18583,15 @@
         <v>59</v>
       </c>
       <c r="AK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18562,11 +18700,14 @@
       </c>
       <c r="AK4" t="s">
         <v>58</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18675,11 +18816,14 @@
       </c>
       <c r="AK5" t="s">
         <v>61</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18788,11 +18932,14 @@
       </c>
       <c r="AK6" t="s">
         <v>60</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18900,12 +19047,15 @@
         <v>59</v>
       </c>
       <c r="AK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -19014,11 +19164,14 @@
       </c>
       <c r="AK8" t="s">
         <v>58</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -19126,12 +19279,15 @@
         <v>61</v>
       </c>
       <c r="AK9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -19239,12 +19395,15 @@
         <v>59</v>
       </c>
       <c r="AK10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -19353,11 +19512,14 @@
       </c>
       <c r="AK11" t="s">
         <v>58</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -19466,11 +19628,14 @@
       </c>
       <c r="AK12" t="s">
         <v>58</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19579,11 +19744,14 @@
       </c>
       <c r="AK13" t="s">
         <v>58</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19692,11 +19860,14 @@
       </c>
       <c r="AK14" t="s">
         <v>59</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19805,11 +19976,14 @@
       </c>
       <c r="AK15" t="s">
         <v>59</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19918,11 +20092,14 @@
       </c>
       <c r="AK16" t="s">
         <v>59</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -20031,11 +20208,14 @@
       </c>
       <c r="AK17" t="s">
         <v>59</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -20144,11 +20324,14 @@
       </c>
       <c r="AK18" t="s">
         <v>58</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -20257,11 +20440,14 @@
       </c>
       <c r="AK19" t="s">
         <v>61</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -20370,11 +20556,14 @@
       </c>
       <c r="AK20" t="s">
         <v>60</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -20482,6 +20671,9 @@
         <v>59</v>
       </c>
       <c r="AK21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20537,13 +20729,13 @@
         <v>208</v>
       </c>
       <c r="N1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O1" t="s">
         <v>153</v>
       </c>
       <c r="P1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q1" t="s">
         <v>154</v>
@@ -20594,7 +20786,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AH1" t="s">
         <v>183</v>
@@ -20603,10 +20795,10 @@
         <v>156</v>
       </c>
       <c r="AJ1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20624,7 +20816,7 @@
         <v>128</v>
       </c>
       <c r="AQ1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20641,7 +20833,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20784,7 +20976,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20927,7 +21119,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -21070,7 +21262,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -21213,7 +21405,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -21356,7 +21548,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -21499,7 +21691,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21642,7 +21834,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21785,7 +21977,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -21928,7 +22120,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -22071,7 +22263,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -22214,7 +22406,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -22357,7 +22549,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -22500,7 +22692,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22643,7 +22835,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22786,7 +22978,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22929,7 +23121,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -23072,7 +23264,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -23215,7 +23407,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -23358,7 +23550,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -23501,7 +23693,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23644,7 +23836,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -23908,7 +24100,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -24018,7 +24210,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -24128,7 +24320,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -24238,7 +24430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -24348,7 +24540,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -24458,7 +24650,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -24568,7 +24760,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24678,7 +24870,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24788,7 +24980,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24898,7 +25090,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -25008,7 +25200,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -25118,7 +25310,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -25228,7 +25420,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -25338,7 +25530,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -25448,7 +25640,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -25558,7 +25750,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -25668,7 +25860,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -25778,7 +25970,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25888,7 +26080,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -25998,7 +26190,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14203" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14406" uniqueCount="500">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -536,6 +536,12 @@
     <t>X2021.10.26</t>
   </si>
   <si>
+    <t>X2021.11.12</t>
+  </si>
+  <si>
+    <t>X2021.11.13</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -696,6 +702,9 @@
   </si>
   <si>
     <t>X2021.10.12</t>
+  </si>
+  <si>
+    <t>X2021.11.09</t>
   </si>
   <si>
     <t>Aldershot</t>
@@ -4308,25 +4317,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
         <v>129</v>
@@ -4338,7 +4347,7 @@
         <v>104</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4380,7 +4389,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4394,7 +4403,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -4486,7 +4495,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -4578,7 +4587,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4670,7 +4679,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -4762,7 +4771,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -4854,7 +4863,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4946,7 +4955,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -5038,7 +5047,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -5130,7 +5139,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -5222,7 +5231,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -5314,7 +5323,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -5406,7 +5415,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -5498,7 +5507,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -5590,7 +5599,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -5682,7 +5691,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -5774,7 +5783,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -5866,7 +5875,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -5958,7 +5967,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -6050,7 +6059,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -6142,7 +6151,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -6316,7 +6325,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -6387,7 +6396,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -6458,7 +6467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -6529,7 +6538,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -6600,7 +6609,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -6671,7 +6680,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -6742,7 +6751,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -6813,7 +6822,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -6884,7 +6893,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -6955,7 +6964,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -7026,7 +7035,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -7097,7 +7106,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -7168,7 +7177,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -7239,7 +7248,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -7360,7 +7369,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
         <v>164</v>
@@ -7411,10 +7420,10 @@
         <v>166</v>
       </c>
       <c r="AE1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AF1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7437,7 +7446,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -7553,7 +7562,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -7669,7 +7678,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -7785,7 +7794,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -7901,7 +7910,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -8017,7 +8026,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -8133,7 +8142,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -8249,7 +8258,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -8365,7 +8374,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -8481,7 +8490,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -8597,7 +8606,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -8713,7 +8722,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -8829,7 +8838,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -8945,7 +8954,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -9061,7 +9070,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -9177,7 +9186,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -9293,7 +9302,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -9409,7 +9418,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -9525,7 +9534,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -9641,7 +9650,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -9807,7 +9816,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
         <v>164</v>
@@ -9846,10 +9855,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AB1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AC1" t="s">
         <v>107</v>
@@ -9866,7 +9875,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -9964,7 +9973,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -10062,7 +10071,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -10160,7 +10169,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -10258,7 +10267,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -10356,7 +10365,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -10454,7 +10463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -10552,7 +10561,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -10650,7 +10659,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -10748,7 +10757,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -10846,7 +10855,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -10944,7 +10953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -11042,7 +11051,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -11140,7 +11149,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -11238,7 +11247,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -11336,7 +11345,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -11434,7 +11443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -11532,7 +11541,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -11630,7 +11639,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -11728,7 +11737,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -11938,7 +11947,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -12039,7 +12048,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -12140,7 +12149,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -12241,7 +12250,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -12342,7 +12351,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -12443,7 +12452,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -12544,7 +12553,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -12645,7 +12654,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -12746,7 +12755,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -12847,7 +12856,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -12948,7 +12957,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -13049,7 +13058,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -13150,7 +13159,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -13251,7 +13260,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -13352,7 +13361,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -13453,7 +13462,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -13554,7 +13563,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -13655,7 +13664,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -13779,7 +13788,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -13791,7 +13800,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -13833,7 +13842,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -13866,7 +13875,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -13892,7 +13901,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -14017,7 +14026,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -14142,7 +14151,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14267,7 +14276,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -14392,7 +14401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -14517,7 +14526,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -14642,7 +14651,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14767,7 +14776,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -14892,7 +14901,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -15017,7 +15026,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -15142,7 +15151,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -15267,7 +15276,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -15392,7 +15401,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -15517,7 +15526,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -15642,7 +15651,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -15767,7 +15776,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -15892,7 +15901,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -16017,7 +16026,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -16213,7 +16222,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -16230,7 +16239,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -16307,7 +16316,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -16384,7 +16393,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -16461,7 +16470,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -16538,7 +16547,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -16615,7 +16624,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -16692,7 +16701,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -16769,7 +16778,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -16846,7 +16855,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -16923,7 +16932,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -17000,7 +17009,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -17077,7 +17086,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -17171,7 +17180,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -17183,7 +17192,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -17223,11 +17232,14 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17284,12 +17296,15 @@
         <v>66</v>
       </c>
       <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -17347,11 +17362,14 @@
       </c>
       <c r="T3" t="s">
         <v>65</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -17409,11 +17427,14 @@
       </c>
       <c r="T4" t="s">
         <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -17471,11 +17492,14 @@
       </c>
       <c r="T5" t="s">
         <v>65</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -17533,11 +17557,14 @@
       </c>
       <c r="T6" t="s">
         <v>65</v>
+      </c>
+      <c r="U6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -17595,11 +17622,14 @@
       </c>
       <c r="T7" t="s">
         <v>67</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -17657,11 +17687,14 @@
       </c>
       <c r="T8" t="s">
         <v>66</v>
+      </c>
+      <c r="U8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -17718,12 +17751,15 @@
         <v>65</v>
       </c>
       <c r="T9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -17780,12 +17816,15 @@
         <v>67</v>
       </c>
       <c r="T10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -17843,6 +17882,9 @@
       </c>
       <c r="T11" t="s">
         <v>65</v>
+      </c>
+      <c r="U11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -17908,10 +17950,13 @@
       <c r="Q1" t="s">
         <v>44</v>
       </c>
+      <c r="R1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17959,12 +18004,15 @@
         <v>67</v>
       </c>
       <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -18012,12 +18060,15 @@
         <v>66</v>
       </c>
       <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -18065,12 +18116,15 @@
         <v>67</v>
       </c>
       <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -18119,11 +18173,14 @@
       </c>
       <c r="Q5" t="s">
         <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -18172,11 +18229,14 @@
       </c>
       <c r="Q6" t="s">
         <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18225,11 +18285,14 @@
       </c>
       <c r="Q7" t="s">
         <v>65</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -18278,11 +18341,14 @@
       </c>
       <c r="Q8" t="s">
         <v>65</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -18330,12 +18396,15 @@
         <v>65</v>
       </c>
       <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -18383,12 +18452,15 @@
         <v>65</v>
       </c>
       <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -18436,6 +18508,9 @@
         <v>65</v>
       </c>
       <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -18476,7 +18551,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -18510,11 +18585,20 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -18572,11 +18656,20 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -18634,11 +18727,20 @@
       </c>
       <c r="T3" t="s">
         <v>65</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -18695,12 +18797,21 @@
         <v>64</v>
       </c>
       <c r="T4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -18757,12 +18868,21 @@
         <v>67</v>
       </c>
       <c r="T5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -18820,11 +18940,20 @@
       </c>
       <c r="T6" t="s">
         <v>67</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -18882,11 +19011,20 @@
       </c>
       <c r="T7" t="s">
         <v>66</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -18943,12 +19081,21 @@
         <v>64</v>
       </c>
       <c r="T8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -19005,12 +19152,21 @@
         <v>64</v>
       </c>
       <c r="T9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -19067,12 +19223,21 @@
         <v>64</v>
       </c>
       <c r="T10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -19130,6 +19295,15 @@
       </c>
       <c r="T11" t="s">
         <v>65</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -21087,7 +21261,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -21129,7 +21303,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="T1" t="s">
         <v>164</v>
@@ -21177,16 +21351,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AJ1" t="s">
         <v>166</v>
       </c>
       <c r="AK1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AL1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -21209,7 +21383,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -21343,7 +21517,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -21477,7 +21651,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -21611,7 +21785,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -21745,7 +21919,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -21879,7 +22053,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -22013,7 +22187,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -22147,7 +22321,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -22281,7 +22455,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -22415,7 +22589,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -22549,7 +22723,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22683,7 +22857,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22817,7 +22991,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22951,7 +23125,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -23085,7 +23259,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -23219,7 +23393,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -23353,7 +23527,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -23487,7 +23661,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -23621,7 +23795,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -23755,7 +23929,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -23912,7 +24086,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23936,16 +24110,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q1" t="s">
         <v>163</v>
@@ -23972,7 +24146,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -23996,19 +24170,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AH1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AI1" t="s">
         <v>165</v>
       </c>
       <c r="AJ1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AK1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -24026,7 +24200,7 @@
         <v>135</v>
       </c>
       <c r="AQ1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -24038,7 +24212,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -24059,7 +24233,7 @@
         <v>137</v>
       </c>
       <c r="BB1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -24071,12 +24245,12 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -24252,7 +24426,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -24428,7 +24602,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -24604,7 +24778,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -24780,7 +24954,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -24956,7 +25130,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -25132,7 +25306,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -25308,7 +25482,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -25484,7 +25658,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -25660,7 +25834,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -25836,7 +26010,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -26012,7 +26186,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -26188,7 +26362,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -26364,7 +26538,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -26540,7 +26714,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -26716,7 +26890,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -26892,7 +27066,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -27068,7 +27242,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -27244,7 +27418,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -27420,7 +27594,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -27596,7 +27770,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -27772,7 +27946,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -27971,7 +28145,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -28064,7 +28238,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -28090,7 +28264,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -28221,7 +28395,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -28352,7 +28526,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -28483,7 +28657,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -28614,7 +28788,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -28745,7 +28919,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -28876,7 +29050,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -29007,7 +29181,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -29138,7 +29312,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -29269,7 +29443,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -29400,7 +29574,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -29531,7 +29705,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -29662,7 +29836,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -29793,7 +29967,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -29924,7 +30098,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -30055,7 +30229,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -30186,7 +30360,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -30317,7 +30491,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -30448,7 +30622,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -30579,7 +30753,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -37744,10 +37918,16 @@
       <c r="X1" t="s">
         <v>136</v>
       </c>
+      <c r="Y1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -37817,11 +37997,17 @@
       </c>
       <c r="X2" t="s">
         <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -37890,12 +38076,18 @@
         <v>67</v>
       </c>
       <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -37964,12 +38156,18 @@
         <v>67</v>
       </c>
       <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -38039,11 +38237,17 @@
       </c>
       <c r="X5" t="s">
         <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -38113,11 +38317,17 @@
       </c>
       <c r="X6" t="s">
         <v>66</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -38187,11 +38397,17 @@
       </c>
       <c r="X7" t="s">
         <v>65</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -38261,11 +38477,17 @@
       </c>
       <c r="X8" t="s">
         <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -38335,11 +38557,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -38409,11 +38637,17 @@
       </c>
       <c r="X10" t="s">
         <v>65</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -38483,11 +38717,17 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -38557,11 +38797,17 @@
       </c>
       <c r="X12" t="s">
         <v>64</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -38631,11 +38877,17 @@
       </c>
       <c r="X13" t="s">
         <v>66</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -38704,12 +38956,18 @@
         <v>65</v>
       </c>
       <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -38779,11 +39037,17 @@
       </c>
       <c r="X15" t="s">
         <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -38853,11 +39117,17 @@
       </c>
       <c r="X16" t="s">
         <v>67</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -38927,11 +39197,17 @@
       </c>
       <c r="X17" t="s">
         <v>64</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -39001,11 +39277,17 @@
       </c>
       <c r="X18" t="s">
         <v>64</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -39075,11 +39357,17 @@
       </c>
       <c r="X19" t="s">
         <v>65</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -39149,11 +39437,17 @@
       </c>
       <c r="X20" t="s">
         <v>65</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -39223,11 +39517,17 @@
       </c>
       <c r="X21" t="s">
         <v>66</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -39296,12 +39596,18 @@
         <v>65</v>
       </c>
       <c r="X22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -39371,11 +39677,17 @@
       </c>
       <c r="X23" t="s">
         <v>67</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -39445,11 +39757,17 @@
       </c>
       <c r="X24" t="s">
         <v>66</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -39518,6 +39836,12 @@
         <v>65</v>
       </c>
       <c r="X25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -39549,7 +39873,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -39585,7 +39909,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
         <v>165</v>
@@ -39604,11 +39928,17 @@
       </c>
       <c r="X1" t="s">
         <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -39678,11 +40008,17 @@
       </c>
       <c r="X2" t="s">
         <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -39751,12 +40087,18 @@
         <v>64</v>
       </c>
       <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -39825,12 +40167,18 @@
         <v>64</v>
       </c>
       <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -39900,11 +40248,17 @@
       </c>
       <c r="X5" t="s">
         <v>67</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -39974,11 +40328,17 @@
       </c>
       <c r="X6" t="s">
         <v>66</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -40048,11 +40408,17 @@
       </c>
       <c r="X7" t="s">
         <v>67</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -40121,12 +40487,18 @@
         <v>64</v>
       </c>
       <c r="X8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -40196,11 +40568,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -40270,11 +40648,17 @@
       </c>
       <c r="X10" t="s">
         <v>67</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -40344,11 +40728,17 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -40418,11 +40808,17 @@
       </c>
       <c r="X12" t="s">
         <v>66</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -40491,12 +40887,18 @@
         <v>64</v>
       </c>
       <c r="X13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -40566,11 +40968,17 @@
       </c>
       <c r="X14" t="s">
         <v>66</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -40640,11 +41048,17 @@
       </c>
       <c r="X15" t="s">
         <v>66</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -40713,12 +41127,18 @@
         <v>64</v>
       </c>
       <c r="X16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -40788,11 +41208,17 @@
       </c>
       <c r="X17" t="s">
         <v>66</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -40862,11 +41288,17 @@
       </c>
       <c r="X18" t="s">
         <v>66</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -40936,11 +41368,17 @@
       </c>
       <c r="X19" t="s">
         <v>67</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -41010,11 +41448,17 @@
       </c>
       <c r="X20" t="s">
         <v>67</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -41083,12 +41527,18 @@
         <v>64</v>
       </c>
       <c r="X21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -41158,11 +41608,17 @@
       </c>
       <c r="X22" t="s">
         <v>67</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -41232,11 +41688,17 @@
       </c>
       <c r="X23" t="s">
         <v>66</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
@@ -41305,12 +41767,18 @@
         <v>64</v>
       </c>
       <c r="X24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -41380,6 +41848,12 @@
       </c>
       <c r="X25" t="s">
         <v>66</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -41404,10 +41878,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
         <v>162</v>
@@ -41434,13 +41908,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s">
         <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -41453,11 +41927,17 @@
       </c>
       <c r="T1" t="s">
         <v>136</v>
+      </c>
+      <c r="U1" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -41515,11 +41995,17 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -41577,11 +42063,17 @@
       </c>
       <c r="T3" t="s">
         <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -41639,11 +42131,17 @@
       </c>
       <c r="T4" t="s">
         <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -41701,11 +42199,17 @@
       </c>
       <c r="T5" t="s">
         <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -41763,11 +42267,17 @@
       </c>
       <c r="T6" t="s">
         <v>66</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -41825,11 +42335,17 @@
       </c>
       <c r="T7" t="s">
         <v>64</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -41887,11 +42403,17 @@
       </c>
       <c r="T8" t="s">
         <v>64</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -41948,12 +42470,18 @@
         <v>67</v>
       </c>
       <c r="T9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -42011,11 +42539,17 @@
       </c>
       <c r="T10" t="s">
         <v>64</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -42073,11 +42607,17 @@
       </c>
       <c r="T11" t="s">
         <v>64</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -42134,12 +42674,18 @@
         <v>65</v>
       </c>
       <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -42197,11 +42743,17 @@
       </c>
       <c r="T13" t="s">
         <v>64</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -42259,11 +42811,17 @@
       </c>
       <c r="T14" t="s">
         <v>64</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -42321,11 +42879,17 @@
       </c>
       <c r="T15" t="s">
         <v>64</v>
+      </c>
+      <c r="U15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -42383,11 +42947,17 @@
       </c>
       <c r="T16" t="s">
         <v>64</v>
+      </c>
+      <c r="U16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -42445,11 +43015,17 @@
       </c>
       <c r="T17" t="s">
         <v>66</v>
+      </c>
+      <c r="U17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -42507,11 +43083,17 @@
       </c>
       <c r="T18" t="s">
         <v>64</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -42569,11 +43151,17 @@
       </c>
       <c r="T19" t="s">
         <v>64</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -42631,11 +43219,17 @@
       </c>
       <c r="T20" t="s">
         <v>64</v>
+      </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -42693,11 +43287,17 @@
       </c>
       <c r="T21" t="s">
         <v>64</v>
+      </c>
+      <c r="U21" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
@@ -42755,11 +43355,17 @@
       </c>
       <c r="T22" t="s">
         <v>67</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -42817,11 +43423,17 @@
       </c>
       <c r="T23" t="s">
         <v>64</v>
+      </c>
+      <c r="U23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -42879,6 +43491,12 @@
       </c>
       <c r="T24" t="s">
         <v>64</v>
+      </c>
+      <c r="U24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -42987,7 +43605,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -43010,7 +43628,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -43126,7 +43744,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -43242,7 +43860,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -43358,7 +43976,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -43474,7 +44092,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -43590,7 +44208,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -43706,7 +44324,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -43822,7 +44440,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -43938,7 +44556,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -44054,7 +44672,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -44170,7 +44788,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -44286,7 +44904,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -44402,7 +45020,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -44518,7 +45136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -44634,7 +45252,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -44750,7 +45368,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -44866,7 +45484,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -44982,7 +45600,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -45098,7 +45716,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -45214,7 +45832,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15458" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15625" uniqueCount="508">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -302,6 +302,9 @@
     <t>Wolfsburg</t>
   </si>
   <si>
+    <t>X2021.11.24</t>
+  </si>
+  <si>
     <t>Darmstadt</t>
   </si>
   <si>
@@ -456,6 +459,9 @@
   </si>
   <si>
     <t>X2021.11.03</t>
+  </si>
+  <si>
+    <t>X2021.11.23</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -4506,37 +4512,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4548,13 +4554,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4563,7 +4569,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -4572,19 +4578,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -4593,12 +4599,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -4696,7 +4702,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -4794,7 +4800,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -4892,7 +4898,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -4990,7 +4996,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -5088,7 +5094,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -5186,7 +5192,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -5284,7 +5290,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -5382,7 +5388,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -5480,7 +5486,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -5578,7 +5584,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -5676,7 +5682,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -5872,7 +5878,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -5970,7 +5976,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -6068,7 +6074,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -6166,7 +6172,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -6264,7 +6270,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -6362,7 +6368,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -6460,7 +6466,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -6599,7 +6605,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -6614,7 +6620,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -6629,7 +6635,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -6646,7 +6652,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -6723,7 +6729,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -6800,7 +6806,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -6877,7 +6883,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -6954,7 +6960,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -7031,7 +7037,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -7108,7 +7114,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -7185,7 +7191,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -7262,7 +7268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -7339,7 +7345,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -7416,7 +7422,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -7493,7 +7499,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -7570,7 +7576,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -7647,7 +7653,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -7744,7 +7750,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -7774,10 +7780,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7792,7 +7798,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -7810,7 +7816,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -7822,13 +7828,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AE1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7837,7 +7843,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7855,12 +7861,12 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -7985,7 +7991,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -8110,7 +8116,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -8235,7 +8241,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -8360,7 +8366,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -8485,7 +8491,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -8610,7 +8616,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -8735,7 +8741,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -8860,7 +8866,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -8985,7 +8991,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -9110,7 +9116,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -9235,7 +9241,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -9360,7 +9366,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -9485,7 +9491,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -9610,7 +9616,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -9735,7 +9741,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -9860,7 +9866,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -9985,7 +9991,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -10110,7 +10116,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -10235,7 +10241,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -10410,10 +10416,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10449,13 +10455,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AC1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -10475,7 +10481,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -10579,7 +10585,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -10683,7 +10689,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -10787,7 +10793,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -10891,7 +10897,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -10995,7 +11001,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -11099,7 +11105,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -11203,7 +11209,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -11307,7 +11313,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -11411,7 +11417,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -11515,7 +11521,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -11619,7 +11625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -11723,7 +11729,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -11827,7 +11833,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -11931,7 +11937,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -12035,7 +12041,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -12139,7 +12145,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -12243,7 +12249,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -12347,7 +12353,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -12451,7 +12457,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -12611,7 +12617,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -12673,7 +12679,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -12780,7 +12786,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -12887,7 +12893,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -12994,7 +13000,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -13101,7 +13107,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -13208,7 +13214,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -13315,7 +13321,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -13422,7 +13428,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -13529,7 +13535,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -13636,7 +13642,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -13743,7 +13749,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -13850,7 +13856,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -13957,7 +13963,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -14064,7 +14070,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -14171,7 +14177,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -14278,7 +14284,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -14385,7 +14391,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -14492,7 +14498,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -14622,7 +14628,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -14634,7 +14640,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -14646,7 +14652,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -14676,7 +14682,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -14688,7 +14694,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -14709,7 +14715,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -14721,7 +14727,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -14735,7 +14741,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -14860,7 +14866,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -14985,7 +14991,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -15110,7 +15116,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -15235,7 +15241,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -15360,7 +15366,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -15485,7 +15491,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -15610,7 +15616,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -15735,7 +15741,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -15860,7 +15866,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -15985,7 +15991,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -16110,7 +16116,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -16235,7 +16241,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -16360,7 +16366,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -16485,7 +16491,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -16610,7 +16616,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -16735,7 +16741,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -16860,7 +16866,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -17056,7 +17062,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -17072,11 +17078,14 @@
       </c>
       <c r="Z1" t="s">
         <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17152,11 +17161,14 @@
       </c>
       <c r="Z2" t="s">
         <v>70</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -17231,12 +17243,15 @@
         <v>69</v>
       </c>
       <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -17311,12 +17326,15 @@
         <v>70</v>
       </c>
       <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -17392,11 +17410,14 @@
       </c>
       <c r="Z5" t="s">
         <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -17472,11 +17493,14 @@
       </c>
       <c r="Z6" t="s">
         <v>70</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -17552,11 +17576,14 @@
       </c>
       <c r="Z7" t="s">
         <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -17632,11 +17659,14 @@
       </c>
       <c r="Z8" t="s">
         <v>68</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -17712,11 +17742,14 @@
       </c>
       <c r="Z9" t="s">
         <v>69</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -17791,12 +17824,15 @@
         <v>69</v>
       </c>
       <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -17872,11 +17908,14 @@
       </c>
       <c r="Z11" t="s">
         <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -17951,12 +17990,15 @@
         <v>67</v>
       </c>
       <c r="Z12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -18032,6 +18074,9 @@
       </c>
       <c r="Z13" t="s">
         <v>68</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -18053,7 +18098,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -18065,7 +18110,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -18083,7 +18128,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -18098,7 +18143,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -18107,7 +18152,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -18118,7 +18163,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18189,7 +18234,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -18260,7 +18305,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -18331,7 +18376,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -18402,7 +18447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -18473,7 +18518,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -18544,7 +18589,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -18615,7 +18660,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -18686,7 +18731,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -18757,7 +18802,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -18860,7 +18905,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -18890,7 +18935,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -18898,7 +18943,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18957,7 +19002,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -19016,7 +19061,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -19075,7 +19120,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -19134,7 +19179,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -19193,7 +19238,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -19252,7 +19297,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -19311,7 +19356,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -19370,7 +19415,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -19429,7 +19474,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -19523,7 +19568,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -19559,21 +19604,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -19643,11 +19691,14 @@
       </c>
       <c r="X2" t="s">
         <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -19717,11 +19768,14 @@
       </c>
       <c r="X3" t="s">
         <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -19791,11 +19845,14 @@
       </c>
       <c r="X4" t="s">
         <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -19865,11 +19922,14 @@
       </c>
       <c r="X5" t="s">
         <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -19939,11 +19999,14 @@
       </c>
       <c r="X6" t="s">
         <v>70</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -20013,11 +20076,14 @@
       </c>
       <c r="X7" t="s">
         <v>69</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -20087,11 +20153,14 @@
       </c>
       <c r="X8" t="s">
         <v>69</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -20161,11 +20230,14 @@
       </c>
       <c r="X9" t="s">
         <v>70</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -20235,11 +20307,14 @@
       </c>
       <c r="X10" t="s">
         <v>70</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -20309,6 +20384,9 @@
       </c>
       <c r="X11" t="s">
         <v>69</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -22437,7 +22515,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -22449,7 +22527,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -22479,10 +22557,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -22497,7 +22575,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -22515,7 +22593,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -22527,16 +22605,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AJ1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AK1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -22545,7 +22623,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -22566,12 +22644,12 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -22717,7 +22795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -22863,7 +22941,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -23009,7 +23087,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -23155,7 +23233,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -23301,7 +23379,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -23447,7 +23525,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -23593,7 +23671,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -23739,7 +23817,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -23885,7 +23963,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -24031,7 +24109,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -24177,7 +24255,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -24323,7 +24401,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -24469,7 +24547,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -24615,7 +24693,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -24761,7 +24839,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -24907,7 +24985,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -25053,7 +25131,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -25199,7 +25277,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -25345,7 +25423,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -25514,7 +25592,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -25526,7 +25604,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -25538,19 +25616,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -25574,7 +25652,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -25586,7 +25664,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -25598,19 +25676,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AH1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AI1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AJ1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AK1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -25622,13 +25700,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AP1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -25640,7 +25718,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -25652,16 +25730,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AZ1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BA1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BB1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -25673,19 +25751,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="BG1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BH1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BI1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="BJ1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -25697,12 +25775,12 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -25902,7 +25980,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -26102,7 +26180,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -26302,7 +26380,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -26502,7 +26580,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -26702,7 +26780,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -26902,7 +26980,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -27102,7 +27180,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -27302,7 +27380,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -27502,7 +27580,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -27702,7 +27780,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -27902,7 +27980,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -28102,7 +28180,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -28302,7 +28380,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -28502,7 +28580,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -28702,7 +28780,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -28902,7 +28980,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -29102,7 +29180,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -29302,7 +29380,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -29502,7 +29580,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -29702,7 +29780,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -29902,7 +29980,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -30125,7 +30203,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30137,7 +30215,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30167,7 +30245,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -30185,7 +30263,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30206,7 +30284,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -30218,7 +30296,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -30230,7 +30308,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -30248,12 +30326,12 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -30393,7 +30471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -30533,7 +30611,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -30673,7 +30751,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -30813,7 +30891,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -30953,7 +31031,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -31093,7 +31171,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -31233,7 +31311,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -31373,7 +31451,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -31513,7 +31591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -31653,7 +31731,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -31793,7 +31871,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -31933,7 +32011,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -32073,7 +32151,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -32213,7 +32291,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -32353,7 +32431,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -32493,7 +32571,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -32633,7 +32711,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -32773,7 +32851,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -32913,7 +32991,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -33189,10 +33267,13 @@
       <c r="AP1" t="s">
         <v>48</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -33315,12 +33396,15 @@
         <v>69</v>
       </c>
       <c r="AP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -33444,11 +33528,14 @@
       </c>
       <c r="AP3" t="s">
         <v>69</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -33571,12 +33658,15 @@
         <v>69</v>
       </c>
       <c r="AP4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -33700,11 +33790,14 @@
       </c>
       <c r="AP5" t="s">
         <v>70</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -33827,12 +33920,15 @@
         <v>69</v>
       </c>
       <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -33955,12 +34051,15 @@
         <v>67</v>
       </c>
       <c r="AP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -34083,12 +34182,15 @@
         <v>70</v>
       </c>
       <c r="AP8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -34212,11 +34314,14 @@
       </c>
       <c r="AP9" t="s">
         <v>69</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -34340,11 +34445,14 @@
       </c>
       <c r="AP10" t="s">
         <v>70</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -34468,11 +34576,14 @@
       </c>
       <c r="AP11" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -34596,11 +34707,14 @@
       </c>
       <c r="AP12" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -34723,12 +34837,15 @@
         <v>67</v>
       </c>
       <c r="AP13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -34851,12 +34968,15 @@
         <v>67</v>
       </c>
       <c r="AP14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -34979,12 +35099,15 @@
         <v>70</v>
       </c>
       <c r="AP15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -35108,11 +35231,14 @@
       </c>
       <c r="AP16" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -35235,12 +35361,15 @@
         <v>68</v>
       </c>
       <c r="AP17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -35364,11 +35493,14 @@
       </c>
       <c r="AP18" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -35491,6 +35623,9 @@
         <v>68</v>
       </c>
       <c r="AP19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -35525,7 +35660,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -35558,7 +35693,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -35573,7 +35708,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -35591,7 +35726,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -35611,7 +35746,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -35715,7 +35850,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -35819,7 +35954,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -35923,7 +36058,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -36027,7 +36162,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -36131,7 +36266,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -36235,7 +36370,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -36339,7 +36474,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -36443,7 +36578,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -36547,7 +36682,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -36651,7 +36786,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -36755,7 +36890,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -36859,7 +36994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -36963,7 +37098,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -37067,7 +37202,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -37171,7 +37306,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -37275,7 +37410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -37379,7 +37514,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -37483,7 +37618,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -37587,7 +37722,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -37717,10 +37852,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -37741,10 +37876,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -37756,10 +37891,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -37777,10 +37912,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -37795,10 +37930,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -37811,11 +37946,17 @@
       </c>
       <c r="AK1" t="s">
         <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -37924,11 +38065,17 @@
       </c>
       <c r="AK2" t="s">
         <v>67</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -38036,12 +38183,18 @@
         <v>70</v>
       </c>
       <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -38150,11 +38303,17 @@
       </c>
       <c r="AK4" t="s">
         <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -38262,12 +38421,18 @@
         <v>68</v>
       </c>
       <c r="AK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -38376,11 +38541,17 @@
       </c>
       <c r="AK6" t="s">
         <v>70</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -38489,11 +38660,17 @@
       </c>
       <c r="AK7" t="s">
         <v>67</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -38602,11 +38779,17 @@
       </c>
       <c r="AK8" t="s">
         <v>67</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -38714,12 +38897,18 @@
         <v>68</v>
       </c>
       <c r="AK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -38828,11 +39017,17 @@
       </c>
       <c r="AK10" t="s">
         <v>69</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -38941,11 +39136,17 @@
       </c>
       <c r="AK11" t="s">
         <v>67</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -39054,11 +39255,17 @@
       </c>
       <c r="AK12" t="s">
         <v>67</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -39167,11 +39374,17 @@
       </c>
       <c r="AK13" t="s">
         <v>67</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -39279,12 +39492,18 @@
         <v>67</v>
       </c>
       <c r="AK14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -39392,12 +39611,18 @@
         <v>68</v>
       </c>
       <c r="AK15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -39506,11 +39731,17 @@
       </c>
       <c r="AK16" t="s">
         <v>67</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -39618,12 +39849,18 @@
         <v>68</v>
       </c>
       <c r="AK17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -39732,11 +39969,17 @@
       </c>
       <c r="AK18" t="s">
         <v>67</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -39844,12 +40087,18 @@
         <v>70</v>
       </c>
       <c r="AK19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -39958,11 +40207,17 @@
       </c>
       <c r="AK20" t="s">
         <v>67</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -40070,12 +40325,18 @@
         <v>68</v>
       </c>
       <c r="AK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -40183,12 +40444,18 @@
         <v>68</v>
       </c>
       <c r="AK22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -40297,11 +40564,17 @@
       </c>
       <c r="AK23" t="s">
         <v>67</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -40410,11 +40683,17 @@
       </c>
       <c r="AK24" t="s">
         <v>67</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -40522,6 +40801,12 @@
         <v>70</v>
       </c>
       <c r="AK25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -40547,7 +40832,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -40559,34 +40844,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -40595,33 +40880,36 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -40699,12 +40987,15 @@
         <v>70</v>
       </c>
       <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -40783,11 +41074,14 @@
       </c>
       <c r="AA3" t="s">
         <v>70</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -40866,11 +41160,14 @@
       </c>
       <c r="AA4" t="s">
         <v>70</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -40949,11 +41246,14 @@
       </c>
       <c r="AA5" t="s">
         <v>70</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -41032,11 +41332,14 @@
       </c>
       <c r="AA6" t="s">
         <v>70</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -41115,11 +41418,14 @@
       </c>
       <c r="AA7" t="s">
         <v>69</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -41197,12 +41503,15 @@
         <v>67</v>
       </c>
       <c r="AA8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -41281,11 +41590,14 @@
       </c>
       <c r="AA9" t="s">
         <v>69</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -41364,11 +41676,14 @@
       </c>
       <c r="AA10" t="s">
         <v>68</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -41446,12 +41761,15 @@
         <v>67</v>
       </c>
       <c r="AA11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -41529,12 +41847,15 @@
         <v>68</v>
       </c>
       <c r="AA12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -41612,12 +41933,15 @@
         <v>68</v>
       </c>
       <c r="AA13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -41696,11 +42020,14 @@
       </c>
       <c r="AA14" t="s">
         <v>68</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -41779,11 +42106,14 @@
       </c>
       <c r="AA15" t="s">
         <v>69</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -41862,11 +42192,14 @@
       </c>
       <c r="AA16" t="s">
         <v>69</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -41945,11 +42278,14 @@
       </c>
       <c r="AA17" t="s">
         <v>67</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -42027,12 +42363,15 @@
         <v>69</v>
       </c>
       <c r="AA18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -42110,12 +42449,15 @@
         <v>69</v>
       </c>
       <c r="AA19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -42193,12 +42535,15 @@
         <v>67</v>
       </c>
       <c r="AA20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -42276,12 +42621,15 @@
         <v>68</v>
       </c>
       <c r="AA21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -42360,11 +42708,14 @@
       </c>
       <c r="AA22" t="s">
         <v>70</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -42443,11 +42794,14 @@
       </c>
       <c r="AA23" t="s">
         <v>69</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -42526,11 +42880,14 @@
       </c>
       <c r="AA24" t="s">
         <v>67</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -42608,6 +42965,9 @@
         <v>70</v>
       </c>
       <c r="AA25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -42633,13 +42993,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -42648,7 +43008,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -42657,13 +43017,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -42675,39 +43035,42 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -42785,12 +43148,15 @@
         <v>68</v>
       </c>
       <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -42869,11 +43235,14 @@
       </c>
       <c r="AA3" t="s">
         <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -42951,12 +43320,15 @@
         <v>69</v>
       </c>
       <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -43034,12 +43406,15 @@
         <v>68</v>
       </c>
       <c r="AA5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -43118,11 +43493,14 @@
       </c>
       <c r="AA6" t="s">
         <v>70</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -43201,11 +43579,14 @@
       </c>
       <c r="AA7" t="s">
         <v>69</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -43284,11 +43665,14 @@
       </c>
       <c r="AA8" t="s">
         <v>69</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -43366,12 +43750,15 @@
         <v>67</v>
       </c>
       <c r="AA9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -43450,11 +43837,14 @@
       </c>
       <c r="AA10" t="s">
         <v>70</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -43532,12 +43922,15 @@
         <v>67</v>
       </c>
       <c r="AA11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -43616,11 +44009,14 @@
       </c>
       <c r="AA12" t="s">
         <v>69</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -43699,11 +44095,14 @@
       </c>
       <c r="AA13" t="s">
         <v>69</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -43782,11 +44181,14 @@
       </c>
       <c r="AA14" t="s">
         <v>70</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -43865,11 +44267,14 @@
       </c>
       <c r="AA15" t="s">
         <v>68</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -43948,11 +44353,14 @@
       </c>
       <c r="AA16" t="s">
         <v>69</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -44030,12 +44438,15 @@
         <v>68</v>
       </c>
       <c r="AA17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -44113,12 +44524,15 @@
         <v>68</v>
       </c>
       <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -44197,11 +44611,14 @@
       </c>
       <c r="AA19" t="s">
         <v>69</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -44280,11 +44697,14 @@
       </c>
       <c r="AA20" t="s">
         <v>70</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -44363,11 +44783,14 @@
       </c>
       <c r="AA21" t="s">
         <v>69</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -44446,11 +44869,14 @@
       </c>
       <c r="AA22" t="s">
         <v>70</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -44528,12 +44954,15 @@
         <v>67</v>
       </c>
       <c r="AA23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -44612,11 +45041,14 @@
       </c>
       <c r="AA24" t="s">
         <v>68</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -44695,6 +45127,9 @@
       </c>
       <c r="AA25" t="s">
         <v>68</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -44719,72 +45154,75 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -44854,11 +45292,14 @@
       </c>
       <c r="X2" t="s">
         <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -44928,11 +45369,14 @@
       </c>
       <c r="X3" t="s">
         <v>69</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -45002,11 +45446,14 @@
       </c>
       <c r="X4" t="s">
         <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -45076,11 +45523,14 @@
       </c>
       <c r="X5" t="s">
         <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -45150,11 +45600,14 @@
       </c>
       <c r="X6" t="s">
         <v>69</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -45224,11 +45677,14 @@
       </c>
       <c r="X7" t="s">
         <v>69</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -45297,12 +45753,15 @@
         <v>67</v>
       </c>
       <c r="X8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -45371,12 +45830,15 @@
         <v>67</v>
       </c>
       <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -45445,12 +45907,15 @@
         <v>67</v>
       </c>
       <c r="X10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -45520,11 +45985,14 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -45594,11 +46062,14 @@
       </c>
       <c r="X12" t="s">
         <v>69</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -45667,12 +46138,15 @@
         <v>67</v>
       </c>
       <c r="X13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -45742,11 +46216,14 @@
       </c>
       <c r="X14" t="s">
         <v>70</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -45816,11 +46293,14 @@
       </c>
       <c r="X15" t="s">
         <v>70</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -45890,11 +46370,14 @@
       </c>
       <c r="X16" t="s">
         <v>70</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -45963,12 +46446,15 @@
         <v>70</v>
       </c>
       <c r="X17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -46037,12 +46523,15 @@
         <v>67</v>
       </c>
       <c r="X18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -46111,12 +46600,15 @@
         <v>67</v>
       </c>
       <c r="X19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -46186,11 +46678,14 @@
       </c>
       <c r="X20" t="s">
         <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -46259,12 +46754,15 @@
         <v>67</v>
       </c>
       <c r="X21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -46334,11 +46832,14 @@
       </c>
       <c r="X22" t="s">
         <v>70</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -46408,11 +46909,14 @@
       </c>
       <c r="X23" t="s">
         <v>68</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -46481,6 +46985,9 @@
         <v>67</v>
       </c>
       <c r="X24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y24" t="s">
         <v>69</v>
       </c>
     </row>
@@ -46590,7 +47097,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -46622,7 +47129,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -46747,7 +47254,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -46872,7 +47379,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -46997,7 +47504,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -47122,7 +47629,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -47247,7 +47754,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -47372,7 +47879,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -47497,7 +48004,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -47622,7 +48129,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -47747,7 +48254,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -47872,7 +48379,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -47997,7 +48504,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -48122,7 +48629,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -48247,7 +48754,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -48372,7 +48879,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -48497,7 +49004,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -48622,7 +49129,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -48747,7 +49254,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -48872,7 +49379,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -48997,7 +49504,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16736" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17066" uniqueCount="515">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -378,6 +378,15 @@
   </si>
   <si>
     <t>X2021.11.01</t>
+  </si>
+  <si>
+    <t>X2021.11.30</t>
+  </si>
+  <si>
+    <t>X2021.12.01</t>
+  </si>
+  <si>
+    <t>X2021.12.02</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -4695,28 +4704,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -4725,7 +4734,7 @@
         <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4737,13 +4746,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4767,7 +4776,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4782,12 +4791,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -4885,7 +4894,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -4983,7 +4992,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -5081,7 +5090,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -5179,7 +5188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -5277,7 +5286,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -5375,7 +5384,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -5473,7 +5482,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -5571,7 +5580,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -5669,7 +5678,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -5767,7 +5776,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -5865,7 +5874,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -5963,7 +5972,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -6061,7 +6070,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -6159,7 +6168,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -6257,7 +6266,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -6355,7 +6364,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -6453,7 +6462,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -6551,7 +6560,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -6649,7 +6658,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -6833,7 +6842,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -6844,7 +6853,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -6930,7 +6939,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -7016,7 +7025,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -7102,7 +7111,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -7188,7 +7197,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -7274,7 +7283,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -7360,7 +7369,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -7446,7 +7455,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -7532,7 +7541,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -7618,7 +7627,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -7704,7 +7713,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -7790,7 +7799,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -7876,7 +7885,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -7962,7 +7971,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -8098,10 +8107,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -8146,13 +8155,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AE1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AF1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8179,7 +8188,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8189,11 +8198,20 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -8322,12 +8340,21 @@
         <v>72</v>
       </c>
       <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -8457,11 +8484,20 @@
       </c>
       <c r="AR3" t="s">
         <v>72</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -8590,12 +8626,21 @@
         <v>70</v>
       </c>
       <c r="AR4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -8725,11 +8770,20 @@
       </c>
       <c r="AR5" t="s">
         <v>70</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -8858,12 +8912,21 @@
         <v>73</v>
       </c>
       <c r="AR6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -8993,11 +9056,20 @@
       </c>
       <c r="AR7" t="s">
         <v>71</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -9126,12 +9198,21 @@
         <v>72</v>
       </c>
       <c r="AR8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -9260,12 +9341,21 @@
         <v>73</v>
       </c>
       <c r="AR9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -9395,11 +9485,20 @@
       </c>
       <c r="AR10" t="s">
         <v>73</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -9529,11 +9628,20 @@
       </c>
       <c r="AR11" t="s">
         <v>73</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -9663,11 +9771,20 @@
       </c>
       <c r="AR12" t="s">
         <v>72</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -9797,11 +9914,20 @@
       </c>
       <c r="AR13" t="s">
         <v>72</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -9930,12 +10056,21 @@
         <v>70</v>
       </c>
       <c r="AR14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -10064,12 +10199,21 @@
         <v>72</v>
       </c>
       <c r="AR15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -10199,11 +10343,20 @@
       </c>
       <c r="AR16" t="s">
         <v>72</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -10333,11 +10486,20 @@
       </c>
       <c r="AR17" t="s">
         <v>73</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -10467,11 +10629,20 @@
       </c>
       <c r="AR18" t="s">
         <v>73</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -10600,12 +10771,21 @@
         <v>70</v>
       </c>
       <c r="AR19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -10734,12 +10914,21 @@
         <v>73</v>
       </c>
       <c r="AR20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -10868,6 +11057,15 @@
         <v>73</v>
       </c>
       <c r="AR21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10923,10 +11121,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10962,10 +11160,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AB1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AC1" t="s">
         <v>114</v>
@@ -10995,12 +11193,18 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -11111,12 +11315,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -11227,12 +11437,18 @@
         <v>70</v>
       </c>
       <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -11343,12 +11559,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -11460,11 +11682,17 @@
       </c>
       <c r="AL5" t="s">
         <v>70</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -11576,11 +11804,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -11692,11 +11926,17 @@
       </c>
       <c r="AL7" t="s">
         <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -11807,12 +12047,18 @@
         <v>70</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -11923,12 +12169,18 @@
         <v>70</v>
       </c>
       <c r="AL9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -12040,11 +12292,17 @@
       </c>
       <c r="AL10" t="s">
         <v>73</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -12155,12 +12413,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -12271,12 +12535,18 @@
         <v>70</v>
       </c>
       <c r="AL12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -12387,12 +12657,18 @@
         <v>70</v>
       </c>
       <c r="AL13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -12504,11 +12780,17 @@
       </c>
       <c r="AL14" t="s">
         <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -12619,12 +12901,18 @@
         <v>70</v>
       </c>
       <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -12735,12 +13023,18 @@
         <v>70</v>
       </c>
       <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -12851,12 +13145,18 @@
         <v>70</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -12967,12 +13267,18 @@
         <v>70</v>
       </c>
       <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -13083,12 +13389,18 @@
         <v>70</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -13200,11 +13512,17 @@
       </c>
       <c r="AL20" t="s">
         <v>72</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -13315,6 +13633,12 @@
         <v>70</v>
       </c>
       <c r="AL21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13376,7 +13700,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -13443,11 +13767,17 @@
       </c>
       <c r="AL1" t="s">
         <v>51</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -13558,12 +13888,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -13675,11 +14011,17 @@
       </c>
       <c r="AL3" t="s">
         <v>71</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -13790,12 +14132,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -13907,11 +14255,17 @@
       </c>
       <c r="AL5" t="s">
         <v>71</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -14023,11 +14377,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -14138,12 +14498,18 @@
         <v>72</v>
       </c>
       <c r="AL7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -14254,12 +14620,18 @@
         <v>72</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -14371,11 +14743,17 @@
       </c>
       <c r="AL9" t="s">
         <v>71</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -14487,11 +14865,17 @@
       </c>
       <c r="AL10" t="s">
         <v>73</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -14602,12 +14986,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -14719,11 +15109,17 @@
       </c>
       <c r="AL12" t="s">
         <v>71</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -14835,11 +15231,17 @@
       </c>
       <c r="AL13" t="s">
         <v>73</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -14951,11 +15353,17 @@
       </c>
       <c r="AL14" t="s">
         <v>71</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -15067,11 +15475,17 @@
       </c>
       <c r="AL15" t="s">
         <v>72</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -15183,11 +15597,17 @@
       </c>
       <c r="AL16" t="s">
         <v>71</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -15298,12 +15718,18 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -15415,11 +15841,17 @@
       </c>
       <c r="AL18" t="s">
         <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -15530,6 +15962,12 @@
         <v>71</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15558,7 +15996,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -15570,7 +16008,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -15612,7 +16050,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -15645,7 +16083,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -15678,12 +16116,15 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -15815,12 +16256,15 @@
         <v>70</v>
       </c>
       <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -15952,12 +16396,15 @@
         <v>70</v>
       </c>
       <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -16089,12 +16536,15 @@
         <v>70</v>
       </c>
       <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -16226,12 +16676,15 @@
         <v>70</v>
       </c>
       <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -16364,11 +16817,14 @@
       </c>
       <c r="AS6" t="s">
         <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -16500,12 +16956,15 @@
         <v>70</v>
       </c>
       <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -16637,12 +17096,15 @@
         <v>70</v>
       </c>
       <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -16774,12 +17236,15 @@
         <v>73</v>
       </c>
       <c r="AS9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -16911,12 +17376,15 @@
         <v>72</v>
       </c>
       <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -17048,12 +17516,15 @@
         <v>70</v>
       </c>
       <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -17185,12 +17656,15 @@
         <v>73</v>
       </c>
       <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -17322,12 +17796,15 @@
         <v>70</v>
       </c>
       <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -17459,12 +17936,15 @@
         <v>72</v>
       </c>
       <c r="AS14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -17597,11 +18077,14 @@
       </c>
       <c r="AS15" t="s">
         <v>71</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -17734,11 +18217,14 @@
       </c>
       <c r="AS16" t="s">
         <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -17870,12 +18356,15 @@
         <v>72</v>
       </c>
       <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -18007,12 +18496,15 @@
         <v>73</v>
       </c>
       <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -18145,6 +18637,9 @@
       </c>
       <c r="AS19" t="s">
         <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -18220,7 +18715,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -18245,11 +18740,20 @@
       </c>
       <c r="AC1" t="s">
         <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18334,11 +18838,20 @@
       </c>
       <c r="AC2" t="s">
         <v>73</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -18422,12 +18935,21 @@
         <v>70</v>
       </c>
       <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -18511,12 +19033,21 @@
         <v>72</v>
       </c>
       <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -18600,12 +19131,21 @@
         <v>71</v>
       </c>
       <c r="AC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -18690,11 +19230,20 @@
       </c>
       <c r="AC6" t="s">
         <v>70</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -18778,12 +19327,21 @@
         <v>72</v>
       </c>
       <c r="AC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -18868,11 +19426,20 @@
       </c>
       <c r="AC8" t="s">
         <v>73</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -18956,12 +19523,21 @@
         <v>73</v>
       </c>
       <c r="AC9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -19046,11 +19622,20 @@
       </c>
       <c r="AC10" t="s">
         <v>72</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -19134,12 +19719,21 @@
         <v>71</v>
       </c>
       <c r="AC11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -19223,12 +19817,21 @@
         <v>73</v>
       </c>
       <c r="AC12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -19312,6 +19915,15 @@
         <v>73</v>
       </c>
       <c r="AC13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -19334,7 +19946,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -19346,7 +19958,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -19364,7 +19976,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -19379,7 +19991,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -19388,7 +20000,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -19399,7 +20011,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -19470,7 +20082,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -19541,7 +20153,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -19612,7 +20224,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -19683,7 +20295,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -19754,7 +20366,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -19825,7 +20437,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -19896,7 +20508,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -19967,7 +20579,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -20038,7 +20650,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -20141,7 +20753,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -20171,7 +20783,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -20179,7 +20791,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -20238,7 +20850,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -20297,7 +20909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -20356,7 +20968,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -20415,7 +21027,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -20474,7 +21086,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -20533,7 +21145,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -20592,7 +21204,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -20651,7 +21263,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -20710,7 +21322,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -20804,7 +21416,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -20840,24 +21452,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="V1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="W1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -20934,7 +21546,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -21011,7 +21623,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -21088,7 +21700,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -21165,7 +21777,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -21242,7 +21854,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -21319,7 +21931,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -21396,7 +22008,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -21473,7 +22085,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -21550,7 +22162,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -23922,7 +24534,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23964,10 +24576,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="T1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -24012,16 +24624,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AJ1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AK1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -24051,7 +24663,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -24063,12 +24675,15 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -24221,12 +24836,15 @@
         <v>70</v>
       </c>
       <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -24380,11 +24998,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -24537,12 +25158,15 @@
         <v>72</v>
       </c>
       <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -24695,12 +25319,15 @@
         <v>70</v>
       </c>
       <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -24853,12 +25480,15 @@
         <v>72</v>
       </c>
       <c r="AZ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -25011,12 +25641,15 @@
         <v>73</v>
       </c>
       <c r="AZ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -25169,12 +25802,15 @@
         <v>70</v>
       </c>
       <c r="AZ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -25328,11 +25964,14 @@
       </c>
       <c r="AZ9" t="s">
         <v>71</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -25485,12 +26124,15 @@
         <v>72</v>
       </c>
       <c r="AZ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -25643,12 +26285,15 @@
         <v>70</v>
       </c>
       <c r="AZ11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -25801,12 +26446,15 @@
         <v>70</v>
       </c>
       <c r="AZ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -25959,12 +26607,15 @@
         <v>73</v>
       </c>
       <c r="AZ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -26117,12 +26768,15 @@
         <v>70</v>
       </c>
       <c r="AZ14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -26276,11 +26930,14 @@
       </c>
       <c r="AZ15" t="s">
         <v>71</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -26434,11 +27091,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>70</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -26591,12 +27251,15 @@
         <v>73</v>
       </c>
       <c r="AZ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -26749,12 +27412,15 @@
         <v>73</v>
       </c>
       <c r="AZ18" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -26907,12 +27573,15 @@
         <v>70</v>
       </c>
       <c r="AZ19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -27065,12 +27734,15 @@
         <v>70</v>
       </c>
       <c r="AZ20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -27223,6 +27895,9 @@
         <v>70</v>
       </c>
       <c r="AZ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -27251,7 +27926,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -27275,19 +27950,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="O1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -27311,7 +27986,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -27335,19 +28010,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AH1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AI1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AJ1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AK1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -27359,13 +28034,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AP1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AQ1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -27377,7 +28052,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -27392,13 +28067,13 @@
         <v>114</v>
       </c>
       <c r="AZ1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BA1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BB1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -27410,19 +28085,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="BG1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BH1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BI1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="BJ1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -27434,7 +28109,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -27446,12 +28121,12 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -27663,7 +28338,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -27875,7 +28550,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -28087,7 +28762,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -28299,7 +28974,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -28511,7 +29186,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -28723,7 +29398,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -28935,7 +29610,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -29147,7 +29822,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -29359,7 +30034,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -29571,7 +30246,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -29783,7 +30458,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -29995,7 +30670,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -30207,7 +30882,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -30419,7 +31094,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -30631,7 +31306,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -30843,7 +31518,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -31055,7 +31730,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -31267,7 +31942,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -31479,7 +32154,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -31691,7 +32366,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -31903,7 +32578,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -32138,7 +32813,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -32180,7 +32855,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -32231,7 +32906,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -32261,7 +32936,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -32273,12 +32948,12 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -32430,7 +33105,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -32582,7 +33257,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -32734,7 +33409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -32886,7 +33561,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -33038,7 +33713,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -33190,7 +33865,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -33342,7 +34017,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -33494,7 +34169,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -33646,7 +34321,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -33798,7 +34473,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -33950,7 +34625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -34102,7 +34777,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -34254,7 +34929,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -34406,7 +35081,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -34558,7 +35233,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -34710,7 +35385,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -34862,7 +35537,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -35014,7 +35689,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -35166,7 +35841,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -38107,10 +38782,19 @@
       <c r="AJ1" t="s">
         <v>51</v>
       </c>
+      <c r="AK1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -38216,11 +38900,20 @@
       </c>
       <c r="AJ2" t="s">
         <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -38325,12 +39018,21 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -38436,11 +39138,20 @@
       </c>
       <c r="AJ4" t="s">
         <v>72</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -38545,12 +39256,21 @@
         <v>71</v>
       </c>
       <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -38655,12 +39375,21 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -38766,11 +39495,20 @@
       </c>
       <c r="AJ7" t="s">
         <v>71</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -38875,12 +39613,21 @@
         <v>73</v>
       </c>
       <c r="AJ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -38986,11 +39733,20 @@
       </c>
       <c r="AJ9" t="s">
         <v>73</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -39095,12 +39851,21 @@
         <v>71</v>
       </c>
       <c r="AJ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -39206,11 +39971,20 @@
       </c>
       <c r="AJ11" t="s">
         <v>72</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -39315,12 +40089,21 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -39426,11 +40209,20 @@
       </c>
       <c r="AJ13" t="s">
         <v>72</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -39536,11 +40328,20 @@
       </c>
       <c r="AJ14" t="s">
         <v>71</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -39645,12 +40446,21 @@
         <v>73</v>
       </c>
       <c r="AJ15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -39755,12 +40565,21 @@
         <v>71</v>
       </c>
       <c r="AJ16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -39865,12 +40684,21 @@
         <v>73</v>
       </c>
       <c r="AJ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -39976,11 +40804,20 @@
       </c>
       <c r="AJ18" t="s">
         <v>70</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -40086,11 +40923,20 @@
       </c>
       <c r="AJ19" t="s">
         <v>73</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -40196,11 +41042,20 @@
       </c>
       <c r="AJ20" t="s">
         <v>73</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -40305,6 +41160,15 @@
         <v>71</v>
       </c>
       <c r="AJ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -40336,10 +41200,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -40360,10 +41224,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -40375,10 +41239,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -40396,10 +41260,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AA1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -40414,10 +41278,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -40432,7 +41296,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AM1" t="s">
         <v>92</v>
@@ -40447,12 +41311,12 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -40583,7 +41447,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -40714,7 +41578,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -40845,7 +41709,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -40976,7 +41840,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -41107,7 +41971,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -41238,7 +42102,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -41369,7 +42233,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -41500,7 +42364,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -41631,7 +42495,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -41762,7 +42626,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -41893,7 +42757,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -42024,7 +42888,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -42155,7 +43019,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -42286,7 +43150,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -42417,7 +43281,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -42548,7 +43412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -42679,7 +43543,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -42810,7 +43674,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -42941,7 +43805,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -43072,7 +43936,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -43203,7 +44067,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -43334,7 +44198,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -43465,7 +44329,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -43616,7 +44480,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -43628,34 +44492,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -43664,31 +44528,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -43699,7 +44563,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -43791,7 +44655,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -43883,7 +44747,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -43975,7 +44839,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -44067,7 +44931,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -44159,7 +45023,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -44251,7 +45115,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -44343,7 +45207,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -44435,7 +45299,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -44527,7 +45391,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -44619,7 +45483,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -44711,7 +45575,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -44803,7 +45667,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -44895,7 +45759,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -44987,7 +45851,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -45079,7 +45943,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -45171,7 +46035,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -45263,7 +46127,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -45355,7 +46219,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -45447,7 +46311,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -45539,7 +46403,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -45631,7 +46495,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -45723,7 +46587,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -45815,7 +46679,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -45927,13 +46791,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -45942,7 +46806,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -45951,13 +46815,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -45969,37 +46833,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -46010,7 +46874,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -46102,7 +46966,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -46194,7 +47058,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -46286,7 +47150,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -46378,7 +47242,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -46470,7 +47334,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -46562,7 +47426,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -46654,7 +47518,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -46746,7 +47610,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -46838,7 +47702,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -46930,7 +47794,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -47022,7 +47886,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -47114,7 +47978,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -47206,7 +48070,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -47298,7 +48162,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -47390,7 +48254,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -47482,7 +48346,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -47574,7 +48438,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -47666,7 +48530,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -47758,7 +48622,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -47850,7 +48714,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -47942,7 +48806,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -48034,7 +48898,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -48126,7 +48990,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -48238,61 +49102,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="V1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -48301,15 +49165,18 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -48385,11 +49252,14 @@
       </c>
       <c r="Z2" t="s">
         <v>72</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -48465,11 +49335,14 @@
       </c>
       <c r="Z3" t="s">
         <v>73</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -48545,11 +49418,14 @@
       </c>
       <c r="Z4" t="s">
         <v>72</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -48624,12 +49500,15 @@
         <v>71</v>
       </c>
       <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -48705,11 +49584,14 @@
       </c>
       <c r="Z6" t="s">
         <v>73</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -48784,12 +49666,15 @@
         <v>71</v>
       </c>
       <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -48865,11 +49750,14 @@
       </c>
       <c r="Z8" t="s">
         <v>73</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -48945,11 +49833,14 @@
       </c>
       <c r="Z9" t="s">
         <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -49024,12 +49915,15 @@
         <v>72</v>
       </c>
       <c r="Z10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -49104,12 +49998,15 @@
         <v>73</v>
       </c>
       <c r="Z11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -49185,11 +50082,14 @@
       </c>
       <c r="Z12" t="s">
         <v>72</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -49265,11 +50165,14 @@
       </c>
       <c r="Z13" t="s">
         <v>73</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -49344,12 +50247,15 @@
         <v>70</v>
       </c>
       <c r="Z14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -49425,11 +50331,14 @@
       </c>
       <c r="Z15" t="s">
         <v>72</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -49504,12 +50413,15 @@
         <v>72</v>
       </c>
       <c r="Z16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -49585,11 +50497,14 @@
       </c>
       <c r="Z17" t="s">
         <v>72</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -49665,11 +50580,14 @@
       </c>
       <c r="Z18" t="s">
         <v>72</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -49745,11 +50663,14 @@
       </c>
       <c r="Z19" t="s">
         <v>73</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -49825,11 +50746,14 @@
       </c>
       <c r="Z20" t="s">
         <v>73</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -49904,12 +50828,15 @@
         <v>73</v>
       </c>
       <c r="Z21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -49985,11 +50912,14 @@
       </c>
       <c r="Z22" t="s">
         <v>73</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -50065,11 +50995,14 @@
       </c>
       <c r="Z23" t="s">
         <v>72</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -50145,6 +51078,9 @@
       </c>
       <c r="Z24" t="s">
         <v>71</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -50253,7 +51189,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -50290,11 +51226,14 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -50424,11 +51363,14 @@
       </c>
       <c r="AR2" t="s">
         <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -50557,12 +51499,15 @@
         <v>70</v>
       </c>
       <c r="AR3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -50691,12 +51636,15 @@
         <v>70</v>
       </c>
       <c r="AR4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -50826,11 +51774,14 @@
       </c>
       <c r="AR5" t="s">
         <v>73</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -50960,11 +51911,14 @@
       </c>
       <c r="AR6" t="s">
         <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -51094,11 +52048,14 @@
       </c>
       <c r="AR7" t="s">
         <v>70</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -51227,12 +52184,15 @@
         <v>70</v>
       </c>
       <c r="AR8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -51362,11 +52322,14 @@
       </c>
       <c r="AR9" t="s">
         <v>72</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -51495,12 +52458,15 @@
         <v>70</v>
       </c>
       <c r="AR10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -51630,11 +52596,14 @@
       </c>
       <c r="AR11" t="s">
         <v>70</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -51764,11 +52733,14 @@
       </c>
       <c r="AR12" t="s">
         <v>71</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -51898,11 +52870,14 @@
       </c>
       <c r="AR13" t="s">
         <v>73</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -52032,11 +53007,14 @@
       </c>
       <c r="AR14" t="s">
         <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -52166,11 +53144,14 @@
       </c>
       <c r="AR15" t="s">
         <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -52300,11 +53281,14 @@
       </c>
       <c r="AR16" t="s">
         <v>72</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -52433,12 +53417,15 @@
         <v>70</v>
       </c>
       <c r="AR17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -52568,11 +53555,14 @@
       </c>
       <c r="AR18" t="s">
         <v>72</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -52701,12 +53691,15 @@
         <v>70</v>
       </c>
       <c r="AR19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -52836,11 +53829,14 @@
       </c>
       <c r="AR20" t="s">
         <v>71</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -52970,6 +53966,9 @@
       </c>
       <c r="AR21" t="s">
         <v>73</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18155" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="521">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>X2021.11.13</t>
+  </si>
+  <si>
+    <t>X2021.12.07</t>
+  </si>
+  <si>
+    <t>X2021.12.08</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -4887,25 +4893,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
         <v>143</v>
@@ -4917,7 +4923,7 @@
         <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4959,7 +4965,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4974,7 +4980,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -4988,7 +4994,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -5202,7 +5208,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -5416,7 +5422,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -5523,7 +5529,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -5630,7 +5636,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -5737,7 +5743,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -5844,7 +5850,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -5951,7 +5957,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -6058,7 +6064,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -6165,7 +6171,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -6272,7 +6278,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -6379,7 +6385,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -6486,7 +6492,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -6593,7 +6599,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -6700,7 +6706,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -6807,7 +6813,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -6914,7 +6920,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -7021,7 +7027,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -7214,7 +7220,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7234,7 +7240,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -7329,7 +7335,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -7424,7 +7430,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -7519,7 +7525,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -7614,7 +7620,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -7709,7 +7715,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -7804,7 +7810,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -7899,7 +7905,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -7994,7 +8000,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -8089,7 +8095,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -8184,7 +8190,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -8279,7 +8285,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -8374,7 +8380,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -8469,7 +8475,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -8614,7 +8620,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O1" t="s">
         <v>180</v>
@@ -8665,10 +8671,10 @@
         <v>182</v>
       </c>
       <c r="AE1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8695,7 +8701,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8727,7 +8733,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -8879,7 +8885,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -9031,7 +9037,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -9183,7 +9189,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -9335,7 +9341,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -9487,7 +9493,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -9639,7 +9645,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -9791,7 +9797,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -9943,7 +9949,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -10095,7 +10101,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -10247,7 +10253,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -10399,7 +10405,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -10551,7 +10557,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -10703,7 +10709,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -10855,7 +10861,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -11007,7 +11013,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -11159,7 +11165,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -11311,7 +11317,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -11463,7 +11469,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -11615,7 +11621,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -11817,7 +11823,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O1" t="s">
         <v>180</v>
@@ -11856,10 +11862,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AC1" t="s">
         <v>117</v>
@@ -11909,7 +11915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -12040,7 +12046,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -12171,7 +12177,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -12302,7 +12308,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -12433,7 +12439,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -12564,7 +12570,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -12695,7 +12701,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -12826,7 +12832,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -12957,7 +12963,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -13088,7 +13094,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -13219,7 +13225,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -13350,7 +13356,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -13481,7 +13487,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -13612,7 +13618,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -13743,7 +13749,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -13874,7 +13880,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -14005,7 +14011,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -14136,7 +14142,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -14267,7 +14273,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -14398,7 +14404,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -14671,7 +14677,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -14802,7 +14808,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -14933,7 +14939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -15064,7 +15070,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -15195,7 +15201,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -15326,7 +15332,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -15457,7 +15463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -15588,7 +15594,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -15719,7 +15725,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -15850,7 +15856,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -15981,7 +15987,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -16112,7 +16118,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -16243,7 +16249,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -16374,7 +16380,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -16505,7 +16511,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -16636,7 +16642,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -16767,7 +16773,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -16898,7 +16904,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -17052,7 +17058,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -17064,7 +17070,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -17106,7 +17112,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -17139,7 +17145,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -17189,7 +17195,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -17338,7 +17344,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -17487,7 +17493,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -17636,7 +17642,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -17785,7 +17791,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -17934,7 +17940,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -18083,7 +18089,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -18232,7 +18238,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -18381,7 +18387,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -18530,7 +18536,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -18679,7 +18685,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -18828,7 +18834,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -18977,7 +18983,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -19126,7 +19132,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -19275,7 +19281,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -19424,7 +19430,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -19573,7 +19579,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -19722,7 +19728,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -19942,7 +19948,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -19982,11 +19988,14 @@
       </c>
       <c r="AH1" t="s">
         <v>54</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -20085,12 +20094,15 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -20190,11 +20202,14 @@
       </c>
       <c r="AH3" t="s">
         <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -20293,12 +20308,15 @@
         <v>76</v>
       </c>
       <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -20398,11 +20416,14 @@
       </c>
       <c r="AH5" t="s">
         <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -20502,11 +20523,14 @@
       </c>
       <c r="AH6" t="s">
         <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20606,11 +20630,14 @@
       </c>
       <c r="AH7" t="s">
         <v>73</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -20710,11 +20737,14 @@
       </c>
       <c r="AH8" t="s">
         <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -20813,12 +20843,15 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -20917,12 +20950,15 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -21021,12 +21057,15 @@
         <v>73</v>
       </c>
       <c r="AH11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -21125,12 +21164,15 @@
         <v>73</v>
       </c>
       <c r="AH12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -21229,6 +21271,9 @@
         <v>76</v>
       </c>
       <c r="AH13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21251,7 +21296,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -21263,7 +21308,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -21322,7 +21367,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -21399,7 +21444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -21476,7 +21521,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -21553,7 +21598,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -21630,7 +21675,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -21707,7 +21752,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21784,7 +21829,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -21861,7 +21906,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -21938,7 +21983,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -22015,7 +22060,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22162,10 +22207,13 @@
       <c r="T1" t="s">
         <v>53</v>
       </c>
+      <c r="U1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -22223,11 +22271,14 @@
       </c>
       <c r="T2" t="s">
         <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -22285,11 +22336,14 @@
       </c>
       <c r="T3" t="s">
         <v>74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -22347,11 +22401,14 @@
       </c>
       <c r="T4" t="s">
         <v>74</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -22409,11 +22466,14 @@
       </c>
       <c r="T5" t="s">
         <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -22471,11 +22531,14 @@
       </c>
       <c r="T6" t="s">
         <v>76</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -22533,11 +22596,14 @@
       </c>
       <c r="T7" t="s">
         <v>74</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -22595,11 +22661,14 @@
       </c>
       <c r="T8" t="s">
         <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -22657,11 +22726,14 @@
       </c>
       <c r="T9" t="s">
         <v>73</v>
+      </c>
+      <c r="U9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -22719,11 +22791,14 @@
       </c>
       <c r="T10" t="s">
         <v>74</v>
+      </c>
+      <c r="U10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22781,6 +22856,9 @@
       </c>
       <c r="T11" t="s">
         <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -22820,7 +22898,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -22856,7 +22934,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
         <v>183</v>
@@ -22879,7 +22957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22962,7 +23040,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -23045,7 +23123,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -23128,7 +23206,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -23211,7 +23289,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -23294,7 +23372,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -23377,7 +23455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -23460,7 +23538,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -23543,7 +23621,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -23626,7 +23704,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -26175,7 +26253,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -26217,7 +26295,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="T1" t="s">
         <v>180</v>
@@ -26265,16 +26343,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ1" t="s">
         <v>182</v>
       </c>
       <c r="AK1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -26304,7 +26382,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -26336,7 +26414,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -26509,7 +26587,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -26682,7 +26760,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -26855,7 +26933,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -27028,7 +27106,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -27201,7 +27279,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -27374,7 +27452,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -27547,7 +27625,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -27720,7 +27798,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -27893,7 +27971,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -28066,7 +28144,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -28239,7 +28317,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -28412,7 +28490,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -28585,7 +28663,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -28758,7 +28836,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -28931,7 +29009,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -29104,7 +29182,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -29277,7 +29355,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -29450,7 +29528,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -29623,7 +29701,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -29819,7 +29897,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29843,16 +29921,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O1" t="s">
         <v>178</v>
       </c>
       <c r="P1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q1" t="s">
         <v>179</v>
@@ -29879,7 +29957,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -29903,19 +29981,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AH1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI1" t="s">
         <v>181</v>
       </c>
       <c r="AJ1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AK1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -29933,7 +30011,7 @@
         <v>149</v>
       </c>
       <c r="AQ1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -29945,7 +30023,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -29966,7 +30044,7 @@
         <v>151</v>
       </c>
       <c r="BB1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -29978,7 +30056,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="BG1" t="s">
         <v>183</v>
@@ -29987,10 +30065,10 @@
         <v>184</v>
       </c>
       <c r="BI1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="BJ1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -30002,7 +30080,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -30031,7 +30109,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -30255,7 +30333,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -30479,7 +30557,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -30703,7 +30781,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -30927,7 +31005,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -31151,7 +31229,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -31375,7 +31453,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -31599,7 +31677,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -31823,7 +31901,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -32047,7 +32125,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -32271,7 +32349,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -32495,7 +32573,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -32719,7 +32797,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -32943,7 +33021,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -33167,7 +33245,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -33391,7 +33469,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -33615,7 +33693,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -33839,7 +33917,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -34063,7 +34141,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -34287,7 +34365,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -34511,7 +34589,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -34735,7 +34813,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -34982,7 +35060,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35075,7 +35153,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -35105,7 +35183,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -35134,7 +35212,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -35298,7 +35376,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -35462,7 +35540,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -35626,7 +35704,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -35790,7 +35868,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -35954,7 +36032,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -36118,7 +36196,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -36282,7 +36360,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -36446,7 +36524,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -36610,7 +36688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -36774,7 +36852,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -36938,7 +37016,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -37102,7 +37180,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -37266,7 +37344,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -37430,7 +37508,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -37594,7 +37672,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -37758,7 +37836,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -37922,7 +38000,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -38086,7 +38164,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -38250,7 +38328,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -47569,10 +47647,16 @@
       <c r="AE1" t="s">
         <v>53</v>
       </c>
+      <c r="AF1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -47663,11 +47747,17 @@
       </c>
       <c r="AE2" t="s">
         <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -47757,12 +47847,18 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -47852,12 +47948,18 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -47947,12 +48049,18 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -48042,12 +48150,18 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -48137,12 +48251,18 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -48232,12 +48352,18 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -48327,12 +48453,18 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -48422,12 +48554,18 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -48518,11 +48656,17 @@
       </c>
       <c r="AE11" t="s">
         <v>76</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -48612,12 +48756,18 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -48707,12 +48857,18 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -48802,12 +48958,18 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -48898,11 +49060,17 @@
       </c>
       <c r="AE15" t="s">
         <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -48992,12 +49160,18 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -49088,11 +49262,17 @@
       </c>
       <c r="AE17" t="s">
         <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -49183,11 +49363,17 @@
       </c>
       <c r="AE18" t="s">
         <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -49277,12 +49463,18 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -49372,12 +49564,18 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -49467,12 +49665,18 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -49563,11 +49767,17 @@
       </c>
       <c r="AE22" t="s">
         <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -49658,11 +49868,17 @@
       </c>
       <c r="AE23" t="s">
         <v>74</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -49753,11 +49969,17 @@
       </c>
       <c r="AE24" t="s">
         <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
@@ -49847,6 +50069,12 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -49878,7 +50106,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -49914,7 +50142,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S1" t="s">
         <v>181</v>
@@ -49951,11 +50179,17 @@
       </c>
       <c r="AD1" t="s">
         <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -50043,11 +50277,17 @@
       </c>
       <c r="AD2" t="s">
         <v>76</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -50134,12 +50374,18 @@
         <v>73</v>
       </c>
       <c r="AD3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -50227,11 +50473,17 @@
       </c>
       <c r="AD4" t="s">
         <v>76</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -50319,11 +50571,17 @@
       </c>
       <c r="AD5" t="s">
         <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -50411,11 +50669,17 @@
       </c>
       <c r="AD6" t="s">
         <v>73</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -50503,11 +50767,17 @@
       </c>
       <c r="AD7" t="s">
         <v>76</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -50595,11 +50865,17 @@
       </c>
       <c r="AD8" t="s">
         <v>74</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -50687,11 +50963,17 @@
       </c>
       <c r="AD9" t="s">
         <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -50779,11 +51061,17 @@
       </c>
       <c r="AD10" t="s">
         <v>74</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -50871,11 +51159,17 @@
       </c>
       <c r="AD11" t="s">
         <v>76</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -50963,11 +51257,17 @@
       </c>
       <c r="AD12" t="s">
         <v>76</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -51055,11 +51355,17 @@
       </c>
       <c r="AD13" t="s">
         <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -51146,12 +51452,18 @@
         <v>74</v>
       </c>
       <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -51239,11 +51551,17 @@
       </c>
       <c r="AD15" t="s">
         <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -51331,11 +51649,17 @@
       </c>
       <c r="AD16" t="s">
         <v>76</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -51423,11 +51747,17 @@
       </c>
       <c r="AD17" t="s">
         <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -51515,11 +51845,17 @@
       </c>
       <c r="AD18" t="s">
         <v>74</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -51607,11 +51943,17 @@
       </c>
       <c r="AD19" t="s">
         <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -51699,11 +52041,17 @@
       </c>
       <c r="AD20" t="s">
         <v>74</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -51790,12 +52138,18 @@
         <v>73</v>
       </c>
       <c r="AD21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -51883,11 +52237,17 @@
       </c>
       <c r="AD22" t="s">
         <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -51975,11 +52335,17 @@
       </c>
       <c r="AD23" t="s">
         <v>74</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -52066,12 +52432,18 @@
         <v>73</v>
       </c>
       <c r="AD24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -52159,6 +52531,12 @@
       </c>
       <c r="AD25" t="s">
         <v>76</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -52183,10 +52561,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
         <v>178</v>
@@ -52213,13 +52591,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O1" t="s">
         <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -52234,7 +52612,7 @@
         <v>150</v>
       </c>
       <c r="U1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
         <v>184</v>
@@ -52256,11 +52634,14 @@
       </c>
       <c r="AB1" t="s">
         <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -52342,11 +52723,14 @@
       </c>
       <c r="AB2" t="s">
         <v>74</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -52428,11 +52812,14 @@
       </c>
       <c r="AB3" t="s">
         <v>74</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -52514,11 +52901,14 @@
       </c>
       <c r="AB4" t="s">
         <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -52599,12 +52989,15 @@
         <v>73</v>
       </c>
       <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -52686,11 +53079,14 @@
       </c>
       <c r="AB6" t="s">
         <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -52771,12 +53167,15 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -52858,11 +53257,14 @@
       </c>
       <c r="AB8" t="s">
         <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -52944,11 +53346,14 @@
       </c>
       <c r="AB9" t="s">
         <v>76</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -53029,12 +53434,15 @@
         <v>73</v>
       </c>
       <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -53116,11 +53524,14 @@
       </c>
       <c r="AB11" t="s">
         <v>76</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -53201,12 +53612,15 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -53287,12 +53701,15 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -53374,11 +53791,14 @@
       </c>
       <c r="AB14" t="s">
         <v>76</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -53459,12 +53879,15 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -53546,11 +53969,14 @@
       </c>
       <c r="AB16" t="s">
         <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -53632,11 +54058,14 @@
       </c>
       <c r="AB17" t="s">
         <v>73</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -53717,12 +54146,15 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -53804,11 +54236,14 @@
       </c>
       <c r="AB19" t="s">
         <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -53890,11 +54325,14 @@
       </c>
       <c r="AB20" t="s">
         <v>76</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -53976,11 +54414,14 @@
       </c>
       <c r="AB21" t="s">
         <v>76</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -54062,11 +54503,14 @@
       </c>
       <c r="AB22" t="s">
         <v>76</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -54148,11 +54592,14 @@
       </c>
       <c r="AB23" t="s">
         <v>75</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -54233,6 +54680,9 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -54342,7 +54792,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -54392,7 +54842,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -54535,7 +54985,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -54678,7 +55128,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -54821,7 +55271,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -54964,7 +55414,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -55107,7 +55557,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -55250,7 +55700,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -55393,7 +55843,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -55536,7 +55986,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -55679,7 +56129,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -55822,7 +56272,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -55965,7 +56415,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -56108,7 +56558,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -56251,7 +56701,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -56394,7 +56844,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -56537,7 +56987,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -56680,7 +57130,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -56823,7 +57273,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -56966,7 +57416,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -57109,7 +57559,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19255" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19381" uniqueCount="525">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -923,6 +923,9 @@
     <t>X2021.11.22</t>
   </si>
   <si>
+    <t>X2021.12.13</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -5174,10 +5177,13 @@
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
+      <c r="AK1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -5283,11 +5289,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -5393,11 +5402,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>78</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -5503,11 +5515,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>78</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -5613,11 +5628,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>77</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -5723,11 +5741,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>78</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5833,11 +5854,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>77</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -5943,11 +5967,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>79</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -6053,11 +6080,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>79</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -6163,11 +6193,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>79</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -6273,11 +6306,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>79</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -6383,11 +6419,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>79</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -6493,11 +6532,14 @@
       </c>
       <c r="AJ13" t="s">
         <v>78</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -6603,11 +6645,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>77</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -6713,11 +6758,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>78</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -6823,11 +6871,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>79</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -6933,11 +6984,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>78</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -7043,11 +7097,14 @@
       </c>
       <c r="AJ18" t="s">
         <v>76</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -7153,11 +7210,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>77</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -7263,11 +7323,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7373,6 +7436,9 @@
       </c>
       <c r="AJ21" t="s">
         <v>79</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7489,7 +7555,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -7590,7 +7656,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -7691,7 +7757,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -7792,7 +7858,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -7893,7 +7959,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -7994,7 +8060,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -8095,7 +8161,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -8196,7 +8262,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -8297,7 +8363,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -8398,7 +8464,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -8499,7 +8565,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -8600,7 +8666,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -8701,7 +8767,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -8802,7 +8868,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -8953,7 +9019,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" t="s">
         <v>183</v>
@@ -9007,7 +9073,7 @@
         <v>268</v>
       </c>
       <c r="AF1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9071,11 +9137,14 @@
       </c>
       <c r="BA1" t="s">
         <v>57</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -9232,11 +9301,14 @@
       </c>
       <c r="BA2" t="s">
         <v>78</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -9393,11 +9465,14 @@
       </c>
       <c r="BA3" t="s">
         <v>79</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -9554,11 +9629,14 @@
       </c>
       <c r="BA4" t="s">
         <v>79</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -9715,11 +9793,14 @@
       </c>
       <c r="BA5" t="s">
         <v>78</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -9875,12 +9956,15 @@
         <v>78</v>
       </c>
       <c r="BA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -10036,12 +10120,15 @@
         <v>76</v>
       </c>
       <c r="BA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -10198,11 +10285,14 @@
       </c>
       <c r="BA8" t="s">
         <v>78</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -10358,12 +10448,15 @@
         <v>77</v>
       </c>
       <c r="BA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -10520,11 +10613,14 @@
       </c>
       <c r="BA10" t="s">
         <v>79</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -10680,12 +10776,15 @@
         <v>77</v>
       </c>
       <c r="BA11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10842,11 +10941,14 @@
       </c>
       <c r="BA12" t="s">
         <v>79</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -11003,11 +11105,14 @@
       </c>
       <c r="BA13" t="s">
         <v>76</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -11163,12 +11268,15 @@
         <v>79</v>
       </c>
       <c r="BA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -11324,12 +11432,15 @@
         <v>76</v>
       </c>
       <c r="BA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -11486,11 +11597,14 @@
       </c>
       <c r="BA16" t="s">
         <v>78</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -11647,11 +11761,14 @@
       </c>
       <c r="BA17" t="s">
         <v>76</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -11808,11 +11925,14 @@
       </c>
       <c r="BA18" t="s">
         <v>78</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11968,12 +12088,15 @@
         <v>77</v>
       </c>
       <c r="BA19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -12129,12 +12252,15 @@
         <v>77</v>
       </c>
       <c r="BA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -12291,6 +12417,9 @@
       </c>
       <c r="BA21" t="s">
         <v>79</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12345,7 +12474,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" t="s">
         <v>183</v>
@@ -12387,7 +12516,7 @@
         <v>268</v>
       </c>
       <c r="AB1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC1" t="s">
         <v>120</v>
@@ -12446,7 +12575,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -12586,7 +12715,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -12726,7 +12855,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -12866,7 +12995,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -13006,7 +13135,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -13146,7 +13275,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -13286,7 +13415,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -13426,7 +13555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -13566,7 +13695,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -13706,7 +13835,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -13846,7 +13975,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -13986,7 +14115,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -14126,7 +14255,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -14266,7 +14395,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -14406,7 +14535,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -14546,7 +14675,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -14686,7 +14815,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -14826,7 +14955,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -14966,7 +15095,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -15106,7 +15235,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -15397,7 +15526,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -15537,7 +15666,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -15677,7 +15806,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -15817,7 +15946,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -15957,7 +16086,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -16097,7 +16226,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -16237,7 +16366,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -16377,7 +16506,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -16517,7 +16646,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -16657,7 +16786,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -16797,7 +16926,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -16937,7 +17066,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -17077,7 +17206,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -17217,7 +17346,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -17357,7 +17486,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -17497,7 +17626,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -17637,7 +17766,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -17777,7 +17906,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -17940,7 +18069,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -17994,7 +18123,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -18082,11 +18211,14 @@
       </c>
       <c r="AZ1" t="s">
         <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -18240,11 +18372,14 @@
       </c>
       <c r="AZ2" t="s">
         <v>76</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -18398,11 +18533,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>79</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -18556,11 +18694,14 @@
       </c>
       <c r="AZ4" t="s">
         <v>78</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -18713,12 +18854,15 @@
         <v>79</v>
       </c>
       <c r="AZ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -18872,11 +19016,14 @@
       </c>
       <c r="AZ6" t="s">
         <v>78</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -19030,11 +19177,14 @@
       </c>
       <c r="AZ7" t="s">
         <v>79</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -19187,12 +19337,15 @@
         <v>76</v>
       </c>
       <c r="AZ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -19345,12 +19498,15 @@
         <v>78</v>
       </c>
       <c r="AZ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -19503,12 +19659,15 @@
         <v>78</v>
       </c>
       <c r="AZ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -19662,11 +19821,14 @@
       </c>
       <c r="AZ11" t="s">
         <v>79</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -19819,12 +19981,15 @@
         <v>76</v>
       </c>
       <c r="AZ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -19978,11 +20143,14 @@
       </c>
       <c r="AZ13" t="s">
         <v>78</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -20136,11 +20304,14 @@
       </c>
       <c r="AZ14" t="s">
         <v>78</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -20293,12 +20464,15 @@
         <v>79</v>
       </c>
       <c r="AZ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -20452,11 +20626,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>79</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -20609,12 +20786,15 @@
         <v>78</v>
       </c>
       <c r="AZ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -20767,12 +20947,15 @@
         <v>79</v>
       </c>
       <c r="AZ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -20926,6 +21109,9 @@
       </c>
       <c r="AZ19" t="s">
         <v>76</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -21054,7 +21240,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -21167,7 +21353,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -21280,7 +21466,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -21393,7 +21579,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -21506,7 +21692,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -21619,7 +21805,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -21732,7 +21918,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -21845,7 +22031,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -21958,7 +22144,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -22071,7 +22257,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -22184,7 +22370,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -22297,7 +22483,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -22439,7 +22625,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -22504,7 +22690,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -22587,7 +22773,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -22670,7 +22856,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -22753,7 +22939,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -22836,7 +23022,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -22919,7 +23105,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -23002,7 +23188,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -23085,7 +23271,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -23168,7 +23354,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -23251,7 +23437,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -23413,7 +23599,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -23481,7 +23667,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -23549,7 +23735,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -23617,7 +23803,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -23685,7 +23871,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -23753,7 +23939,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -23821,7 +24007,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -23889,7 +24075,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -23957,7 +24143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -24025,7 +24211,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -24190,7 +24376,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -24276,7 +24462,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -24362,7 +24548,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -24448,7 +24634,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -24534,7 +24720,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -24620,7 +24806,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -24706,7 +24892,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -24792,7 +24978,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -24878,7 +25064,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -24964,7 +25150,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -27729,7 +27915,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T1" t="s">
         <v>183</v>
@@ -27786,7 +27972,7 @@
         <v>268</v>
       </c>
       <c r="AL1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -27853,11 +28039,14 @@
       </c>
       <c r="BH1" t="s">
         <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -28034,12 +28223,15 @@
         <v>77</v>
       </c>
       <c r="BH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -28216,12 +28408,15 @@
         <v>79</v>
       </c>
       <c r="BH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -28399,11 +28594,14 @@
       </c>
       <c r="BH4" t="s">
         <v>79</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -28581,11 +28779,14 @@
       </c>
       <c r="BH5" t="s">
         <v>77</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -28763,11 +28964,14 @@
       </c>
       <c r="BH6" t="s">
         <v>78</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -28945,11 +29149,14 @@
       </c>
       <c r="BH7" t="s">
         <v>76</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -29126,12 +29333,15 @@
         <v>76</v>
       </c>
       <c r="BH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -29308,12 +29518,15 @@
         <v>79</v>
       </c>
       <c r="BH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -29490,12 +29703,15 @@
         <v>78</v>
       </c>
       <c r="BH10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -29672,12 +29888,15 @@
         <v>77</v>
       </c>
       <c r="BH11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -29855,11 +30074,14 @@
       </c>
       <c r="BH12" t="s">
         <v>76</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -30036,12 +30258,15 @@
         <v>79</v>
       </c>
       <c r="BH13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -30218,12 +30443,15 @@
         <v>76</v>
       </c>
       <c r="BH14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -30401,11 +30629,14 @@
       </c>
       <c r="BH15" t="s">
         <v>77</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -30583,11 +30814,14 @@
       </c>
       <c r="BH16" t="s">
         <v>78</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -30764,12 +30998,15 @@
         <v>78</v>
       </c>
       <c r="BH17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -30947,11 +31184,14 @@
       </c>
       <c r="BH18" t="s">
         <v>79</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -31128,12 +31368,15 @@
         <v>78</v>
       </c>
       <c r="BH19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -31311,11 +31554,14 @@
       </c>
       <c r="BH20" t="s">
         <v>79</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -31493,6 +31739,9 @@
       </c>
       <c r="BH21" t="s">
         <v>78</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -31547,13 +31796,13 @@
         <v>240</v>
       </c>
       <c r="N1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O1" t="s">
         <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q1" t="s">
         <v>182</v>
@@ -31580,7 +31829,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -31604,7 +31853,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AH1" t="s">
         <v>215</v>
@@ -31613,10 +31862,10 @@
         <v>184</v>
       </c>
       <c r="AJ1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -31634,7 +31883,7 @@
         <v>152</v>
       </c>
       <c r="AQ1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -31667,7 +31916,7 @@
         <v>154</v>
       </c>
       <c r="BB1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -31679,7 +31928,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BG1" t="s">
         <v>186</v>
@@ -31688,10 +31937,10 @@
         <v>187</v>
       </c>
       <c r="BI1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BJ1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -31737,11 +31986,14 @@
       </c>
       <c r="BY1" t="s">
         <v>57</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -31970,11 +32222,14 @@
       </c>
       <c r="BY2" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -32202,12 +32457,15 @@
         <v>78</v>
       </c>
       <c r="BY3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -32436,11 +32694,14 @@
       </c>
       <c r="BY4" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -32668,12 +32929,15 @@
         <v>78</v>
       </c>
       <c r="BY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -32902,11 +33166,14 @@
       </c>
       <c r="BY6" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -33134,12 +33401,15 @@
         <v>77</v>
       </c>
       <c r="BY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -33367,12 +33637,15 @@
         <v>79</v>
       </c>
       <c r="BY8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -33600,12 +33873,15 @@
         <v>77</v>
       </c>
       <c r="BY9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -33833,12 +34109,15 @@
         <v>76</v>
       </c>
       <c r="BY10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -34066,12 +34345,15 @@
         <v>77</v>
       </c>
       <c r="BY11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -34300,11 +34582,14 @@
       </c>
       <c r="BY12" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -34533,11 +34818,14 @@
       </c>
       <c r="BY13" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -34765,12 +35053,15 @@
         <v>77</v>
       </c>
       <c r="BY14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -34998,12 +35289,15 @@
         <v>77</v>
       </c>
       <c r="BY15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -35232,11 +35526,14 @@
       </c>
       <c r="BY16" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -35465,11 +35762,14 @@
       </c>
       <c r="BY17" t="s">
         <v>79</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -35698,11 +35998,14 @@
       </c>
       <c r="BY18" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -35931,11 +36234,14 @@
       </c>
       <c r="BY19" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -36163,12 +36469,15 @@
         <v>76</v>
       </c>
       <c r="BY20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -36396,12 +36705,15 @@
         <v>77</v>
       </c>
       <c r="BY21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -36630,11 +36942,14 @@
       </c>
       <c r="BY22" t="s">
         <v>78</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -36862,6 +37177,9 @@
         <v>79</v>
       </c>
       <c r="BY23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -37048,10 +37366,13 @@
       <c r="BE1" t="s">
         <v>57</v>
       </c>
+      <c r="BF1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -37220,11 +37541,14 @@
       </c>
       <c r="BE2" t="s">
         <v>78</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -37393,11 +37717,14 @@
       </c>
       <c r="BE3" t="s">
         <v>78</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -37565,12 +37892,15 @@
         <v>76</v>
       </c>
       <c r="BE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -37738,12 +38068,15 @@
         <v>78</v>
       </c>
       <c r="BE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -37912,11 +38245,14 @@
       </c>
       <c r="BE6" t="s">
         <v>78</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -38084,12 +38420,15 @@
         <v>78</v>
       </c>
       <c r="BE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -38258,11 +38597,14 @@
       </c>
       <c r="BE8" t="s">
         <v>76</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -38431,11 +38773,14 @@
       </c>
       <c r="BE9" t="s">
         <v>76</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -38604,11 +38949,14 @@
       </c>
       <c r="BE10" t="s">
         <v>76</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -38777,11 +39125,14 @@
       </c>
       <c r="BE11" t="s">
         <v>79</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -38949,12 +39300,15 @@
         <v>79</v>
       </c>
       <c r="BE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -39122,12 +39476,15 @@
         <v>76</v>
       </c>
       <c r="BE13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -39295,12 +39652,15 @@
         <v>79</v>
       </c>
       <c r="BE14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -39468,12 +39828,15 @@
         <v>79</v>
       </c>
       <c r="BE15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -39642,11 +40005,14 @@
       </c>
       <c r="BE16" t="s">
         <v>79</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -39814,12 +40180,15 @@
         <v>78</v>
       </c>
       <c r="BE17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -39987,12 +40356,15 @@
         <v>78</v>
       </c>
       <c r="BE18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -40161,11 +40533,14 @@
       </c>
       <c r="BE19" t="s">
         <v>76</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -40333,12 +40708,15 @@
         <v>79</v>
       </c>
       <c r="BE20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -40507,6 +40885,9 @@
       </c>
       <c r="BE21" t="s">
         <v>79</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20429" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20490" uniqueCount="532">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>X2021.11.29</t>
+  </si>
+  <si>
+    <t>X2021.12.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -5436,25 +5439,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J1" t="s">
         <v>152</v>
@@ -5466,7 +5469,7 @@
         <v>123</v>
       </c>
       <c r="M1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5484,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5508,7 +5511,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5523,7 +5526,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5538,12 +5541,12 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -5656,7 +5659,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -5769,7 +5772,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -5882,7 +5885,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -5995,7 +5998,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -6108,7 +6111,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -6221,7 +6224,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -6334,7 +6337,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6447,7 +6450,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -6560,7 +6563,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -6673,7 +6676,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -6786,7 +6789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -6899,7 +6902,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -7012,7 +7015,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -7125,7 +7128,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -7238,7 +7241,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -7351,7 +7354,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7464,7 +7467,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -7577,7 +7580,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -7889,7 +7892,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7926,11 +7929,14 @@
       </c>
       <c r="AL1" t="s">
         <v>63</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -8042,11 +8048,14 @@
       </c>
       <c r="AL2" t="s">
         <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -8157,12 +8166,15 @@
         <v>82</v>
       </c>
       <c r="AL3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -8274,11 +8286,14 @@
       </c>
       <c r="AL4" t="s">
         <v>82</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -8390,11 +8405,14 @@
       </c>
       <c r="AL5" t="s">
         <v>85</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -8505,12 +8523,15 @@
         <v>85</v>
       </c>
       <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -8622,11 +8643,14 @@
       </c>
       <c r="AL7" t="s">
         <v>85</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -8738,11 +8762,14 @@
       </c>
       <c r="AL8" t="s">
         <v>82</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -8854,11 +8881,14 @@
       </c>
       <c r="AL9" t="s">
         <v>85</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -8970,11 +9000,14 @@
       </c>
       <c r="AL10" t="s">
         <v>82</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -9086,11 +9119,14 @@
       </c>
       <c r="AL11" t="s">
         <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -9202,11 +9238,14 @@
       </c>
       <c r="AL12" t="s">
         <v>84</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -9317,12 +9356,15 @@
         <v>84</v>
       </c>
       <c r="AL13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -9434,11 +9476,14 @@
       </c>
       <c r="AL14" t="s">
         <v>84</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -9549,6 +9594,9 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9604,10 +9652,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9652,13 +9700,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9685,7 +9733,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9724,7 +9772,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9738,7 +9786,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -9911,7 +9959,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -10084,7 +10132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -10257,7 +10305,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10430,7 +10478,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -10603,7 +10651,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -10776,7 +10824,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -10949,7 +10997,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -11122,7 +11170,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -11295,7 +11343,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -11468,7 +11516,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -11641,7 +11689,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -11814,7 +11862,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -11987,7 +12035,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -12160,7 +12208,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -12333,7 +12381,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -12506,7 +12554,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -12679,7 +12727,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -12852,7 +12900,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -13025,7 +13073,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -13248,10 +13296,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13287,10 +13335,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC1" t="s">
         <v>126</v>
@@ -13355,7 +13403,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -13501,7 +13549,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -13647,7 +13695,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -13793,7 +13841,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -13939,7 +13987,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -14085,7 +14133,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -14231,7 +14279,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -14377,7 +14425,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -14523,7 +14571,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -14669,7 +14717,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -14815,7 +14863,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -14961,7 +15009,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -15107,7 +15155,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -15253,7 +15301,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -15399,7 +15447,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -15545,7 +15593,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -15691,7 +15739,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -15837,7 +15885,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -15983,7 +16031,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -16129,7 +16177,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -16331,7 +16379,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16432,7 +16480,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -16578,7 +16626,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -16724,7 +16772,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -16870,7 +16918,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -17016,7 +17064,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -17162,7 +17210,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -17308,7 +17356,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -17454,7 +17502,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -17600,7 +17648,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -17746,7 +17794,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -17892,7 +17940,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -18038,7 +18086,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -18184,7 +18232,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -18330,7 +18378,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -18476,7 +18524,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -18622,7 +18670,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -18768,7 +18816,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -18914,7 +18962,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -19083,7 +19131,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19095,7 +19143,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19137,7 +19185,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19170,7 +19218,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19227,7 +19275,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19241,7 +19289,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -19411,7 +19459,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -19581,7 +19629,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -19751,7 +19799,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -19921,7 +19969,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -20091,7 +20139,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -20261,7 +20309,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -20431,7 +20479,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -20601,7 +20649,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -20771,7 +20819,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -20941,7 +20989,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -21111,7 +21159,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -21281,7 +21329,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -21451,7 +21499,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -21621,7 +21669,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -21791,7 +21839,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -21961,7 +22009,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -22131,7 +22179,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -22372,7 +22420,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22414,7 +22462,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22434,7 +22482,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -22556,7 +22604,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -22678,7 +22726,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -22800,7 +22848,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -22922,7 +22970,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -23044,7 +23092,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -23166,7 +23214,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -23288,7 +23336,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -23410,7 +23458,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -23532,7 +23580,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -23654,7 +23702,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -23776,7 +23824,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -23915,7 +23963,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -23927,7 +23975,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -23960,7 +24008,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -23969,7 +24017,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -23995,7 +24043,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -24081,7 +24129,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -24167,7 +24215,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -24253,7 +24301,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -24339,7 +24387,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -24425,7 +24473,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -24511,7 +24559,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -24597,7 +24645,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24683,7 +24731,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -24769,7 +24817,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -24917,7 +24965,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -24926,7 +24974,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -24937,7 +24985,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -25008,7 +25056,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25079,7 +25127,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25150,7 +25198,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -25221,7 +25269,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -25292,7 +25340,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -25363,7 +25411,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -25434,7 +25482,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -25505,7 +25553,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -25576,7 +25624,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -25682,7 +25730,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -25718,13 +25766,13 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
@@ -25750,7 +25798,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -25842,7 +25890,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25934,7 +25982,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -26026,7 +26074,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26118,7 +26166,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -26210,7 +26258,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -26302,7 +26350,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -26394,7 +26442,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -26486,7 +26534,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -26578,7 +26626,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -29592,7 +29640,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29634,10 +29682,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -29682,16 +29730,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -29721,7 +29769,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -29760,7 +29808,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -29770,11 +29818,14 @@
       </c>
       <c r="BL1" t="s">
         <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -29963,12 +30014,15 @@
         <v>85</v>
       </c>
       <c r="BL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -30158,11 +30212,14 @@
       </c>
       <c r="BL3" t="s">
         <v>84</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -30351,12 +30408,15 @@
         <v>85</v>
       </c>
       <c r="BL4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -30545,12 +30605,15 @@
         <v>84</v>
       </c>
       <c r="BL5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -30740,11 +30803,14 @@
       </c>
       <c r="BL6" t="s">
         <v>85</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -30934,11 +31000,14 @@
       </c>
       <c r="BL7" t="s">
         <v>83</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -31127,12 +31196,15 @@
         <v>82</v>
       </c>
       <c r="BL8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -31321,12 +31393,15 @@
         <v>85</v>
       </c>
       <c r="BL9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -31515,12 +31590,15 @@
         <v>82</v>
       </c>
       <c r="BL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -31710,11 +31788,14 @@
       </c>
       <c r="BL11" t="s">
         <v>84</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -31904,11 +31985,14 @@
       </c>
       <c r="BL12" t="s">
         <v>84</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -32098,11 +32182,14 @@
       </c>
       <c r="BL13" t="s">
         <v>82</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -32292,11 +32379,14 @@
       </c>
       <c r="BL14" t="s">
         <v>85</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -32486,11 +32576,14 @@
       </c>
       <c r="BL15" t="s">
         <v>85</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -32680,11 +32773,14 @@
       </c>
       <c r="BL16" t="s">
         <v>83</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -32873,12 +32969,15 @@
         <v>84</v>
       </c>
       <c r="BL17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -33067,12 +33166,15 @@
         <v>85</v>
       </c>
       <c r="BL18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -33262,11 +33364,14 @@
       </c>
       <c r="BL19" t="s">
         <v>82</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -33455,12 +33560,15 @@
         <v>84</v>
       </c>
       <c r="BL20" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -33649,6 +33757,9 @@
         <v>84</v>
       </c>
       <c r="BL21" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -33677,7 +33788,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -33701,19 +33812,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -33737,7 +33848,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -33761,19 +33872,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AJ1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -33791,7 +33902,7 @@
         <v>158</v>
       </c>
       <c r="AQ1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -33803,7 +33914,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -33824,7 +33935,7 @@
         <v>160</v>
       </c>
       <c r="BB1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -33836,19 +33947,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BG1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BH1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BI1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BJ1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -33860,7 +33971,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -33896,7 +34007,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -33910,7 +34021,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -34155,7 +34266,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -34400,7 +34511,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -34645,7 +34756,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -34890,7 +35001,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -35135,7 +35246,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -35380,7 +35491,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -35625,7 +35736,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -35870,7 +35981,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -36115,7 +36226,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -36360,7 +36471,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -36605,7 +36716,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -36850,7 +36961,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -37095,7 +37206,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -37340,7 +37451,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -37585,7 +37696,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -37830,7 +37941,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -38075,7 +38186,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -38320,7 +38431,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -38565,7 +38676,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -38810,7 +38921,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -39055,7 +39166,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -39323,7 +39434,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -39365,7 +39476,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -39416,7 +39527,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -39446,7 +39557,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -39482,7 +39593,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -39496,7 +39607,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -39681,7 +39792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -39866,7 +39977,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -40051,7 +40162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -40236,7 +40347,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -40421,7 +40532,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -40606,7 +40717,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -40791,7 +40902,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -40976,7 +41087,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -41161,7 +41272,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -41346,7 +41457,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -41531,7 +41642,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -41716,7 +41827,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -41901,7 +42012,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -42086,7 +42197,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -42271,7 +42382,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -42456,7 +42567,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -42641,7 +42752,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -42826,7 +42937,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -43011,7 +43122,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -49740,10 +49851,13 @@
       <c r="AW1" t="s">
         <v>62</v>
       </c>
+      <c r="AX1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -49887,12 +50001,15 @@
         <v>83</v>
       </c>
       <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -50037,11 +50154,14 @@
       </c>
       <c r="AW3" t="s">
         <v>85</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -50186,11 +50306,14 @@
       </c>
       <c r="AW4" t="s">
         <v>84</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -50335,11 +50458,14 @@
       </c>
       <c r="AW5" t="s">
         <v>84</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -50484,11 +50610,14 @@
       </c>
       <c r="AW6" t="s">
         <v>85</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -50633,11 +50762,14 @@
       </c>
       <c r="AW7" t="s">
         <v>85</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -50781,12 +50913,15 @@
         <v>82</v>
       </c>
       <c r="AW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -50930,12 +51065,15 @@
         <v>82</v>
       </c>
       <c r="AW9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -51079,12 +51217,15 @@
         <v>82</v>
       </c>
       <c r="AW10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -51229,11 +51370,14 @@
       </c>
       <c r="AW11" t="s">
         <v>82</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -51378,11 +51522,14 @@
       </c>
       <c r="AW12" t="s">
         <v>84</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -51527,11 +51674,14 @@
       </c>
       <c r="AW13" t="s">
         <v>85</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -51675,12 +51825,15 @@
         <v>82</v>
       </c>
       <c r="AW14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -51825,11 +51978,14 @@
       </c>
       <c r="AW15" t="s">
         <v>84</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -51973,12 +52129,15 @@
         <v>82</v>
       </c>
       <c r="AW16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -52123,11 +52282,14 @@
       </c>
       <c r="AW17" t="s">
         <v>84</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -52272,11 +52434,14 @@
       </c>
       <c r="AW18" t="s">
         <v>85</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -52420,12 +52585,15 @@
         <v>82</v>
       </c>
       <c r="AW19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -52569,12 +52737,15 @@
         <v>82</v>
       </c>
       <c r="AW20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -52718,12 +52889,15 @@
         <v>82</v>
       </c>
       <c r="AW21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -52868,11 +53042,14 @@
       </c>
       <c r="AW22" t="s">
         <v>82</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
@@ -53016,12 +53193,15 @@
         <v>82</v>
       </c>
       <c r="AW23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -53165,12 +53345,15 @@
         <v>82</v>
       </c>
       <c r="AW24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -53314,6 +53497,9 @@
         <v>83</v>
       </c>
       <c r="AW25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -53351,10 +53537,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -53366,7 +53552,7 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
@@ -53378,7 +53564,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -53393,7 +53579,7 @@
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
@@ -53402,10 +53588,10 @@
         <v>159</v>
       </c>
       <c r="Y1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -53423,10 +53609,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -53437,7 +53623,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -53544,7 +53730,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -53651,7 +53837,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -53758,7 +53944,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -53865,7 +54051,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -53972,7 +54158,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -54079,7 +54265,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -54186,7 +54372,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -54293,7 +54479,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -54400,7 +54586,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -54507,7 +54693,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -54614,7 +54800,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -54721,7 +54907,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -54828,7 +55014,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -54935,7 +55121,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -55042,7 +55228,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -55149,7 +55335,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -55256,7 +55442,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -55363,7 +55549,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -55470,7 +55656,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -55577,7 +55763,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -55684,7 +55870,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55791,7 +55977,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
@@ -55898,7 +56084,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
@@ -56031,7 +56217,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -56040,7 +56226,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -56055,7 +56241,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -56067,10 +56253,10 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
@@ -56082,16 +56268,16 @@
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -56106,10 +56292,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -56120,7 +56306,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -56224,7 +56410,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -56328,7 +56514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -56432,7 +56618,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -56536,7 +56722,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -56640,7 +56826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -56744,7 +56930,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -56848,7 +57034,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -56952,7 +57138,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -57056,7 +57242,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -57160,7 +57346,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -57264,7 +57450,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -57368,7 +57554,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -57472,7 +57658,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -57576,7 +57762,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -57680,7 +57866,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57784,7 +57970,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -57888,7 +58074,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -57992,7 +58178,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -58096,7 +58282,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -58200,7 +58386,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -58304,7 +58490,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -58408,7 +58594,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -58512,7 +58698,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -58636,13 +58822,13 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -58654,7 +58840,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -58666,19 +58852,19 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -58687,10 +58873,10 @@
         <v>159</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -58711,7 +58897,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -58722,7 +58908,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -58817,7 +59003,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -58912,7 +59098,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -59007,7 +59193,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -59102,7 +59288,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -59197,7 +59383,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -59292,7 +59478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -59387,7 +59573,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -59482,7 +59668,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -59577,7 +59763,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -59672,7 +59858,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59767,7 +59953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -59862,7 +60048,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -59957,7 +60143,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -60052,7 +60238,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -60147,7 +60333,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -60242,7 +60428,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -60337,7 +60523,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -60432,7 +60618,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -60527,7 +60713,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -60622,7 +60808,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -60717,7 +60903,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -60812,7 +60998,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -61011,7 +61197,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -61070,7 +61256,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -61222,7 +61408,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -61374,7 +61560,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -61526,7 +61712,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -61678,7 +61864,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -61830,7 +62016,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -61982,7 +62168,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -62134,7 +62320,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -62286,7 +62472,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -62438,7 +62624,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -62590,7 +62776,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -62742,7 +62928,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -62894,7 +63080,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -63046,7 +63232,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -63198,7 +63384,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -63350,7 +63536,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -63502,7 +63688,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -63654,7 +63840,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -63806,7 +63992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -63958,7 +64144,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21120" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="541">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>X2021.12.06</t>
+  </si>
+  <si>
+    <t>X2021.12.28</t>
+  </si>
+  <si>
+    <t>X2021.12.29</t>
+  </si>
+  <si>
+    <t>X2021.12.30</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -5571,28 +5580,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5601,7 +5610,7 @@
         <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5613,13 +5622,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5643,7 +5652,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5658,7 +5667,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5673,15 +5682,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -5797,7 +5806,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -5913,7 +5922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -6029,7 +6038,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6145,7 +6154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6261,7 +6270,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6377,7 +6386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6493,7 +6502,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -6609,7 +6618,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6725,7 +6734,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -6841,7 +6850,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -6957,7 +6966,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7073,7 +7082,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -7189,7 +7198,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -7305,7 +7314,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -7421,7 +7430,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7537,7 +7546,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -7653,7 +7662,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7769,7 +7778,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -7885,7 +7894,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8087,7 +8096,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8126,12 +8135,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8250,7 +8259,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -8369,7 +8378,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8488,7 +8497,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -8607,7 +8616,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8726,7 +8735,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8845,7 +8854,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8964,7 +8973,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9083,7 +9092,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9202,7 +9211,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9321,7 +9330,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -9440,7 +9449,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -9559,7 +9568,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9678,7 +9687,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9847,10 +9856,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9895,13 +9904,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AE1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9928,7 +9937,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9967,7 +9976,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9979,15 +9988,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BG1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -10166,7 +10175,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10345,7 +10354,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10524,7 +10533,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10703,7 +10712,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10882,7 +10891,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -11061,7 +11070,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11240,7 +11249,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11419,7 +11428,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -11598,7 +11607,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11777,7 +11786,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11956,7 +11965,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12135,7 +12144,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12314,7 +12323,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12493,7 +12502,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -12672,7 +12681,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12851,7 +12860,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -13030,7 +13039,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13209,7 +13218,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13388,7 +13397,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -13617,10 +13626,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13656,10 +13665,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AC1" t="s">
         <v>128</v>
@@ -13689,7 +13698,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AM1" t="s">
         <v>129</v>
@@ -13724,7 +13733,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13870,7 +13879,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14016,7 +14025,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14162,7 +14171,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14308,7 +14317,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14454,7 +14463,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14600,7 +14609,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14746,7 +14755,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14892,7 +14901,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15038,7 +15047,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -15184,7 +15193,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15330,7 +15339,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15476,7 +15485,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15622,7 +15631,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15768,7 +15777,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15914,7 +15923,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16060,7 +16069,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16206,7 +16215,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16352,7 +16361,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16498,7 +16507,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16700,7 +16709,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16799,18 +16808,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AX1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AY1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16965,7 +16974,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17120,7 +17129,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17275,7 +17284,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17430,7 +17439,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17585,7 +17594,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -17740,7 +17749,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17895,7 +17904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -18050,7 +18059,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18205,7 +18214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18360,7 +18369,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18515,7 +18524,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18670,7 +18679,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18825,7 +18834,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -18980,7 +18989,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19135,7 +19144,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19290,7 +19299,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19445,7 +19454,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19623,7 +19632,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19635,7 +19644,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19677,7 +19686,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19710,7 +19719,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19743,7 +19752,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AT1" t="s">
         <v>129</v>
@@ -19767,7 +19776,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19777,11 +19786,20 @@
       </c>
       <c r="BD1" t="s">
         <v>63</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19947,11 +19965,20 @@
       </c>
       <c r="BD2" t="s">
         <v>84</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20117,11 +20144,20 @@
       </c>
       <c r="BD3" t="s">
         <v>87</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20287,11 +20323,20 @@
       </c>
       <c r="BD4" t="s">
         <v>86</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20457,11 +20502,20 @@
       </c>
       <c r="BD5" t="s">
         <v>86</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20626,12 +20680,21 @@
         <v>84</v>
       </c>
       <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20796,12 +20859,21 @@
         <v>84</v>
       </c>
       <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -20966,12 +21038,21 @@
         <v>87</v>
       </c>
       <c r="BD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21136,12 +21217,21 @@
         <v>84</v>
       </c>
       <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21307,11 +21397,20 @@
       </c>
       <c r="BD10" t="s">
         <v>87</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21477,11 +21576,20 @@
       </c>
       <c r="BD11" t="s">
         <v>87</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21647,11 +21755,20 @@
       </c>
       <c r="BD12" t="s">
         <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21816,12 +21933,21 @@
         <v>85</v>
       </c>
       <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -21986,12 +22112,21 @@
         <v>84</v>
       </c>
       <c r="BD14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22157,11 +22292,20 @@
       </c>
       <c r="BD15" t="s">
         <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22326,12 +22470,21 @@
         <v>84</v>
       </c>
       <c r="BD16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22496,12 +22649,21 @@
         <v>86</v>
       </c>
       <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22666,12 +22828,21 @@
         <v>87</v>
       </c>
       <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -22837,6 +23008,15 @@
       </c>
       <c r="BD19" t="s">
         <v>87</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -22912,7 +23092,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22954,7 +23134,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22972,7 +23152,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -22980,7 +23160,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23108,7 +23288,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -23236,7 +23416,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -23364,7 +23544,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23492,7 +23672,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -23620,7 +23800,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23748,7 +23928,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -23876,7 +24056,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24004,7 +24184,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24132,7 +24312,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -24260,7 +24440,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -24388,7 +24568,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24533,7 +24713,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24545,7 +24725,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24563,7 +24743,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24578,7 +24758,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24587,7 +24767,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24612,11 +24792,14 @@
       </c>
       <c r="AC1" t="s">
         <v>64</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -24701,11 +24884,14 @@
       </c>
       <c r="AC2" t="s">
         <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24790,11 +24976,14 @@
       </c>
       <c r="AC3" t="s">
         <v>86</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -24879,11 +25068,14 @@
       </c>
       <c r="AC4" t="s">
         <v>87</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -24968,11 +25160,14 @@
       </c>
       <c r="AC5" t="s">
         <v>87</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25056,12 +25251,15 @@
         <v>87</v>
       </c>
       <c r="AC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25146,11 +25344,14 @@
       </c>
       <c r="AC7" t="s">
         <v>86</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -25235,11 +25436,14 @@
       </c>
       <c r="AC8" t="s">
         <v>84</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -25323,12 +25527,15 @@
         <v>86</v>
       </c>
       <c r="AC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -25412,12 +25619,15 @@
         <v>86</v>
       </c>
       <c r="AC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25502,6 +25712,9 @@
       </c>
       <c r="AC11" t="s">
         <v>87</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -25538,7 +25751,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25568,7 +25781,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25577,7 +25790,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25586,15 +25799,18 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -25666,12 +25882,15 @@
         <v>84</v>
       </c>
       <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -25744,11 +25963,14 @@
       </c>
       <c r="Y3" t="s">
         <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -25821,11 +26043,14 @@
       </c>
       <c r="Y4" t="s">
         <v>86</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25898,11 +26123,14 @@
       </c>
       <c r="Y5" t="s">
         <v>86</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25974,12 +26202,15 @@
         <v>84</v>
       </c>
       <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26052,11 +26283,14 @@
       </c>
       <c r="Y7" t="s">
         <v>87</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26129,11 +26363,14 @@
       </c>
       <c r="Y8" t="s">
         <v>87</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26205,12 +26442,15 @@
         <v>86</v>
       </c>
       <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26282,12 +26522,15 @@
         <v>87</v>
       </c>
       <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26360,6 +26603,9 @@
       </c>
       <c r="Y11" t="s">
         <v>84</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -26399,7 +26645,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26435,19 +26681,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="W1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26465,10 +26711,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -26476,7 +26722,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -26577,7 +26823,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -26678,7 +26924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -26779,7 +27025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -26880,7 +27126,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -26981,7 +27227,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -27082,7 +27328,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -27183,7 +27429,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -27284,7 +27530,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27385,7 +27631,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -30408,7 +30654,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30450,10 +30696,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="T1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30498,16 +30744,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AJ1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AK1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30537,7 +30783,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30549,7 +30795,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BA1" t="s">
         <v>130</v>
@@ -30576,7 +30822,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30588,18 +30834,18 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BN1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BO1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -30802,7 +31048,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31005,7 +31251,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31208,7 +31454,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31411,7 +31657,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31614,7 +31860,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -31817,7 +32063,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32020,7 +32266,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32223,7 +32469,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32426,7 +32672,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -32629,7 +32875,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -32832,7 +33078,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33035,7 +33281,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33238,7 +33484,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33441,7 +33687,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33644,7 +33890,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -33847,7 +34093,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34050,7 +34296,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34253,7 +34499,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34456,7 +34702,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34682,7 +34928,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34706,19 +34952,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="Q1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -34742,7 +34988,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -34766,19 +35012,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AH1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AI1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AK1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -34790,13 +35036,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AP1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AQ1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -34808,7 +35054,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -34823,13 +35069,13 @@
         <v>128</v>
       </c>
       <c r="AZ1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BA1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BB1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -34841,19 +35087,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="BG1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BH1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BI1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="BJ1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -34865,7 +35111,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -34877,7 +35123,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -34901,7 +35147,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -34915,7 +35161,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35160,7 +35406,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35405,7 +35651,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35650,7 +35896,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -35895,7 +36141,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36140,7 +36386,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -36385,7 +36631,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36630,7 +36876,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -36875,7 +37121,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37120,7 +37366,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -37365,7 +37611,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37610,7 +37856,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -37855,7 +38101,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38100,7 +38346,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38345,7 +38591,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38590,7 +38836,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -38835,7 +39081,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39080,7 +39326,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39325,7 +39571,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39570,7 +39816,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -39815,7 +40061,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40060,7 +40306,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -40328,7 +40574,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40370,7 +40616,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40421,7 +40667,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40451,7 +40697,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40463,7 +40709,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40487,7 +40733,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40499,16 +40745,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BK1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="BL1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="BM1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40519,7 +40765,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40722,7 +40968,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -40925,7 +41171,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41128,7 +41374,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41331,7 +41577,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -41534,7 +41780,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -41737,7 +41983,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -41940,7 +42186,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42143,7 +42389,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42346,7 +42592,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42549,7 +42795,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -42752,7 +42998,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -42955,7 +43201,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43158,7 +43404,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43361,7 +43607,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43564,7 +43810,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -43767,7 +44013,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -43970,7 +44216,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44173,7 +44419,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44376,7 +44622,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -47929,10 +48175,19 @@
       <c r="AZ1" t="s">
         <v>65</v>
       </c>
+      <c r="BA1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -48085,12 +48340,21 @@
         <v>86</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48243,12 +48507,21 @@
         <v>87</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -48401,12 +48674,21 @@
         <v>87</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48559,12 +48841,21 @@
         <v>86</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -48718,11 +49009,20 @@
       </c>
       <c r="AZ6" t="s">
         <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -48875,12 +49175,21 @@
         <v>86</v>
       </c>
       <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49033,12 +49342,21 @@
         <v>87</v>
       </c>
       <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49191,12 +49509,21 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49349,12 +49676,21 @@
         <v>84</v>
       </c>
       <c r="AZ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49507,12 +49843,21 @@
         <v>87</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -49665,12 +50010,21 @@
         <v>84</v>
       </c>
       <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -49823,12 +50177,21 @@
         <v>86</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -49982,11 +50345,20 @@
       </c>
       <c r="AZ14" t="s">
         <v>85</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50140,11 +50512,20 @@
       </c>
       <c r="AZ15" t="s">
         <v>85</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50297,12 +50678,21 @@
         <v>87</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50455,12 +50845,21 @@
         <v>86</v>
       </c>
       <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -50613,12 +51012,21 @@
         <v>86</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -50771,12 +51179,21 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -50929,12 +51346,21 @@
         <v>87</v>
       </c>
       <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51087,6 +51513,15 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -51118,10 +51553,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51142,10 +51577,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51157,10 +51592,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51178,10 +51613,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AA1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51196,10 +51631,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51214,7 +51649,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM1" t="s">
         <v>106</v>
@@ -51229,7 +51664,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51250,18 +51685,24 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
       </c>
       <c r="AZ1" t="s">
         <v>65</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51414,12 +51855,18 @@
         <v>84</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -51572,12 +52019,18 @@
         <v>84</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -51730,12 +52183,18 @@
         <v>84</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -51888,12 +52347,18 @@
         <v>87</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -52046,12 +52511,18 @@
         <v>84</v>
       </c>
       <c r="AZ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52205,11 +52676,17 @@
       </c>
       <c r="AZ7" t="s">
         <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52363,11 +52840,17 @@
       </c>
       <c r="AZ8" t="s">
         <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -52520,12 +53003,18 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -52678,12 +53167,18 @@
         <v>84</v>
       </c>
       <c r="AZ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -52836,12 +53331,18 @@
         <v>84</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -52995,11 +53496,17 @@
       </c>
       <c r="AZ12" t="s">
         <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53152,12 +53659,18 @@
         <v>84</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53310,12 +53823,18 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -53468,12 +53987,18 @@
         <v>86</v>
       </c>
       <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -53626,12 +54151,18 @@
         <v>84</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -53785,11 +54316,17 @@
       </c>
       <c r="AZ17" t="s">
         <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -53942,12 +54479,18 @@
         <v>84</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54100,12 +54643,18 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54259,11 +54808,17 @@
       </c>
       <c r="AZ20" t="s">
         <v>87</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54416,12 +54971,18 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -54574,12 +55135,18 @@
         <v>84</v>
       </c>
       <c r="AZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -54733,11 +55300,17 @@
       </c>
       <c r="AZ23" t="s">
         <v>84</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -54890,12 +55463,18 @@
         <v>84</v>
       </c>
       <c r="AZ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -55049,6 +55628,12 @@
       </c>
       <c r="AZ25" t="s">
         <v>87</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -55073,7 +55658,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55085,34 +55670,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55121,31 +55706,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Y1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Z1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55157,10 +55742,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55173,11 +55758,17 @@
       </c>
       <c r="AK1" t="s">
         <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -55285,12 +55876,18 @@
         <v>86</v>
       </c>
       <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -55398,12 +55995,18 @@
         <v>84</v>
       </c>
       <c r="AK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -55511,12 +56114,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -55624,12 +56233,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -55737,12 +56352,18 @@
         <v>84</v>
       </c>
       <c r="AK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -55850,12 +56471,18 @@
         <v>84</v>
       </c>
       <c r="AK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -55963,12 +56590,18 @@
         <v>87</v>
       </c>
       <c r="AK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56076,12 +56709,18 @@
         <v>84</v>
       </c>
       <c r="AK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -56190,11 +56829,17 @@
       </c>
       <c r="AK10" t="s">
         <v>87</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -56302,12 +56947,18 @@
         <v>87</v>
       </c>
       <c r="AK11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -56415,12 +57066,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -56528,12 +57185,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -56641,12 +57304,18 @@
         <v>87</v>
       </c>
       <c r="AK14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -56754,12 +57423,18 @@
         <v>86</v>
       </c>
       <c r="AK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -56867,12 +57542,18 @@
         <v>84</v>
       </c>
       <c r="AK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -56980,12 +57661,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -57093,12 +57780,18 @@
         <v>86</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -57206,12 +57899,18 @@
         <v>84</v>
       </c>
       <c r="AK19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -57319,12 +58018,18 @@
         <v>87</v>
       </c>
       <c r="AK20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -57433,11 +58138,17 @@
       </c>
       <c r="AK21" t="s">
         <v>84</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -57545,12 +58256,18 @@
         <v>86</v>
       </c>
       <c r="AK22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -57658,12 +58375,18 @@
         <v>84</v>
       </c>
       <c r="AK23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
@@ -57771,12 +58494,18 @@
         <v>84</v>
       </c>
       <c r="AK24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -57884,6 +58613,12 @@
         <v>84</v>
       </c>
       <c r="AK25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -57909,13 +58644,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -57924,7 +58659,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -57933,13 +58668,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -57951,37 +58686,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Z1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -57990,10 +58725,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58003,11 +58738,14 @@
       </c>
       <c r="AI1" t="s">
         <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -58110,11 +58848,14 @@
       </c>
       <c r="AI2" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -58216,12 +58957,15 @@
         <v>84</v>
       </c>
       <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -58323,12 +59067,15 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -58430,12 +59177,15 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -58537,12 +59287,15 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -58644,12 +59397,15 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -58751,12 +59507,15 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -58858,12 +59617,15 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -58965,12 +59727,15 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -59073,11 +59838,14 @@
       </c>
       <c r="AI11" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59179,12 +59947,15 @@
         <v>87</v>
       </c>
       <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -59287,11 +60058,14 @@
       </c>
       <c r="AI13" t="s">
         <v>86</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -59393,12 +60167,15 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -59500,12 +60277,15 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -59608,11 +60388,14 @@
       </c>
       <c r="AI16" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -59714,12 +60497,15 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -59821,12 +60607,15 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -59928,12 +60717,15 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -60036,11 +60828,14 @@
       </c>
       <c r="AI20" t="s">
         <v>86</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -60143,11 +60938,14 @@
       </c>
       <c r="AI21" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -60249,12 +61047,15 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -60357,11 +61158,14 @@
       </c>
       <c r="AI23" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -60464,11 +61268,14 @@
       </c>
       <c r="AI24" t="s">
         <v>86</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -60570,6 +61377,9 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -60595,61 +61405,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -60658,7 +61468,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -60670,7 +61480,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -60680,11 +61490,14 @@
       </c>
       <c r="AF1" t="s">
         <v>64</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -60778,11 +61591,14 @@
       </c>
       <c r="AF2" t="s">
         <v>85</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -60875,12 +61691,15 @@
         <v>84</v>
       </c>
       <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -60973,12 +61792,15 @@
         <v>84</v>
       </c>
       <c r="AF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -61071,12 +61893,15 @@
         <v>84</v>
       </c>
       <c r="AF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -61170,11 +61995,14 @@
       </c>
       <c r="AF6" t="s">
         <v>85</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -61268,11 +62096,14 @@
       </c>
       <c r="AF7" t="s">
         <v>84</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -61365,12 +62196,15 @@
         <v>84</v>
       </c>
       <c r="AF8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -61463,12 +62297,15 @@
         <v>84</v>
       </c>
       <c r="AF9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -61562,11 +62399,14 @@
       </c>
       <c r="AF10" t="s">
         <v>84</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -61659,12 +62499,15 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -61758,11 +62601,14 @@
       </c>
       <c r="AF12" t="s">
         <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -61855,12 +62701,15 @@
         <v>87</v>
       </c>
       <c r="AF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -61954,11 +62803,14 @@
       </c>
       <c r="AF14" t="s">
         <v>84</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -62051,12 +62903,15 @@
         <v>84</v>
       </c>
       <c r="AF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -62150,11 +63005,14 @@
       </c>
       <c r="AF16" t="s">
         <v>84</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -62248,11 +63106,14 @@
       </c>
       <c r="AF17" t="s">
         <v>85</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -62345,12 +63206,15 @@
         <v>84</v>
       </c>
       <c r="AF18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -62444,11 +63308,14 @@
       </c>
       <c r="AF19" t="s">
         <v>86</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -62541,12 +63408,15 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -62639,12 +63509,15 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -62738,11 +63611,14 @@
       </c>
       <c r="AF22" t="s">
         <v>85</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -62836,11 +63712,14 @@
       </c>
       <c r="AF23" t="s">
         <v>84</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -62934,6 +63813,9 @@
       </c>
       <c r="AF24" t="s">
         <v>87</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -63042,7 +63924,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63099,12 +63981,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -63259,7 +64141,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -63414,7 +64296,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -63569,7 +64451,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -63724,7 +64606,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63879,7 +64761,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64034,7 +64916,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -64189,7 +65071,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -64344,7 +65226,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -64499,7 +65381,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -64654,7 +65536,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -64809,7 +65691,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -64964,7 +65846,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -65119,7 +66001,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -65274,7 +66156,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -65429,7 +66311,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -65584,7 +66466,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -65739,7 +66621,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -65894,7 +66776,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66049,7 +66931,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="545">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>X2021.12.30</t>
+  </si>
+  <si>
+    <t>X2022.01.01</t>
+  </si>
+  <si>
+    <t>X2022.01.02</t>
+  </si>
+  <si>
+    <t>X2022.01.03</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -1439,6 +1448,9 @@
     <t>Stranraer</t>
   </si>
   <si>
+    <t>X2021.12.31</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -5580,28 +5592,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5610,7 +5622,7 @@
         <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5622,13 +5634,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5652,7 +5664,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5667,7 +5679,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5682,15 +5694,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AL1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -5806,7 +5818,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -5922,7 +5934,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -6038,7 +6050,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6154,7 +6166,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6270,7 +6282,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6386,7 +6398,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6502,7 +6514,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -6618,7 +6630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6734,7 +6746,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -6850,7 +6862,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -6966,7 +6978,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7082,7 +7094,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -7198,7 +7210,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -7314,7 +7326,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -7430,7 +7442,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7546,7 +7558,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -7662,7 +7674,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7778,7 +7790,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -7894,7 +7906,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8096,7 +8108,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8135,12 +8147,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8259,7 +8271,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -8378,7 +8390,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8497,7 +8509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -8616,7 +8628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8735,7 +8747,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8854,7 +8866,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8973,7 +8985,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9092,7 +9104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9211,7 +9223,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9330,7 +9342,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -9449,7 +9461,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -9568,7 +9580,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9687,7 +9699,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9856,10 +9868,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9904,13 +9916,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AE1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9937,7 +9949,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9976,7 +9988,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9988,15 +10000,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BG1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -10175,7 +10187,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10354,7 +10366,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10533,7 +10545,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10712,7 +10724,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10891,7 +10903,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -11070,7 +11082,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11249,7 +11261,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11428,7 +11440,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -11607,7 +11619,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11786,7 +11798,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11965,7 +11977,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12144,7 +12156,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12323,7 +12335,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12502,7 +12514,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -12681,7 +12693,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12860,7 +12872,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -13039,7 +13051,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13218,7 +13230,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13397,7 +13409,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -13626,10 +13638,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13665,10 +13677,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AB1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AC1" t="s">
         <v>128</v>
@@ -13698,7 +13710,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AM1" t="s">
         <v>129</v>
@@ -13733,7 +13745,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13879,7 +13891,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14025,7 +14037,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14171,7 +14183,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14317,7 +14329,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14463,7 +14475,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14609,7 +14621,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14755,7 +14767,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14901,7 +14913,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15047,7 +15059,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -15193,7 +15205,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15339,7 +15351,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15485,7 +15497,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15631,7 +15643,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15777,7 +15789,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15923,7 +15935,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16069,7 +16081,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16215,7 +16227,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16361,7 +16373,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16507,7 +16519,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16709,7 +16721,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16808,18 +16820,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AX1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AY1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16974,7 +16986,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17129,7 +17141,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17284,7 +17296,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17439,7 +17451,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17594,7 +17606,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -17749,7 +17761,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17904,7 +17916,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -18059,7 +18071,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18214,7 +18226,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18369,7 +18381,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18524,7 +18536,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18679,7 +18691,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18834,7 +18846,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -18989,7 +19001,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19144,7 +19156,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19299,7 +19311,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19454,7 +19466,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19632,7 +19644,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19644,7 +19656,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19686,7 +19698,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19719,7 +19731,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19752,7 +19764,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT1" t="s">
         <v>129</v>
@@ -19776,7 +19788,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19795,11 +19807,17 @@
       </c>
       <c r="BG1" t="s">
         <v>135</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19974,11 +19992,17 @@
       </c>
       <c r="BG2" t="s">
         <v>87</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20152,12 +20176,18 @@
         <v>84</v>
       </c>
       <c r="BG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20332,11 +20362,17 @@
       </c>
       <c r="BG4" t="s">
         <v>87</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20510,12 +20546,18 @@
         <v>85</v>
       </c>
       <c r="BG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20689,12 +20731,18 @@
         <v>84</v>
       </c>
       <c r="BG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20868,12 +20916,18 @@
         <v>84</v>
       </c>
       <c r="BG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21047,12 +21101,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21226,12 +21286,18 @@
         <v>85</v>
       </c>
       <c r="BG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21405,12 +21471,18 @@
         <v>84</v>
       </c>
       <c r="BG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21585,11 +21657,17 @@
       </c>
       <c r="BG11" t="s">
         <v>84</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21764,11 +21842,17 @@
       </c>
       <c r="BG12" t="s">
         <v>86</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21942,12 +22026,18 @@
         <v>87</v>
       </c>
       <c r="BG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22122,11 +22212,17 @@
       </c>
       <c r="BG14" t="s">
         <v>86</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22301,11 +22397,17 @@
       </c>
       <c r="BG15" t="s">
         <v>87</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22480,11 +22582,17 @@
       </c>
       <c r="BG16" t="s">
         <v>86</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22658,12 +22766,18 @@
         <v>86</v>
       </c>
       <c r="BG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22838,11 +22952,17 @@
       </c>
       <c r="BG18" t="s">
         <v>84</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -23016,6 +23136,12 @@
         <v>84</v>
       </c>
       <c r="BG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23092,7 +23218,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23134,7 +23260,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23152,7 +23278,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23160,7 +23286,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23288,7 +23414,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -23416,7 +23542,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -23544,7 +23670,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23672,7 +23798,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -23800,7 +23926,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23928,7 +24054,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -24056,7 +24182,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24184,7 +24310,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24312,7 +24438,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -24440,7 +24566,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -24568,7 +24694,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24713,7 +24839,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24725,7 +24851,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24743,7 +24869,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24758,7 +24884,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24767,7 +24893,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24795,11 +24921,14 @@
       </c>
       <c r="AD1" t="s">
         <v>134</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -24887,11 +25016,14 @@
       </c>
       <c r="AD2" t="s">
         <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24978,12 +25110,15 @@
         <v>86</v>
       </c>
       <c r="AD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25071,11 +25206,14 @@
       </c>
       <c r="AD4" t="s">
         <v>84</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25163,11 +25301,14 @@
       </c>
       <c r="AD5" t="s">
         <v>84</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25255,11 +25396,14 @@
       </c>
       <c r="AD6" t="s">
         <v>84</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25347,11 +25491,14 @@
       </c>
       <c r="AD7" t="s">
         <v>85</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -25439,11 +25586,14 @@
       </c>
       <c r="AD8" t="s">
         <v>85</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -25530,12 +25680,15 @@
         <v>84</v>
       </c>
       <c r="AD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -25623,11 +25776,14 @@
       </c>
       <c r="AD10" t="s">
         <v>84</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25715,6 +25871,9 @@
       </c>
       <c r="AD11" t="s">
         <v>84</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -25751,7 +25910,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25781,7 +25940,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25790,7 +25949,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25799,18 +25958,21 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
         <v>134</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -25885,12 +26047,15 @@
         <v>86</v>
       </c>
       <c r="Z2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -25965,12 +26130,15 @@
         <v>87</v>
       </c>
       <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -26045,12 +26213,15 @@
         <v>86</v>
       </c>
       <c r="Z4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26126,11 +26297,14 @@
       </c>
       <c r="Z5" t="s">
         <v>84</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -26206,11 +26380,14 @@
       </c>
       <c r="Z6" t="s">
         <v>84</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26286,11 +26463,14 @@
       </c>
       <c r="Z7" t="s">
         <v>84</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26365,12 +26545,15 @@
         <v>87</v>
       </c>
       <c r="Z8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26446,11 +26629,14 @@
       </c>
       <c r="Z9" t="s">
         <v>84</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26526,11 +26712,14 @@
       </c>
       <c r="Z10" t="s">
         <v>84</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26606,6 +26795,9 @@
       </c>
       <c r="Z11" t="s">
         <v>87</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -26645,7 +26837,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26681,19 +26873,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="W1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26711,18 +26903,21 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AF1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -26819,11 +27014,14 @@
       </c>
       <c r="AG2" t="s">
         <v>86</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -26920,11 +27118,14 @@
       </c>
       <c r="AG3" t="s">
         <v>86</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -27020,12 +27221,15 @@
         <v>87</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -27121,12 +27325,15 @@
         <v>86</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27223,11 +27430,14 @@
       </c>
       <c r="AG6" t="s">
         <v>84</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -27323,12 +27533,15 @@
         <v>84</v>
       </c>
       <c r="AG7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -27425,11 +27638,14 @@
       </c>
       <c r="AG8" t="s">
         <v>87</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -27526,11 +27742,14 @@
       </c>
       <c r="AG9" t="s">
         <v>86</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27627,11 +27846,14 @@
       </c>
       <c r="AG10" t="s">
         <v>84</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27728,6 +27950,9 @@
       </c>
       <c r="AG11" t="s">
         <v>87</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -30654,7 +30879,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30696,10 +30921,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="T1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30744,16 +30969,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AJ1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AK1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AL1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30783,7 +31008,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30795,7 +31020,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BA1" t="s">
         <v>130</v>
@@ -30822,7 +31047,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30834,18 +31059,27 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BN1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BO1" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>471</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31043,12 +31277,21 @@
         <v>87</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31247,11 +31490,20 @@
       </c>
       <c r="BO3" t="s">
         <v>87</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31450,11 +31702,20 @@
       </c>
       <c r="BO4" t="s">
         <v>87</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31652,12 +31913,21 @@
         <v>85</v>
       </c>
       <c r="BO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31855,12 +32125,21 @@
         <v>84</v>
       </c>
       <c r="BO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32059,11 +32338,20 @@
       </c>
       <c r="BO7" t="s">
         <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32261,12 +32549,21 @@
         <v>84</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32464,12 +32761,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32667,12 +32973,21 @@
         <v>84</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -32870,12 +33185,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33074,11 +33398,20 @@
       </c>
       <c r="BO12" t="s">
         <v>86</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33277,11 +33610,20 @@
       </c>
       <c r="BO13" t="s">
         <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33479,12 +33821,21 @@
         <v>84</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33683,11 +34034,20 @@
       </c>
       <c r="BO15" t="s">
         <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33886,11 +34246,20 @@
       </c>
       <c r="BO16" t="s">
         <v>86</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34089,11 +34458,20 @@
       </c>
       <c r="BO17" t="s">
         <v>84</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34291,12 +34669,21 @@
         <v>84</v>
       </c>
       <c r="BO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34494,12 +34881,21 @@
         <v>84</v>
       </c>
       <c r="BO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34697,12 +35093,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34901,6 +35306,15 @@
       </c>
       <c r="BO21" t="s">
         <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -34928,7 +35342,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34952,19 +35366,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -34988,7 +35402,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35012,19 +35426,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AH1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AI1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AJ1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AK1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35036,13 +35450,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AP1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35054,7 +35468,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35069,13 +35483,13 @@
         <v>128</v>
       </c>
       <c r="AZ1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BA1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BB1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35087,19 +35501,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="BG1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BH1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BI1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="BJ1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35111,7 +35525,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35123,7 +35537,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35147,7 +35561,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35157,11 +35571,20 @@
       </c>
       <c r="CC1" t="s">
         <v>63</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>471</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35402,11 +35825,20 @@
       </c>
       <c r="CC2" t="s">
         <v>85</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35646,12 +36078,21 @@
         <v>84</v>
       </c>
       <c r="CC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35892,11 +36333,20 @@
       </c>
       <c r="CC4" t="s">
         <v>85</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36136,12 +36586,21 @@
         <v>84</v>
       </c>
       <c r="CC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36382,11 +36841,20 @@
       </c>
       <c r="CC6" t="s">
         <v>86</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -36626,12 +37094,21 @@
         <v>86</v>
       </c>
       <c r="CC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36872,11 +37349,20 @@
       </c>
       <c r="CC8" t="s">
         <v>85</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37116,12 +37602,21 @@
         <v>84</v>
       </c>
       <c r="CC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37362,11 +37857,20 @@
       </c>
       <c r="CC10" t="s">
         <v>85</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -37606,12 +38110,21 @@
         <v>87</v>
       </c>
       <c r="CC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37851,12 +38364,21 @@
         <v>87</v>
       </c>
       <c r="CC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38096,12 +38618,21 @@
         <v>86</v>
       </c>
       <c r="CC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38341,12 +38872,21 @@
         <v>84</v>
       </c>
       <c r="CC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38587,11 +39127,20 @@
       </c>
       <c r="CC15" t="s">
         <v>84</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38832,11 +39381,20 @@
       </c>
       <c r="CC16" t="s">
         <v>87</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39077,11 +39635,20 @@
       </c>
       <c r="CC17" t="s">
         <v>85</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39322,11 +39889,20 @@
       </c>
       <c r="CC18" t="s">
         <v>85</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39567,11 +40143,20 @@
       </c>
       <c r="CC19" t="s">
         <v>87</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39811,12 +40396,21 @@
         <v>86</v>
       </c>
       <c r="CC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40057,11 +40651,20 @@
       </c>
       <c r="CC21" t="s">
         <v>86</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40302,11 +40905,20 @@
       </c>
       <c r="CC22" t="s">
         <v>86</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -40547,6 +41159,15 @@
       </c>
       <c r="CC23" t="s">
         <v>87</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -40574,7 +41195,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40616,7 +41237,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40667,7 +41288,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40697,7 +41318,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40709,7 +41330,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40733,7 +41354,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40745,16 +41366,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BK1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="BL1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="BM1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40765,7 +41386,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40968,7 +41589,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41171,7 +41792,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41374,7 +41995,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41577,7 +42198,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -41780,7 +42401,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -41983,7 +42604,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42186,7 +42807,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42389,7 +43010,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42592,7 +43213,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42795,7 +43416,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -42998,7 +43619,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43201,7 +43822,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43404,7 +44025,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43607,7 +44228,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43810,7 +44431,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44013,7 +44634,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -44216,7 +44837,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44419,7 +45040,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44622,7 +45243,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -48184,10 +48805,19 @@
       <c r="BC1" t="s">
         <v>135</v>
       </c>
+      <c r="BD1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -48349,12 +48979,21 @@
         <v>84</v>
       </c>
       <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48516,12 +49155,21 @@
         <v>84</v>
       </c>
       <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -48683,12 +49331,21 @@
         <v>87</v>
       </c>
       <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48850,12 +49507,21 @@
         <v>85</v>
       </c>
       <c r="BC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49018,11 +49684,20 @@
       </c>
       <c r="BC6" t="s">
         <v>87</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49184,12 +49859,21 @@
         <v>85</v>
       </c>
       <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49351,12 +50035,21 @@
         <v>84</v>
       </c>
       <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49518,12 +50211,21 @@
         <v>84</v>
       </c>
       <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49685,12 +50387,21 @@
         <v>84</v>
       </c>
       <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49852,12 +50563,21 @@
         <v>84</v>
       </c>
       <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50019,12 +50739,21 @@
         <v>84</v>
       </c>
       <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50186,12 +50915,21 @@
         <v>86</v>
       </c>
       <c r="BC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -50354,11 +51092,20 @@
       </c>
       <c r="BC14" t="s">
         <v>86</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50520,12 +51267,21 @@
         <v>84</v>
       </c>
       <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50687,12 +51443,21 @@
         <v>84</v>
       </c>
       <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50854,12 +51619,21 @@
         <v>84</v>
       </c>
       <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51021,12 +51795,21 @@
         <v>84</v>
       </c>
       <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -51188,12 +51971,21 @@
         <v>84</v>
       </c>
       <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -51355,12 +52147,21 @@
         <v>84</v>
       </c>
       <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51523,6 +52324,15 @@
       </c>
       <c r="BC21" t="s">
         <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -51553,10 +52363,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51577,10 +52387,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51592,10 +52402,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="T1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51613,10 +52423,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AA1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51631,10 +52441,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51649,7 +52459,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AM1" t="s">
         <v>106</v>
@@ -51664,7 +52474,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51685,7 +52495,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -51698,11 +52508,20 @@
       </c>
       <c r="BB1" t="s">
         <v>135</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51861,12 +52680,21 @@
         <v>87</v>
       </c>
       <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52025,12 +52853,21 @@
         <v>84</v>
       </c>
       <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -52189,12 +53026,21 @@
         <v>86</v>
       </c>
       <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -52353,12 +53199,21 @@
         <v>87</v>
       </c>
       <c r="BB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -52518,11 +53373,20 @@
       </c>
       <c r="BB6" t="s">
         <v>86</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52682,11 +53546,20 @@
       </c>
       <c r="BB7" t="s">
         <v>87</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52846,11 +53719,20 @@
       </c>
       <c r="BB8" t="s">
         <v>87</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53009,12 +53891,21 @@
         <v>87</v>
       </c>
       <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -53174,11 +54065,20 @@
       </c>
       <c r="BB10" t="s">
         <v>86</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -53337,12 +54237,21 @@
         <v>84</v>
       </c>
       <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53502,11 +54411,20 @@
       </c>
       <c r="BB12" t="s">
         <v>86</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53665,12 +54583,21 @@
         <v>84</v>
       </c>
       <c r="BB13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53829,12 +54756,21 @@
         <v>84</v>
       </c>
       <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -53993,12 +54929,21 @@
         <v>86</v>
       </c>
       <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -54157,12 +55102,21 @@
         <v>86</v>
       </c>
       <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -54322,11 +55276,20 @@
       </c>
       <c r="BB17" t="s">
         <v>87</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -54485,12 +55448,21 @@
         <v>84</v>
       </c>
       <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54650,11 +55622,20 @@
       </c>
       <c r="BB19" t="s">
         <v>84</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54814,11 +55795,20 @@
       </c>
       <c r="BB20" t="s">
         <v>86</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54978,11 +55968,20 @@
       </c>
       <c r="BB21" t="s">
         <v>84</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -55141,12 +56140,21 @@
         <v>84</v>
       </c>
       <c r="BB22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55305,12 +56313,21 @@
         <v>84</v>
       </c>
       <c r="BB23" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -55469,12 +56486,21 @@
         <v>84</v>
       </c>
       <c r="BB24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -55633,6 +56659,15 @@
         <v>84</v>
       </c>
       <c r="BB25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -55658,7 +56693,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55670,34 +56705,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55706,31 +56741,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55742,10 +56777,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AG1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55764,11 +56799,20 @@
       </c>
       <c r="AM1" t="s">
         <v>135</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -55882,12 +56926,21 @@
         <v>85</v>
       </c>
       <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -56001,12 +57054,21 @@
         <v>87</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -56120,12 +57182,21 @@
         <v>84</v>
       </c>
       <c r="AM4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -56239,12 +57310,21 @@
         <v>84</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -56359,11 +57439,20 @@
       </c>
       <c r="AM6" t="s">
         <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -56477,12 +57566,21 @@
         <v>84</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -56596,12 +57694,21 @@
         <v>84</v>
       </c>
       <c r="AM8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56715,12 +57822,21 @@
         <v>86</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -56834,12 +57950,21 @@
         <v>84</v>
       </c>
       <c r="AM10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -56953,12 +58078,21 @@
         <v>84</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -57072,12 +58206,21 @@
         <v>84</v>
       </c>
       <c r="AM12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -57191,12 +58334,21 @@
         <v>86</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -57310,12 +58462,21 @@
         <v>84</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -57429,12 +58590,21 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -57548,12 +58718,21 @@
         <v>87</v>
       </c>
       <c r="AM16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57667,12 +58846,21 @@
         <v>86</v>
       </c>
       <c r="AM17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -57786,12 +58974,21 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -57906,11 +59103,20 @@
       </c>
       <c r="AM19" t="s">
         <v>84</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -58024,12 +59230,21 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -58144,11 +59359,20 @@
       </c>
       <c r="AM21" t="s">
         <v>87</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -58262,12 +59486,21 @@
         <v>85</v>
       </c>
       <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -58382,11 +59615,20 @@
       </c>
       <c r="AM23" t="s">
         <v>86</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
@@ -58500,12 +59742,21 @@
         <v>84</v>
       </c>
       <c r="AM24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -58619,6 +59870,15 @@
         <v>87</v>
       </c>
       <c r="AM25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -58644,13 +59904,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -58659,7 +59919,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -58668,13 +59928,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -58686,37 +59946,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58725,10 +59985,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58741,11 +60001,14 @@
       </c>
       <c r="AJ1" t="s">
         <v>134</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -58851,11 +60114,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>85</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -58961,11 +60227,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -59070,12 +60339,15 @@
         <v>84</v>
       </c>
       <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -59181,11 +60453,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>84</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -59291,11 +60566,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -59401,11 +60679,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>84</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -59511,11 +60792,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -59621,11 +60905,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>84</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -59730,12 +61017,15 @@
         <v>84</v>
       </c>
       <c r="AJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -59841,11 +61131,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>84</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59950,12 +61243,15 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -60060,12 +61356,15 @@
         <v>86</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -60171,11 +61470,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -60281,11 +61583,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>84</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -60390,12 +61695,15 @@
         <v>87</v>
       </c>
       <c r="AJ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -60500,12 +61808,15 @@
         <v>84</v>
       </c>
       <c r="AJ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -60610,12 +61921,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -60720,12 +62034,15 @@
         <v>84</v>
       </c>
       <c r="AJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -60831,11 +62148,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>84</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -60941,11 +62261,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>85</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -61051,11 +62374,14 @@
       </c>
       <c r="AJ22" t="s">
         <v>84</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -61161,11 +62487,14 @@
       </c>
       <c r="AJ23" t="s">
         <v>85</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -61270,12 +62599,15 @@
         <v>86</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -61381,6 +62713,9 @@
       </c>
       <c r="AJ25" t="s">
         <v>84</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -61405,61 +62740,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -61468,7 +62803,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -61480,7 +62815,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -61493,11 +62828,20 @@
       </c>
       <c r="AG1" t="s">
         <v>133</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -61594,11 +62938,20 @@
       </c>
       <c r="AG2" t="s">
         <v>87</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -61695,11 +63048,20 @@
       </c>
       <c r="AG3" t="s">
         <v>87</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -61795,12 +63157,21 @@
         <v>84</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -61896,12 +63267,21 @@
         <v>84</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -61998,11 +63378,20 @@
       </c>
       <c r="AG6" t="s">
         <v>87</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -62099,11 +63488,20 @@
       </c>
       <c r="AG7" t="s">
         <v>85</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -62200,11 +63598,20 @@
       </c>
       <c r="AG8" t="s">
         <v>86</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -62301,11 +63708,20 @@
       </c>
       <c r="AG9" t="s">
         <v>87</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -62402,11 +63818,20 @@
       </c>
       <c r="AG10" t="s">
         <v>86</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -62503,11 +63928,20 @@
       </c>
       <c r="AG11" t="s">
         <v>84</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -62603,12 +64037,21 @@
         <v>84</v>
       </c>
       <c r="AG12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -62704,12 +64147,21 @@
         <v>84</v>
       </c>
       <c r="AG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -62806,11 +64258,20 @@
       </c>
       <c r="AG14" t="s">
         <v>86</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -62906,12 +64367,21 @@
         <v>84</v>
       </c>
       <c r="AG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -63008,11 +64478,20 @@
       </c>
       <c r="AG16" t="s">
         <v>87</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -63108,12 +64587,21 @@
         <v>85</v>
       </c>
       <c r="AG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -63210,11 +64698,20 @@
       </c>
       <c r="AG18" t="s">
         <v>86</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -63311,11 +64808,20 @@
       </c>
       <c r="AG19" t="s">
         <v>87</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -63411,12 +64917,21 @@
         <v>84</v>
       </c>
       <c r="AG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -63512,12 +65027,21 @@
         <v>84</v>
       </c>
       <c r="AG21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -63614,11 +65138,20 @@
       </c>
       <c r="AG22" t="s">
         <v>86</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -63715,11 +65248,20 @@
       </c>
       <c r="AG23" t="s">
         <v>86</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -63815,6 +65357,15 @@
         <v>87</v>
       </c>
       <c r="AG24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -63924,7 +65475,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63981,12 +65532,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -64141,7 +65692,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -64296,7 +65847,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -64451,7 +66002,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -64606,7 +66157,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -64761,7 +66312,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64916,7 +66467,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -65071,7 +66622,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -65226,7 +66777,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -65381,7 +66932,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -65536,7 +67087,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -65691,7 +67242,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -65846,7 +67397,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -66001,7 +67552,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -66156,7 +67707,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -66311,7 +67862,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -66466,7 +68017,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -66621,7 +68172,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -66776,7 +68327,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66931,7 +68482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/Teamform.xlsx
+++ b/Teamform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22541" uniqueCount="551">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>X2022.01.07</t>
+  </si>
+  <si>
+    <t>X2022.01.08</t>
+  </si>
+  <si>
+    <t>X2022.01.09</t>
   </si>
   <si>
     <t>Augsburg</t>
@@ -728,6 +737,9 @@
     <t>X2021.10.08</t>
   </si>
   <si>
+    <t>X2022.01.04</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -1037,6 +1049,9 @@
     <t>Valenciennes</t>
   </si>
   <si>
+    <t>X2022.01.05</t>
+  </si>
+  <si>
     <t>AEK</t>
   </si>
   <si>
@@ -1083,6 +1098,9 @@
   </si>
   <si>
     <t>X2021.10.28</t>
+  </si>
+  <si>
+    <t>X2022.01.06</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -5592,37 +5610,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5634,13 +5652,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5649,7 +5667,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -5658,19 +5676,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -5679,7 +5697,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5688,21 +5706,24 @@
         <v>53</v>
       </c>
       <c r="AI1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AL1" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -5814,11 +5835,14 @@
       </c>
       <c r="AL2" t="s">
         <v>86</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -5930,11 +5954,14 @@
       </c>
       <c r="AL3" t="s">
         <v>87</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -6046,11 +6073,14 @@
       </c>
       <c r="AL4" t="s">
         <v>87</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6162,11 +6192,14 @@
       </c>
       <c r="AL5" t="s">
         <v>85</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6278,11 +6311,14 @@
       </c>
       <c r="AL6" t="s">
         <v>85</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6394,11 +6430,14 @@
       </c>
       <c r="AL7" t="s">
         <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6510,11 +6549,14 @@
       </c>
       <c r="AL8" t="s">
         <v>87</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -6625,12 +6667,15 @@
         <v>84</v>
       </c>
       <c r="AL9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6742,11 +6787,14 @@
       </c>
       <c r="AL10" t="s">
         <v>86</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -6858,11 +6906,14 @@
       </c>
       <c r="AL11" t="s">
         <v>86</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -6974,11 +7025,14 @@
       </c>
       <c r="AL12" t="s">
         <v>87</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7090,11 +7144,14 @@
       </c>
       <c r="AL13" t="s">
         <v>87</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -7206,11 +7263,14 @@
       </c>
       <c r="AL14" t="s">
         <v>86</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -7322,11 +7382,14 @@
       </c>
       <c r="AL15" t="s">
         <v>86</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -7438,11 +7501,14 @@
       </c>
       <c r="AL16" t="s">
         <v>87</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7554,11 +7620,14 @@
       </c>
       <c r="AL17" t="s">
         <v>85</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -7670,11 +7739,14 @@
       </c>
       <c r="AL18" t="s">
         <v>85</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7786,11 +7858,14 @@
       </c>
       <c r="AL19" t="s">
         <v>85</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -7902,11 +7977,14 @@
       </c>
       <c r="AL20" t="s">
         <v>86</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8017,6 +8095,9 @@
         <v>84</v>
       </c>
       <c r="AL21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8063,7 +8144,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -8078,7 +8159,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -8093,7 +8174,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -8108,7 +8189,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8123,7 +8204,7 @@
         <v>54</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
         <v>56</v>
@@ -8147,12 +8228,24 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8267,11 +8360,23 @@
       </c>
       <c r="AM2" t="s">
         <v>87</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -8385,12 +8490,24 @@
         <v>84</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8505,11 +8622,23 @@
       </c>
       <c r="AM4" t="s">
         <v>86</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -8623,12 +8752,24 @@
         <v>87</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8742,12 +8883,24 @@
         <v>84</v>
       </c>
       <c r="AM6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8861,12 +9014,24 @@
         <v>87</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8981,11 +9146,23 @@
       </c>
       <c r="AM8" t="s">
         <v>87</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9099,12 +9276,24 @@
         <v>87</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9219,11 +9408,23 @@
       </c>
       <c r="AM10" t="s">
         <v>86</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9337,12 +9538,24 @@
         <v>86</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -9457,11 +9670,23 @@
       </c>
       <c r="AM12" t="s">
         <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -9575,12 +9800,24 @@
         <v>84</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9694,12 +9931,24 @@
         <v>86</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9814,6 +10063,18 @@
       </c>
       <c r="AM15" t="s">
         <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -9838,7 +10099,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -9868,10 +10129,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9886,7 +10147,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -9904,7 +10165,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -9916,13 +10177,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AE1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9931,7 +10192,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -9949,7 +10210,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9961,13 +10222,13 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AT1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AU1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AV1" t="s">
         <v>53</v>
@@ -9976,7 +10237,7 @@
         <v>54</v>
       </c>
       <c r="AX1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AY1" t="s">
         <v>55</v>
@@ -9988,7 +10249,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10000,15 +10261,21 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="BG1" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -10183,11 +10450,17 @@
       </c>
       <c r="BG2" t="s">
         <v>84</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10362,11 +10635,17 @@
       </c>
       <c r="BG3" t="s">
         <v>86</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10540,12 +10819,18 @@
         <v>87</v>
       </c>
       <c r="BG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10719,12 +11004,18 @@
         <v>84</v>
       </c>
       <c r="BG5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10899,11 +11190,17 @@
       </c>
       <c r="BG6" t="s">
         <v>85</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -11078,11 +11375,17 @@
       </c>
       <c r="BG7" t="s">
         <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11256,12 +11559,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11436,11 +11745,17 @@
       </c>
       <c r="BG9" t="s">
         <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -11615,11 +11930,17 @@
       </c>
       <c r="BG10" t="s">
         <v>86</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11793,12 +12114,18 @@
         <v>84</v>
       </c>
       <c r="BG11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11973,11 +12300,17 @@
       </c>
       <c r="BG12" t="s">
         <v>87</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12152,11 +12485,17 @@
       </c>
       <c r="BG13" t="s">
         <v>85</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12331,11 +12670,17 @@
       </c>
       <c r="BG14" t="s">
         <v>84</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12510,11 +12855,17 @@
       </c>
       <c r="BG15" t="s">
         <v>85</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -12689,11 +13040,17 @@
       </c>
       <c r="BG16" t="s">
         <v>87</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12867,12 +13224,18 @@
         <v>84</v>
       </c>
       <c r="BG17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -13047,11 +13410,17 @@
       </c>
       <c r="BG18" t="s">
         <v>87</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13226,11 +13595,17 @@
       </c>
       <c r="BG19" t="s">
         <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13404,12 +13779,18 @@
         <v>84</v>
       </c>
       <c r="BG20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -13584,6 +13965,12 @@
       </c>
       <c r="BG21" t="s">
         <v>85</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -13638,10 +14025,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13677,13 +14064,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AB1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -13710,13 +14097,13 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AM1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -13745,7 +14132,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13891,7 +14278,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14037,7 +14424,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14183,7 +14570,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14329,7 +14716,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14475,7 +14862,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14621,7 +15008,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14767,7 +15154,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14913,7 +15300,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15059,7 +15446,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -15205,7 +15592,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15351,7 +15738,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15497,7 +15884,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15643,7 +16030,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15789,7 +16176,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15935,7 +16322,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16081,7 +16468,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16227,7 +16614,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16373,7 +16760,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16519,7 +16906,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16721,7 +17108,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16790,10 +17177,10 @@
         <v>51</v>
       </c>
       <c r="AM1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -16820,18 +17207,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AX1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AY1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16986,7 +17373,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17141,7 +17528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17296,7 +17683,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17451,7 +17838,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17606,7 +17993,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -17761,7 +18148,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17916,7 +18303,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -18071,7 +18458,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18226,7 +18613,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18381,7 +18768,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18536,7 +18923,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18691,7 +19078,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18846,7 +19233,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19001,7 +19388,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19156,7 +19543,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19311,7 +19698,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19466,7 +19853,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19644,7 +20031,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19656,7 +20043,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19668,7 +20055,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -19698,7 +20085,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19710,7 +20097,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -19731,7 +20118,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19743,7 +20130,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -19764,10 +20151,10 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AU1" t="s">
         <v>52</v>
@@ -19788,7 +20175,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19800,24 +20187,33 @@
         <v>63</v>
       </c>
       <c r="BE1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BF1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BG1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BH1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BI1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19998,11 +20394,20 @@
       </c>
       <c r="BI2" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20183,11 +20588,20 @@
       </c>
       <c r="BI3" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20368,11 +20782,20 @@
       </c>
       <c r="BI4" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20552,12 +20975,21 @@
         <v>84</v>
       </c>
       <c r="BI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20737,12 +21169,21 @@
         <v>84</v>
       </c>
       <c r="BI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20923,11 +21364,20 @@
       </c>
       <c r="BI7" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21107,12 +21557,21 @@
         <v>84</v>
       </c>
       <c r="BI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21292,12 +21751,21 @@
         <v>84</v>
       </c>
       <c r="BI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21478,11 +21946,20 @@
       </c>
       <c r="BI10" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21663,11 +22140,20 @@
       </c>
       <c r="BI11" t="s">
         <v>87</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21848,11 +22334,20 @@
       </c>
       <c r="BI12" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -22033,11 +22528,20 @@
       </c>
       <c r="BI13" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22217,12 +22721,21 @@
         <v>84</v>
       </c>
       <c r="BI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22402,12 +22915,21 @@
         <v>84</v>
       </c>
       <c r="BI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22588,11 +23110,20 @@
       </c>
       <c r="BI16" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22772,12 +23303,21 @@
         <v>84</v>
       </c>
       <c r="BI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22958,11 +23498,20 @@
       </c>
       <c r="BI18" t="s">
         <v>86</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -23142,6 +23691,15 @@
         <v>86</v>
       </c>
       <c r="BI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23218,7 +23776,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23236,7 +23794,7 @@
         <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB1" t="s">
         <v>50</v>
@@ -23245,13 +23803,13 @@
         <v>51</v>
       </c>
       <c r="AD1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AE1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AG1" t="s">
         <v>53</v>
@@ -23260,7 +23818,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23278,7 +23836,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23286,7 +23844,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23414,7 +23972,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -23542,7 +24100,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -23670,7 +24228,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23798,7 +24356,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -23926,7 +24484,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -24054,7 +24612,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -24182,7 +24740,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24310,7 +24868,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24438,7 +24996,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -24566,7 +25124,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -24694,7 +25252,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24839,7 +25397,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24851,7 +25409,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24869,7 +25427,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24884,7 +25442,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24893,7 +25451,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24920,15 +25478,18 @@
         <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -25019,11 +25580,14 @@
       </c>
       <c r="AE2" t="s">
         <v>85</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -25114,11 +25678,14 @@
       </c>
       <c r="AE3" t="s">
         <v>84</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25209,11 +25776,14 @@
       </c>
       <c r="AE4" t="s">
         <v>85</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25304,11 +25874,14 @@
       </c>
       <c r="AE5" t="s">
         <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25398,12 +25971,15 @@
         <v>84</v>
       </c>
       <c r="AE6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25494,11 +26070,14 @@
       </c>
       <c r="AE7" t="s">
         <v>84</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -25589,11 +26168,14 @@
       </c>
       <c r="AE8" t="s">
         <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -25684,11 +26266,14 @@
       </c>
       <c r="AE9" t="s">
         <v>84</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -25778,12 +26363,15 @@
         <v>84</v>
       </c>
       <c r="AE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25873,6 +26461,9 @@
         <v>84</v>
       </c>
       <c r="AE11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -25910,7 +26501,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25940,7 +26531,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25949,7 +26540,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25958,21 +26549,24 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AA1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -26050,12 +26644,15 @@
         <v>86</v>
       </c>
       <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -26134,11 +26731,14 @@
       </c>
       <c r="AA3" t="s">
         <v>84</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -26217,11 +26817,14 @@
       </c>
       <c r="AA4" t="s">
         <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26299,12 +26902,15 @@
         <v>84</v>
       </c>
       <c r="AA5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -26382,12 +26988,15 @@
         <v>84</v>
       </c>
       <c r="AA6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26465,12 +27074,15 @@
         <v>84</v>
       </c>
       <c r="AA7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26549,11 +27161,14 @@
       </c>
       <c r="AA8" t="s">
         <v>84</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26632,11 +27247,14 @@
       </c>
       <c r="AA9" t="s">
         <v>86</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26715,11 +27333,14 @@
       </c>
       <c r="AA10" t="s">
         <v>87</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26797,6 +27418,9 @@
         <v>87</v>
       </c>
       <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -26837,7 +27461,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26873,19 +27497,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="V1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26903,21 +27527,27 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AF1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
       </c>
       <c r="AH1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -27017,11 +27647,17 @@
       </c>
       <c r="AH2" t="s">
         <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -27121,11 +27757,17 @@
       </c>
       <c r="AH3" t="s">
         <v>85</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -27225,11 +27867,17 @@
       </c>
       <c r="AH4" t="s">
         <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -27328,12 +27976,18 @@
         <v>84</v>
       </c>
       <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27433,11 +28087,17 @@
       </c>
       <c r="AH6" t="s">
         <v>86</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -27537,11 +28197,17 @@
       </c>
       <c r="AH7" t="s">
         <v>87</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -27641,11 +28307,17 @@
       </c>
       <c r="AH8" t="s">
         <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -27745,11 +28417,17 @@
       </c>
       <c r="AH9" t="s">
         <v>87</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27849,11 +28527,17 @@
       </c>
       <c r="AH10" t="s">
         <v>86</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27953,6 +28637,12 @@
       </c>
       <c r="AH11" t="s">
         <v>85</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -28117,10 +28807,19 @@
       <c r="AX1" t="s">
         <v>63</v>
       </c>
+      <c r="AY1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -28267,12 +28966,21 @@
         <v>85</v>
       </c>
       <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -28419,12 +29127,21 @@
         <v>84</v>
       </c>
       <c r="AX3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -28571,12 +29288,21 @@
         <v>86</v>
       </c>
       <c r="AX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -28724,11 +29450,20 @@
       </c>
       <c r="AX5" t="s">
         <v>84</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -28875,12 +29610,21 @@
         <v>87</v>
       </c>
       <c r="AX6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -29027,12 +29771,21 @@
         <v>86</v>
       </c>
       <c r="AX7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -29179,12 +29932,21 @@
         <v>84</v>
       </c>
       <c r="AX8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -29332,11 +30094,20 @@
       </c>
       <c r="AX9" t="s">
         <v>86</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -29483,12 +30254,21 @@
         <v>85</v>
       </c>
       <c r="AX10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -29636,11 +30416,20 @@
       </c>
       <c r="AX11" t="s">
         <v>84</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -29787,12 +30576,21 @@
         <v>85</v>
       </c>
       <c r="AX12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -29940,11 +30738,20 @@
       </c>
       <c r="AX13" t="s">
         <v>87</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -30091,12 +30898,21 @@
         <v>87</v>
       </c>
       <c r="AX14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -30243,12 +31059,21 @@
         <v>85</v>
       </c>
       <c r="AX15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -30395,12 +31220,21 @@
         <v>87</v>
       </c>
       <c r="AX16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -30548,11 +31382,20 @@
       </c>
       <c r="AX17" t="s">
         <v>87</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -30699,12 +31542,21 @@
         <v>86</v>
       </c>
       <c r="AX18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -30852,6 +31704,15 @@
       </c>
       <c r="AX19" t="s">
         <v>84</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -30879,7 +31740,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30891,7 +31752,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30921,10 +31782,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="T1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30939,7 +31800,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30957,7 +31818,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -30969,16 +31830,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AJ1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AK1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AL1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30987,7 +31848,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -31008,7 +31869,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -31020,10 +31881,10 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BA1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -31035,7 +31896,7 @@
         <v>54</v>
       </c>
       <c r="BE1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BF1" t="s">
         <v>55</v>
@@ -31047,7 +31908,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -31059,27 +31920,33 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BN1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="BO1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="BP1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="BQ1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BR1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31287,11 +32154,17 @@
       </c>
       <c r="BR2" t="s">
         <v>84</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31499,11 +32372,17 @@
       </c>
       <c r="BR3" t="s">
         <v>86</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31711,11 +32590,17 @@
       </c>
       <c r="BR4" t="s">
         <v>84</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31922,12 +32807,18 @@
         <v>86</v>
       </c>
       <c r="BR5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -32135,11 +33026,17 @@
       </c>
       <c r="BR6" t="s">
         <v>84</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32346,12 +33243,18 @@
         <v>84</v>
       </c>
       <c r="BR7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32558,12 +33461,18 @@
         <v>86</v>
       </c>
       <c r="BR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32770,12 +33679,18 @@
         <v>85</v>
       </c>
       <c r="BR9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32982,12 +33897,18 @@
         <v>84</v>
       </c>
       <c r="BR10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -33195,11 +34116,17 @@
       </c>
       <c r="BR11" t="s">
         <v>84</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33406,12 +34333,18 @@
         <v>85</v>
       </c>
       <c r="BR12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33619,11 +34552,17 @@
       </c>
       <c r="BR13" t="s">
         <v>87</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33830,12 +34769,18 @@
         <v>87</v>
       </c>
       <c r="BR14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -34043,11 +34988,17 @@
       </c>
       <c r="BR15" t="s">
         <v>87</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -34254,12 +35205,18 @@
         <v>87</v>
       </c>
       <c r="BR16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34466,12 +35423,18 @@
         <v>84</v>
       </c>
       <c r="BR17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34678,12 +35641,18 @@
         <v>85</v>
       </c>
       <c r="BR18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34890,12 +35859,18 @@
         <v>84</v>
       </c>
       <c r="BR19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -35103,11 +36078,17 @@
       </c>
       <c r="BR20" t="s">
         <v>84</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -35315,6 +36296,12 @@
       </c>
       <c r="BR21" t="s">
         <v>86</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -35342,7 +36329,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35354,7 +36341,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -35366,19 +36353,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="Q1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35402,7 +36389,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35414,7 +36401,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -35426,19 +36413,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AH1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AI1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AJ1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AK1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35450,13 +36437,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35468,7 +36455,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35480,16 +36467,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AZ1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BA1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BB1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35501,19 +36488,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="BG1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BH1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BI1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="BJ1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35525,7 +36512,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35537,7 +36524,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35549,7 +36536,7 @@
         <v>54</v>
       </c>
       <c r="BV1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BW1" t="s">
         <v>55</v>
@@ -35561,7 +36548,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35573,18 +36560,27 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="CE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="CF1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35834,11 +36830,20 @@
       </c>
       <c r="CF2" t="s">
         <v>87</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -36088,11 +37093,20 @@
       </c>
       <c r="CF3" t="s">
         <v>84</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -36341,12 +37355,21 @@
         <v>84</v>
       </c>
       <c r="CF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36595,12 +37618,21 @@
         <v>84</v>
       </c>
       <c r="CF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36849,12 +37881,21 @@
         <v>86</v>
       </c>
       <c r="CF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -37103,12 +38144,21 @@
         <v>84</v>
       </c>
       <c r="CF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -37358,11 +38408,20 @@
       </c>
       <c r="CF8" t="s">
         <v>84</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37612,11 +38671,20 @@
       </c>
       <c r="CF9" t="s">
         <v>84</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37865,12 +38933,21 @@
         <v>87</v>
       </c>
       <c r="CF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -38119,12 +39196,21 @@
         <v>86</v>
       </c>
       <c r="CF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -38374,11 +39460,20 @@
       </c>
       <c r="CF12" t="s">
         <v>84</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38627,12 +39722,21 @@
         <v>87</v>
       </c>
       <c r="CF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38882,11 +39986,20 @@
       </c>
       <c r="CF14" t="s">
         <v>84</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -39136,11 +40249,20 @@
       </c>
       <c r="CF15" t="s">
         <v>86</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -39390,11 +40512,20 @@
       </c>
       <c r="CF16" t="s">
         <v>84</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39643,12 +40774,21 @@
         <v>84</v>
       </c>
       <c r="CF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39898,11 +41038,20 @@
       </c>
       <c r="CF18" t="s">
         <v>84</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -40151,12 +41300,21 @@
         <v>84</v>
       </c>
       <c r="CF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -40406,11 +41564,20 @@
       </c>
       <c r="CF20" t="s">
         <v>84</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40659,12 +41826,21 @@
         <v>87</v>
       </c>
       <c r="CF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40913,12 +42089,21 @@
         <v>86</v>
       </c>
       <c r="CF22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -41168,6 +42353,15 @@
       </c>
       <c r="CF23" t="s">
         <v>84</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -41195,7 +42389,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -41207,7 +42401,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -41237,7 +42431,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -41255,7 +42449,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -41276,7 +42470,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -41288,7 +42482,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -41300,7 +42494,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -41318,7 +42512,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -41330,7 +42524,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -41342,7 +42536,7 @@
         <v>54</v>
       </c>
       <c r="BB1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BC1" t="s">
         <v>55</v>
@@ -41354,7 +42548,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -41366,27 +42560,36 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="BK1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="BL1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="BM1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
       </c>
       <c r="BO1" t="s">
         <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -41584,12 +42787,21 @@
         <v>85</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41787,12 +42999,21 @@
         <v>85</v>
       </c>
       <c r="BO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41991,11 +43212,20 @@
       </c>
       <c r="BO4" t="s">
         <v>84</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -42194,11 +43424,20 @@
       </c>
       <c r="BO5" t="s">
         <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -42397,11 +43636,20 @@
       </c>
       <c r="BO6" t="s">
         <v>87</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42599,12 +43847,21 @@
         <v>84</v>
       </c>
       <c r="BO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42802,12 +44059,21 @@
         <v>86</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -43005,12 +44271,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -43208,12 +44483,21 @@
         <v>86</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -43411,12 +44695,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43615,11 +44908,20 @@
       </c>
       <c r="BO12" t="s">
         <v>84</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43817,12 +45119,21 @@
         <v>84</v>
       </c>
       <c r="BO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -44020,12 +45331,21 @@
         <v>85</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -44223,12 +45543,21 @@
         <v>84</v>
       </c>
       <c r="BO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -44426,12 +45755,21 @@
         <v>84</v>
       </c>
       <c r="BO16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44630,11 +45968,20 @@
       </c>
       <c r="BO17" t="s">
         <v>86</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -44833,11 +46180,20 @@
       </c>
       <c r="BO18" t="s">
         <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -45036,11 +46392,20 @@
       </c>
       <c r="BO19" t="s">
         <v>87</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -45238,12 +46603,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -45441,6 +46815,15 @@
         <v>87</v>
       </c>
       <c r="BO21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45583,7 +46966,7 @@
         <v>48</v>
       </c>
       <c r="AQ1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AR1" t="s">
         <v>49</v>
@@ -45624,7 +47007,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -45791,7 +47174,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -45958,7 +47341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -46125,7 +47508,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -46292,7 +47675,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -46459,7 +47842,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -46626,7 +48009,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -46793,7 +48176,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -46960,7 +48343,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -47127,7 +48510,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -47294,7 +48677,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -47461,7 +48844,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -47628,7 +49011,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -47795,7 +49178,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -47962,7 +49345,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -48129,7 +49512,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -48296,7 +49679,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -48463,7 +49846,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -48659,7 +50042,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -48692,7 +50075,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -48707,7 +50090,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -48725,7 +50108,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -48749,13 +50132,13 @@
         <v>51</v>
       </c>
       <c r="AK1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AL1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AM1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AN1" t="s">
         <v>53</v>
@@ -48764,7 +50147,7 @@
         <v>54</v>
       </c>
       <c r="AP1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AQ1" t="s">
         <v>55</v>
@@ -48797,27 +50180,27 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BB1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BC1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BD1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BF1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -48993,7 +50376,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -49169,7 +50552,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -49345,7 +50728,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -49521,7 +50904,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49697,7 +51080,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49873,7 +51256,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -50049,7 +51432,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -50225,7 +51608,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -50401,7 +51784,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -50577,7 +51960,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50753,7 +52136,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50929,7 +52312,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -51105,7 +52488,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -51281,7 +52664,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -51457,7 +52840,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -51633,7 +53016,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51809,7 +53192,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -51985,7 +53368,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -52161,7 +53544,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -52363,10 +53746,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -52387,10 +53770,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -52402,10 +53785,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="T1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -52423,10 +53806,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AA1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -52441,10 +53824,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -52459,10 +53842,10 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AM1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AN1" t="s">
         <v>49</v>
@@ -52474,7 +53857,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -52495,7 +53878,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -52504,24 +53887,24 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BB1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BC1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BD1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BE1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -52694,7 +54077,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52867,7 +54250,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -53040,7 +54423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -53213,7 +54596,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -53386,7 +54769,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -53559,7 +54942,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -53732,7 +55115,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53905,7 +55288,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -54078,7 +55461,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -54251,7 +55634,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -54424,7 +55807,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -54597,7 +55980,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -54770,7 +56153,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54943,7 +56326,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -55116,7 +56499,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -55289,7 +56672,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -55462,7 +56845,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -55635,7 +57018,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -55808,7 +57191,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -55981,7 +57364,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -56154,7 +57537,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -56327,7 +57710,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -56500,7 +57883,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -56693,7 +58076,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -56705,34 +58088,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -56741,31 +58124,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -56777,10 +58160,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -56795,24 +58178,27 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AP1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -56936,11 +58322,14 @@
       </c>
       <c r="AP2" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -57063,12 +58452,15 @@
         <v>84</v>
       </c>
       <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -57191,12 +58583,15 @@
         <v>84</v>
       </c>
       <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -57320,11 +58715,14 @@
       </c>
       <c r="AP5" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -57448,11 +58846,14 @@
       </c>
       <c r="AP6" t="s">
         <v>85</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -57575,12 +58976,15 @@
         <v>84</v>
       </c>
       <c r="AP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -57704,11 +59108,14 @@
       </c>
       <c r="AP8" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -57831,12 +59238,15 @@
         <v>84</v>
       </c>
       <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -57960,11 +59370,14 @@
       </c>
       <c r="AP10" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -58088,11 +59501,14 @@
       </c>
       <c r="AP11" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -58216,11 +59632,14 @@
       </c>
       <c r="AP12" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -58344,11 +59763,14 @@
       </c>
       <c r="AP13" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -58472,11 +59894,14 @@
       </c>
       <c r="AP14" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -58600,11 +60025,14 @@
       </c>
       <c r="AP15" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -58727,12 +60155,15 @@
         <v>86</v>
       </c>
       <c r="AP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -58856,11 +60287,14 @@
       </c>
       <c r="AP17" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -58983,12 +60417,15 @@
         <v>84</v>
       </c>
       <c r="AP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -59112,11 +60549,14 @@
       </c>
       <c r="AP19" t="s">
         <v>85</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -59239,12 +60679,15 @@
         <v>84</v>
       </c>
       <c r="AP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -59367,12 +60810,15 @@
         <v>87</v>
       </c>
       <c r="AP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -59495,12 +60941,15 @@
         <v>86</v>
       </c>
       <c r="AP22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -59624,11 +61073,14 @@
       </c>
       <c r="AP23" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
@@ -59751,12 +61203,15 @@
         <v>84</v>
       </c>
       <c r="AP24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -59880,6 +61335,9 @@
       </c>
       <c r="AP25" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -59904,13 +61362,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -59919,7 +61377,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -59928,13 +61386,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -59946,37 +61404,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -59985,10 +61443,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -60000,15 +61458,21 @@
         <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK1" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -60117,11 +61581,17 @@
       </c>
       <c r="AK2" t="s">
         <v>87</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -60230,11 +61700,17 @@
       </c>
       <c r="AK3" t="s">
         <v>86</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -60342,12 +61818,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -60455,12 +61937,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -60569,11 +62057,17 @@
       </c>
       <c r="AK6" t="s">
         <v>87</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -60681,12 +62175,18 @@
         <v>84</v>
       </c>
       <c r="AK7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -60795,11 +62295,17 @@
       </c>
       <c r="AK8" t="s">
         <v>87</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -60908,11 +62414,17 @@
       </c>
       <c r="AK9" t="s">
         <v>86</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -61020,12 +62532,18 @@
         <v>84</v>
       </c>
       <c r="AK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -61134,11 +62652,17 @@
       </c>
       <c r="AK11" t="s">
         <v>85</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -61246,12 +62770,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -61359,12 +62889,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -61473,11 +63009,17 @@
       </c>
       <c r="AK14" t="s">
         <v>85</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -61585,12 +63127,18 @@
         <v>84</v>
       </c>
       <c r="AK15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -61699,11 +63247,17 @@
       </c>
       <c r="AK16" t="s">
         <v>85</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -61811,12 +63365,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -61924,12 +63484,18 @@
         <v>84</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -62038,11 +63604,17 @@
       </c>
       <c r="AK19" t="s">
         <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -62150,12 +63722,18 @@
         <v>84</v>
       </c>
       <c r="AK20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -62264,11 +63842,17 @@
       </c>
       <c r="AK21" t="s">
         <v>87</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -62377,11 +63961,17 @@
       </c>
       <c r="AK22" t="s">
         <v>86</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -62490,11 +64080,17 @@
       </c>
       <c r="AK23" t="s">
         <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -62603,11 +64199,17 @@
       </c>
       <c r="AK24" t="s">
         <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -62716,6 +64318,12 @@
       </c>
       <c r="AK25" t="s">
         <v>85</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -62740,61 +64348,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="V1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -62803,19 +64411,19 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB1" t="s">
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -62827,21 +64435,24 @@
         <v>64</v>
       </c>
       <c r="AG1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AH1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AI1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AJ1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -62947,11 +64558,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -63057,11 +64671,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -63167,11 +64784,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>84</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -63276,12 +64896,15 @@
         <v>85</v>
       </c>
       <c r="AJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63387,11 +65010,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -63496,12 +65122,15 @@
         <v>84</v>
       </c>
       <c r="AJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -63607,11 +65236,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -63716,12 +65348,15 @@
         <v>87</v>
       </c>
       <c r="AJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -63827,11 +65462,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>84</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -63937,11 +65575,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>85</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -64047,11 +65688,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>85</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -64156,12 +65800,15 @@
         <v>84</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -64267,11 +65914,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -64376,12 +66026,15 @@
         <v>86</v>
       </c>
       <c r="AJ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -64487,11 +66140,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -64597,11 +66253,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>84</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -64706,12 +66365,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -64817,11 +66479,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>84</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -64926,12 +66591,15 @@
         <v>84</v>
       </c>
       <c r="AJ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -65037,11 +66705,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>84</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -65146,12 +66817,15 @@
         <v>87</v>
       </c>
       <c r="AJ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -65256,12 +66930,15 @@
         <v>87</v>
       </c>
       <c r="AJ23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -65366,6 +67043,9 @@
         <v>87</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -65475,7 +67155,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -65514,7 +67194,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AT1" t="s">
         <v>53</v>
@@ -65532,12 +67212,21 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -65688,11 +67377,20 @@
       </c>
       <c r="AY2" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -65843,11 +67541,20 @@
       </c>
       <c r="AY3" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -65998,11 +67705,20 @@
       </c>
       <c r="AY4" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -66153,11 +67869,20 @@
       </c>
       <c r="AY5" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -66308,11 +68033,20 @@
       </c>
       <c r="AY6" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -66463,11 +68197,20 @@
       </c>
       <c r="AY7" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -66618,11 +68361,20 @@
       </c>
       <c r="AY8" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -66772,12 +68524,21 @@
         <v>85</v>
       </c>
       <c r="AY9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -66928,11 +68689,20 @@
       </c>
       <c r="AY10" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -67083,11 +68853,20 @@
       </c>
       <c r="AY11" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -67238,11 +69017,20 @@
       </c>
       <c r="AY12" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -67393,11 +69181,20 @@
       </c>
       <c r="AY13" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -67548,11 +69345,20 @@
       </c>
       <c r="AY14" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -67702,12 +69508,21 @@
         <v>86</v>
       </c>
       <c r="AY15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -67857,12 +69672,21 @@
         <v>86</v>
       </c>
       <c r="AY16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -68012,12 +69836,21 @@
         <v>84</v>
       </c>
       <c r="AY17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -68168,11 +70001,20 @@
       </c>
       <c r="AY18" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -68323,11 +70165,20 @@
       </c>
       <c r="AY19" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -68478,11 +70329,20 @@
       </c>
       <c r="AY20" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -68633,6 +70493,15 @@
       </c>
       <c r="AY21" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
